--- a/database/industries/folad/fakhouz/product/monthly.xlsx
+++ b/database/industries/folad/fakhouz/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC7396E-4182-4504-B005-1D1BFA354740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -273,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,7 +467,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -478,7 +479,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -525,6 +526,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -560,6 +578,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,17 +746,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -776,7 +811,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -833,7 +868,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -890,7 +925,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -945,7 +980,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1002,7 +1037,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +1094,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1114,7 +1149,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1271,7 +1306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1326,7 +1361,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1383,7 +1418,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1542,7 +1577,7 @@
         <v>522404</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1701,7 +1736,7 @@
         <v>105781</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1860,7 +1895,7 @@
         <v>339118</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -2019,7 +2054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2178,7 +2213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2337,7 +2372,7 @@
         <v>223132</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2496,7 +2531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2655,7 +2690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2814,7 +2849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2973,7 +3008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3132,7 +3167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>68</v>
       </c>
@@ -3189,7 +3224,7 @@
       <c r="BA22" s="15"/>
       <c r="BB22" s="15"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3346,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>70</v>
       </c>
@@ -3503,7 +3538,7 @@
         <v>1190435</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3558,7 +3593,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3613,7 +3648,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3668,7 +3703,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
@@ -3825,7 +3860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3880,7 +3915,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
@@ -3937,7 +3972,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -4096,7 +4131,7 @@
         <v>35724</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
@@ -4255,7 +4290,7 @@
         <v>147475</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -4414,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4573,7 +4608,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
@@ -4732,7 +4767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4891,7 +4926,7 @@
         <v>172483</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
@@ -5050,7 +5085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>64</v>
       </c>
@@ -5209,7 +5244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>65</v>
       </c>
@@ -5368,7 +5403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>66</v>
       </c>
@@ -5527,7 +5562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -5686,7 +5721,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>68</v>
       </c>
@@ -5743,7 +5778,7 @@
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>69</v>
       </c>
@@ -5900,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>72</v>
       </c>
@@ -5957,7 +5992,7 @@
       <c r="BA44" s="15"/>
       <c r="BB44" s="15"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>73</v>
       </c>
@@ -6114,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>70</v>
       </c>
@@ -6271,7 +6306,7 @@
         <v>355682</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6326,7 +6361,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6381,7 +6416,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6436,7 +6471,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>74</v>
       </c>
@@ -6593,7 +6628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6648,7 +6683,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>74</v>
       </c>
@@ -6705,7 +6740,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
@@ -6864,7 +6899,7 @@
         <v>1001422</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>58</v>
       </c>
@@ -7023,7 +7058,7 @@
         <v>17367196</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
@@ -7182,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>60</v>
       </c>
@@ -7341,7 +7376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>61</v>
       </c>
@@ -7500,7 +7535,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>62</v>
       </c>
@@ -7659,7 +7694,7 @@
         <v>21645865</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>63</v>
       </c>
@@ -7818,7 +7853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>64</v>
       </c>
@@ -7977,7 +8012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>65</v>
       </c>
@@ -8136,7 +8171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>66</v>
       </c>
@@ -8295,7 +8330,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>67</v>
       </c>
@@ -8454,7 +8489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>76</v>
       </c>
@@ -8511,7 +8546,7 @@
       <c r="BA64" s="15"/>
       <c r="BB64" s="15"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="16" t="s">
         <v>69</v>
       </c>
@@ -8670,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>77</v>
       </c>
@@ -8727,7 +8762,7 @@
       <c r="BA66" s="15"/>
       <c r="BB66" s="15"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="16" t="s">
         <v>73</v>
       </c>
@@ -8886,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>78</v>
       </c>
@@ -8943,7 +8978,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>79</v>
       </c>
@@ -9102,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="18" t="s">
         <v>70</v>
       </c>
@@ -9259,7 +9294,7 @@
         <v>40014483</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9314,7 +9349,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9369,7 +9404,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9424,7 +9459,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>80</v>
       </c>
@@ -9581,7 +9616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9636,7 +9671,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>81</v>
       </c>
@@ -9693,7 +9728,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>55</v>
       </c>
@@ -9852,7 +9887,7 @@
         <v>28032191</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>58</v>
       </c>
@@ -10011,7 +10046,7 @@
         <v>117763662</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>59</v>
       </c>
@@ -10170,7 +10205,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
@@ -10329,7 +10364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>61</v>
       </c>
@@ -10488,7 +10523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>62</v>
       </c>
@@ -10647,7 +10682,7 @@
         <v>125495643</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>63</v>
       </c>
@@ -10806,7 +10841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>64</v>
       </c>
@@ -10965,7 +11000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>65</v>
       </c>
@@ -11124,7 +11159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>66</v>
       </c>
@@ -11283,7 +11318,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>67</v>
       </c>

--- a/database/industries/folad/fakhouz/product/monthly.xlsx
+++ b/database/industries/folad/fakhouz/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC7396E-4182-4504-B005-1D1BFA354740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED299C0-7370-45B5-89F3-E716957FE34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>گندله</t>
@@ -1427,154 +1427,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>564501</v>
+        <v>366569</v>
       </c>
       <c r="F11" s="11">
-        <v>332481</v>
+        <v>568056</v>
       </c>
       <c r="G11" s="11">
-        <v>366569</v>
+        <v>561948</v>
       </c>
       <c r="H11" s="11">
-        <v>568056</v>
+        <v>522858</v>
       </c>
       <c r="I11" s="11">
-        <v>561948</v>
-      </c>
-      <c r="J11" s="11">
-        <v>522858</v>
-      </c>
-      <c r="K11" s="11">
         <v>527129</v>
       </c>
+      <c r="J11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>57</v>
+      <c r="M11" s="11">
+        <v>537712</v>
+      </c>
+      <c r="N11" s="11">
+        <v>538739</v>
       </c>
       <c r="O11" s="11">
-        <v>537712</v>
+        <v>509808</v>
       </c>
       <c r="P11" s="11">
-        <v>538739</v>
+        <v>515146</v>
       </c>
       <c r="Q11" s="11">
-        <v>509808</v>
+        <v>523930</v>
       </c>
       <c r="R11" s="11">
-        <v>515146</v>
+        <v>0</v>
       </c>
       <c r="S11" s="11">
-        <v>523930</v>
+        <v>244414</v>
       </c>
       <c r="T11" s="11">
-        <v>0</v>
+        <v>452502</v>
       </c>
       <c r="U11" s="11">
-        <v>244414</v>
+        <v>444633</v>
       </c>
       <c r="V11" s="11">
-        <v>452502</v>
+        <v>536743</v>
       </c>
       <c r="W11" s="11">
-        <v>444633</v>
+        <v>547985</v>
       </c>
       <c r="X11" s="11">
-        <v>536743</v>
+        <v>529148</v>
       </c>
       <c r="Y11" s="11">
-        <v>547985</v>
+        <v>468407</v>
       </c>
       <c r="Z11" s="11">
-        <v>529148</v>
+        <v>524854</v>
       </c>
       <c r="AA11" s="11">
-        <v>468407</v>
+        <v>529010</v>
       </c>
       <c r="AB11" s="11">
-        <v>524854</v>
+        <v>526158</v>
       </c>
       <c r="AC11" s="11">
-        <v>529010</v>
+        <v>535181</v>
       </c>
       <c r="AD11" s="11">
-        <v>526158</v>
+        <v>453081</v>
       </c>
       <c r="AE11" s="11">
-        <v>535181</v>
+        <v>493368</v>
       </c>
       <c r="AF11" s="11">
-        <v>453081</v>
+        <v>355713</v>
       </c>
       <c r="AG11" s="11">
-        <v>493368</v>
+        <v>261605</v>
       </c>
       <c r="AH11" s="11">
-        <v>355713</v>
+        <v>505905</v>
       </c>
       <c r="AI11" s="11">
-        <v>261605</v>
+        <v>534781</v>
       </c>
       <c r="AJ11" s="11">
-        <v>505905</v>
+        <v>527785</v>
       </c>
       <c r="AK11" s="11">
-        <v>534781</v>
+        <v>405444</v>
       </c>
       <c r="AL11" s="11">
-        <v>527785</v>
+        <v>420236</v>
       </c>
       <c r="AM11" s="11">
-        <v>405444</v>
+        <v>367497</v>
       </c>
       <c r="AN11" s="11">
-        <v>420236</v>
+        <v>430395</v>
       </c>
       <c r="AO11" s="11">
-        <v>367497</v>
+        <v>513633</v>
       </c>
       <c r="AP11" s="11">
-        <v>430395</v>
+        <v>528153</v>
       </c>
       <c r="AQ11" s="11">
-        <v>513633</v>
+        <v>469388</v>
       </c>
       <c r="AR11" s="11">
-        <v>528153</v>
+        <v>423442</v>
       </c>
       <c r="AS11" s="11">
-        <v>469388</v>
+        <v>495064</v>
       </c>
       <c r="AT11" s="11">
-        <v>423442</v>
+        <v>422178</v>
       </c>
       <c r="AU11" s="11">
-        <v>495064</v>
+        <v>286562</v>
       </c>
       <c r="AV11" s="11">
-        <v>422178</v>
+        <v>457458</v>
       </c>
       <c r="AW11" s="11">
-        <v>286562</v>
+        <v>433810</v>
       </c>
       <c r="AX11" s="11">
-        <v>457458</v>
+        <v>568559</v>
       </c>
       <c r="AY11" s="11">
-        <v>433810</v>
+        <v>502675</v>
       </c>
       <c r="AZ11" s="11">
-        <v>568559</v>
+        <v>522404</v>
       </c>
       <c r="BA11" s="11">
-        <v>502675</v>
+        <v>493162</v>
       </c>
       <c r="BB11" s="11">
-        <v>522404</v>
+        <v>530291</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1636,21 +1636,21 @@
       <c r="U12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>57</v>
+      <c r="V12" s="13">
+        <v>128459</v>
+      </c>
+      <c r="W12" s="13">
+        <v>131166</v>
       </c>
       <c r="X12" s="13">
-        <v>128459</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>131166</v>
-      </c>
-      <c r="Z12" s="13">
         <v>127607</v>
       </c>
+      <c r="Y12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AA12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1702,38 +1702,38 @@
       <c r="AQ12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT12" s="13" t="s">
-        <v>57</v>
+      <c r="AR12" s="13">
+        <v>1593411</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>157204</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>162356</v>
       </c>
       <c r="AU12" s="13">
-        <v>157204</v>
-      </c>
-      <c r="AV12" s="13" t="s">
-        <v>57</v>
+        <v>158524</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>165783</v>
       </c>
       <c r="AW12" s="13">
-        <v>158524</v>
+        <v>121091</v>
       </c>
       <c r="AX12" s="13">
-        <v>165783</v>
+        <v>76607</v>
       </c>
       <c r="AY12" s="13">
-        <v>121091</v>
+        <v>78624</v>
       </c>
       <c r="AZ12" s="13">
-        <v>76607</v>
+        <v>105781</v>
       </c>
       <c r="BA12" s="13">
-        <v>78624</v>
+        <v>102583</v>
       </c>
       <c r="BB12" s="13">
-        <v>105781</v>
+        <v>81505</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1792,14 +1792,14 @@
       <c r="T13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U13" s="11" t="s">
-        <v>57</v>
+      <c r="U13" s="11">
+        <v>0</v>
       </c>
       <c r="V13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W13" s="11">
-        <v>0</v>
+      <c r="W13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>57</v>
@@ -1840,59 +1840,59 @@
       <c r="AJ13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL13" s="11" t="s">
-        <v>57</v>
+      <c r="AK13" s="11">
+        <v>172127</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>156686</v>
       </c>
       <c r="AM13" s="11">
-        <v>172127</v>
+        <v>228863</v>
       </c>
       <c r="AN13" s="11">
-        <v>156686</v>
+        <v>315803</v>
       </c>
       <c r="AO13" s="11">
-        <v>228863</v>
+        <v>331127</v>
       </c>
       <c r="AP13" s="11">
-        <v>315803</v>
+        <v>326475</v>
       </c>
       <c r="AQ13" s="11">
-        <v>331127</v>
+        <v>269811</v>
       </c>
       <c r="AR13" s="11">
-        <v>326475</v>
+        <v>232317</v>
       </c>
       <c r="AS13" s="11">
-        <v>269811</v>
+        <v>315531</v>
       </c>
       <c r="AT13" s="11">
-        <v>232317</v>
+        <v>373392</v>
       </c>
       <c r="AU13" s="11">
-        <v>315531</v>
+        <v>354970</v>
       </c>
       <c r="AV13" s="11">
-        <v>373392</v>
+        <v>330358</v>
       </c>
       <c r="AW13" s="11">
-        <v>354970</v>
+        <v>213095</v>
       </c>
       <c r="AX13" s="11">
-        <v>330358</v>
+        <v>245969</v>
       </c>
       <c r="AY13" s="11">
-        <v>213095</v>
+        <v>318943</v>
       </c>
       <c r="AZ13" s="11">
-        <v>245969</v>
+        <v>339118</v>
       </c>
       <c r="BA13" s="11">
-        <v>318943</v>
+        <v>344624</v>
       </c>
       <c r="BB13" s="11">
-        <v>339118</v>
+        <v>271404</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1954,20 +1954,20 @@
       <c r="U14" s="13">
         <v>0</v>
       </c>
-      <c r="V14" s="13">
-        <v>0</v>
-      </c>
-      <c r="W14" s="13">
-        <v>0</v>
+      <c r="V14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>57</v>
+      <c r="Y14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>0</v>
       </c>
       <c r="AA14" s="13">
         <v>0</v>
@@ -2020,20 +2020,20 @@
       <c r="AQ14" s="13">
         <v>0</v>
       </c>
-      <c r="AR14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>0</v>
+      <c r="AR14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV14" s="13">
-        <v>0</v>
+      <c r="AV14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AW14" s="13" t="s">
         <v>57</v>
@@ -2063,136 +2063,136 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>88056</v>
+        <v>101790</v>
       </c>
       <c r="F15" s="11">
-        <v>84544</v>
+        <v>93605</v>
       </c>
       <c r="G15" s="11">
-        <v>101790</v>
+        <v>86266</v>
       </c>
       <c r="H15" s="11">
-        <v>93605</v>
+        <v>107235</v>
       </c>
       <c r="I15" s="11">
-        <v>86266</v>
+        <v>89557</v>
       </c>
       <c r="J15" s="11">
-        <v>107235</v>
+        <v>100273</v>
       </c>
       <c r="K15" s="11">
-        <v>89557</v>
+        <v>92200</v>
       </c>
       <c r="L15" s="11">
-        <v>100273</v>
+        <v>115733</v>
       </c>
       <c r="M15" s="11">
-        <v>92200</v>
+        <v>115328</v>
       </c>
       <c r="N15" s="11">
-        <v>115733</v>
+        <v>87729</v>
       </c>
       <c r="O15" s="11">
-        <v>115328</v>
+        <v>126036</v>
       </c>
       <c r="P15" s="11">
-        <v>87729</v>
+        <v>104854</v>
       </c>
       <c r="Q15" s="11">
-        <v>126036</v>
+        <v>78507</v>
       </c>
       <c r="R15" s="11">
-        <v>104854</v>
+        <v>80767</v>
       </c>
       <c r="S15" s="11">
-        <v>78507</v>
+        <v>100892</v>
       </c>
       <c r="T15" s="11">
-        <v>80767</v>
+        <v>83128</v>
       </c>
       <c r="U15" s="11">
-        <v>100892</v>
-      </c>
-      <c r="V15" s="11">
-        <v>83128</v>
-      </c>
-      <c r="W15" s="11">
         <v>106116</v>
       </c>
+      <c r="V15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>57</v>
+      <c r="Y15" s="11">
+        <v>108370</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>104006</v>
       </c>
       <c r="AA15" s="11">
-        <v>108370</v>
+        <v>119061</v>
       </c>
       <c r="AB15" s="11">
-        <v>104006</v>
+        <v>143370</v>
       </c>
       <c r="AC15" s="11">
-        <v>119061</v>
+        <v>113940</v>
       </c>
       <c r="AD15" s="11">
-        <v>143370</v>
+        <v>120782</v>
       </c>
       <c r="AE15" s="11">
-        <v>113940</v>
+        <v>115821</v>
       </c>
       <c r="AF15" s="11">
-        <v>120782</v>
+        <v>113508</v>
       </c>
       <c r="AG15" s="11">
-        <v>115821</v>
+        <v>151160</v>
       </c>
       <c r="AH15" s="11">
-        <v>113508</v>
+        <v>147352</v>
       </c>
       <c r="AI15" s="11">
-        <v>151160</v>
+        <v>160975</v>
       </c>
       <c r="AJ15" s="11">
-        <v>147352</v>
+        <v>161391</v>
       </c>
       <c r="AK15" s="11">
-        <v>160975</v>
+        <v>87763</v>
       </c>
       <c r="AL15" s="11">
-        <v>161391</v>
+        <v>107494</v>
       </c>
       <c r="AM15" s="11">
-        <v>87763</v>
+        <v>135660</v>
       </c>
       <c r="AN15" s="11">
-        <v>107494</v>
+        <v>179213</v>
       </c>
       <c r="AO15" s="11">
-        <v>135660</v>
+        <v>172621</v>
       </c>
       <c r="AP15" s="11">
-        <v>179213</v>
+        <v>155418</v>
       </c>
       <c r="AQ15" s="11">
-        <v>172621</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>155418</v>
-      </c>
-      <c r="AS15" s="11">
         <v>161008</v>
       </c>
-      <c r="AT15" s="11">
-        <v>124516</v>
+      <c r="AR15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV15" s="11">
-        <v>162356</v>
+      <c r="AV15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW15" s="11" t="s">
         <v>57</v>
@@ -2338,38 +2338,38 @@
       <c r="AQ16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>57</v>
+      <c r="AR16" s="13">
+        <v>149014</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>163728</v>
       </c>
       <c r="AT16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU16" s="13">
-        <v>163728</v>
-      </c>
-      <c r="AV16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW16" s="13" t="s">
-        <v>57</v>
+      <c r="AU16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>138868</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>77913</v>
       </c>
       <c r="AX16" s="13">
-        <v>138868</v>
+        <v>158592</v>
       </c>
       <c r="AY16" s="13">
-        <v>77913</v>
+        <v>244246</v>
       </c>
       <c r="AZ16" s="13">
-        <v>158592</v>
+        <v>223132</v>
       </c>
       <c r="BA16" s="13">
-        <v>244246</v>
+        <v>219798</v>
       </c>
       <c r="BB16" s="13">
-        <v>223132</v>
+        <v>230549</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2410,11 +2410,11 @@
       <c r="N17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>57</v>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
       </c>
       <c r="Q17" s="11">
         <v>0</v>
@@ -2431,14 +2431,14 @@
       <c r="U17" s="11">
         <v>0</v>
       </c>
-      <c r="V17" s="11">
-        <v>0</v>
+      <c r="V17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W17" s="11">
         <v>0</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>57</v>
+      <c r="X17" s="11">
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
@@ -2467,14 +2467,14 @@
       <c r="AG17" s="11">
         <v>0</v>
       </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AH17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI17" s="11">
         <v>0</v>
       </c>
-      <c r="AJ17" s="11" t="s">
-        <v>57</v>
+      <c r="AJ17" s="11">
+        <v>0</v>
       </c>
       <c r="AK17" s="11">
         <v>0</v>
@@ -2503,11 +2503,11 @@
       <c r="AS17" s="11">
         <v>0</v>
       </c>
-      <c r="AT17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="11">
-        <v>0</v>
+      <c r="AT17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV17" s="11" t="s">
         <v>57</v>
@@ -2540,136 +2540,136 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>228954</v>
+        <v>204136</v>
       </c>
       <c r="F18" s="13">
-        <v>211117</v>
+        <v>234946</v>
       </c>
       <c r="G18" s="13">
-        <v>204136</v>
+        <v>241329</v>
       </c>
       <c r="H18" s="13">
-        <v>234946</v>
+        <v>231479</v>
       </c>
       <c r="I18" s="13">
-        <v>241329</v>
+        <v>226884</v>
       </c>
       <c r="J18" s="13">
-        <v>231479</v>
+        <v>225629</v>
       </c>
       <c r="K18" s="13">
-        <v>226884</v>
+        <v>227711</v>
       </c>
       <c r="L18" s="13">
-        <v>225629</v>
+        <v>218577</v>
       </c>
       <c r="M18" s="13">
-        <v>227711</v>
+        <v>207499</v>
       </c>
       <c r="N18" s="13">
-        <v>218577</v>
+        <v>217390</v>
       </c>
       <c r="O18" s="13">
-        <v>207499</v>
+        <v>166702</v>
       </c>
       <c r="P18" s="13">
-        <v>217390</v>
+        <v>192230</v>
       </c>
       <c r="Q18" s="13">
-        <v>166702</v>
+        <v>228846</v>
       </c>
       <c r="R18" s="13">
-        <v>192230</v>
+        <v>229016</v>
       </c>
       <c r="S18" s="13">
-        <v>228846</v>
+        <v>218766</v>
       </c>
       <c r="T18" s="13">
-        <v>229016</v>
+        <v>176649</v>
       </c>
       <c r="U18" s="13">
-        <v>218766</v>
-      </c>
-      <c r="V18" s="13">
-        <v>176649</v>
-      </c>
-      <c r="W18" s="13">
         <v>188811</v>
       </c>
+      <c r="V18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>57</v>
+      <c r="Y18" s="13">
+        <v>219024</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>199764</v>
       </c>
       <c r="AA18" s="13">
-        <v>219024</v>
+        <v>202314</v>
       </c>
       <c r="AB18" s="13">
-        <v>199764</v>
+        <v>156270</v>
       </c>
       <c r="AC18" s="13">
-        <v>202314</v>
+        <v>200274</v>
       </c>
       <c r="AD18" s="13">
-        <v>156270</v>
+        <v>207824</v>
       </c>
       <c r="AE18" s="13">
-        <v>200274</v>
+        <v>175040</v>
       </c>
       <c r="AF18" s="13">
-        <v>207824</v>
+        <v>147085</v>
       </c>
       <c r="AG18" s="13">
-        <v>175040</v>
+        <v>161729</v>
       </c>
       <c r="AH18" s="13">
-        <v>147085</v>
+        <v>181654</v>
       </c>
       <c r="AI18" s="13">
-        <v>161729</v>
+        <v>145020</v>
       </c>
       <c r="AJ18" s="13">
-        <v>181654</v>
+        <v>131140</v>
       </c>
       <c r="AK18" s="13">
-        <v>145020</v>
+        <v>58207</v>
       </c>
       <c r="AL18" s="13">
-        <v>131140</v>
+        <v>37635</v>
       </c>
       <c r="AM18" s="13">
-        <v>58207</v>
+        <v>72668</v>
       </c>
       <c r="AN18" s="13">
-        <v>37635</v>
+        <v>138733</v>
       </c>
       <c r="AO18" s="13">
-        <v>72668</v>
+        <v>170203</v>
       </c>
       <c r="AP18" s="13">
-        <v>138733</v>
+        <v>176986</v>
       </c>
       <c r="AQ18" s="13">
-        <v>170203</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>176986</v>
-      </c>
-      <c r="AS18" s="13">
         <v>157115</v>
       </c>
-      <c r="AT18" s="13">
-        <v>149014</v>
+      <c r="AR18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV18" s="13">
-        <v>188789</v>
+      <c r="AV18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AW18" s="13" t="s">
         <v>57</v>
@@ -2749,20 +2749,20 @@
       <c r="U19" s="11">
         <v>0</v>
       </c>
-      <c r="V19" s="11">
-        <v>0</v>
-      </c>
-      <c r="W19" s="11">
-        <v>0</v>
+      <c r="V19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>57</v>
+      <c r="Y19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>0</v>
       </c>
       <c r="AA19" s="11">
         <v>0</v>
@@ -2815,20 +2815,20 @@
       <c r="AQ19" s="11">
         <v>0</v>
       </c>
-      <c r="AR19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>0</v>
+      <c r="AR19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV19" s="11">
-        <v>0</v>
+      <c r="AV19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW19" s="11" t="s">
         <v>57</v>
@@ -2908,21 +2908,21 @@
       <c r="U20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>57</v>
+      <c r="V20" s="13">
+        <v>216899</v>
+      </c>
+      <c r="W20" s="13">
+        <v>217318</v>
       </c>
       <c r="X20" s="13">
-        <v>216899</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>217318</v>
-      </c>
-      <c r="Z20" s="13">
         <v>202745</v>
       </c>
+      <c r="Y20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AA20" s="13" t="s">
         <v>57</v>
       </c>
@@ -2980,17 +2980,17 @@
       <c r="AS20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU20" s="13" t="s">
-        <v>57</v>
+      <c r="AT20" s="13">
+        <v>188789</v>
+      </c>
+      <c r="AU20" s="13">
+        <v>173220</v>
       </c>
       <c r="AV20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW20" s="13">
-        <v>173220</v>
+      <c r="AW20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX20" s="13" t="s">
         <v>57</v>
@@ -3076,11 +3076,11 @@
       <c r="X21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z21" s="11" t="s">
-        <v>57</v>
+      <c r="Y21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>0</v>
       </c>
       <c r="AA21" s="11">
         <v>0</v>
@@ -3103,29 +3103,29 @@
       <c r="AG21" s="11">
         <v>0</v>
       </c>
-      <c r="AH21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>0</v>
+      <c r="AH21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK21" s="11" t="s">
-        <v>57</v>
+      <c r="AK21" s="11">
+        <v>0</v>
       </c>
       <c r="AL21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO21" s="11" t="s">
-        <v>57</v>
+      <c r="AM21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="11">
+        <v>0</v>
       </c>
       <c r="AP21" s="11">
         <v>0</v>
@@ -3133,14 +3133,14 @@
       <c r="AQ21" s="11">
         <v>0</v>
       </c>
-      <c r="AR21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="11">
-        <v>0</v>
+      <c r="AR21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU21" s="11" t="s">
         <v>57</v>
@@ -3290,11 +3290,11 @@
       <c r="X23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z23" s="17" t="s">
-        <v>57</v>
+      <c r="Y23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="17">
+        <v>0</v>
       </c>
       <c r="AA23" s="17">
         <v>0</v>
@@ -3388,154 +3388,154 @@
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
-        <v>881511</v>
+        <v>672495</v>
       </c>
       <c r="F24" s="19">
-        <v>628142</v>
+        <v>896607</v>
       </c>
       <c r="G24" s="19">
-        <v>672495</v>
+        <v>889543</v>
       </c>
       <c r="H24" s="19">
-        <v>896607</v>
+        <v>861572</v>
       </c>
       <c r="I24" s="19">
-        <v>889543</v>
+        <v>843570</v>
       </c>
       <c r="J24" s="19">
-        <v>861572</v>
+        <v>325902</v>
       </c>
       <c r="K24" s="19">
-        <v>843570</v>
+        <v>319911</v>
       </c>
       <c r="L24" s="19">
-        <v>325902</v>
+        <v>334310</v>
       </c>
       <c r="M24" s="19">
-        <v>319911</v>
+        <v>860539</v>
       </c>
       <c r="N24" s="19">
-        <v>334310</v>
+        <v>843858</v>
       </c>
       <c r="O24" s="19">
-        <v>860539</v>
+        <v>802546</v>
       </c>
       <c r="P24" s="19">
-        <v>843858</v>
+        <v>812230</v>
       </c>
       <c r="Q24" s="19">
-        <v>802546</v>
+        <v>831283</v>
       </c>
       <c r="R24" s="19">
-        <v>812230</v>
+        <v>309783</v>
       </c>
       <c r="S24" s="19">
-        <v>831283</v>
+        <v>564072</v>
       </c>
       <c r="T24" s="19">
-        <v>309783</v>
+        <v>712279</v>
       </c>
       <c r="U24" s="19">
-        <v>564072</v>
+        <v>739560</v>
       </c>
       <c r="V24" s="19">
-        <v>712279</v>
+        <v>882101</v>
       </c>
       <c r="W24" s="19">
-        <v>739560</v>
+        <v>896469</v>
       </c>
       <c r="X24" s="19">
-        <v>882101</v>
+        <v>859500</v>
       </c>
       <c r="Y24" s="19">
-        <v>896469</v>
+        <v>795801</v>
       </c>
       <c r="Z24" s="19">
-        <v>859500</v>
+        <v>828624</v>
       </c>
       <c r="AA24" s="19">
-        <v>795801</v>
+        <v>850385</v>
       </c>
       <c r="AB24" s="19">
-        <v>828624</v>
+        <v>825798</v>
       </c>
       <c r="AC24" s="19">
-        <v>850385</v>
+        <v>849395</v>
       </c>
       <c r="AD24" s="19">
-        <v>825798</v>
+        <v>781687</v>
       </c>
       <c r="AE24" s="19">
-        <v>849395</v>
+        <v>784229</v>
       </c>
       <c r="AF24" s="19">
-        <v>781687</v>
+        <v>616306</v>
       </c>
       <c r="AG24" s="19">
-        <v>784229</v>
+        <v>574494</v>
       </c>
       <c r="AH24" s="19">
-        <v>616306</v>
+        <v>834911</v>
       </c>
       <c r="AI24" s="19">
-        <v>574494</v>
+        <v>840776</v>
       </c>
       <c r="AJ24" s="19">
-        <v>834911</v>
+        <v>820316</v>
       </c>
       <c r="AK24" s="19">
-        <v>840776</v>
+        <v>723541</v>
       </c>
       <c r="AL24" s="19">
-        <v>820316</v>
+        <v>722051</v>
       </c>
       <c r="AM24" s="19">
-        <v>723541</v>
+        <v>804688</v>
       </c>
       <c r="AN24" s="19">
-        <v>722051</v>
+        <v>1064144</v>
       </c>
       <c r="AO24" s="19">
-        <v>804688</v>
+        <v>1187584</v>
       </c>
       <c r="AP24" s="19">
-        <v>1064144</v>
+        <v>1187032</v>
       </c>
       <c r="AQ24" s="19">
-        <v>1187584</v>
+        <v>1057322</v>
       </c>
       <c r="AR24" s="19">
-        <v>1187032</v>
+        <v>2398184</v>
       </c>
       <c r="AS24" s="19">
-        <v>1057322</v>
+        <v>1131527</v>
       </c>
       <c r="AT24" s="19">
-        <v>929289</v>
+        <v>1146715</v>
       </c>
       <c r="AU24" s="19">
-        <v>1131527</v>
+        <v>973276</v>
       </c>
       <c r="AV24" s="19">
-        <v>1146715</v>
+        <v>1092467</v>
       </c>
       <c r="AW24" s="19">
-        <v>973276</v>
+        <v>845909</v>
       </c>
       <c r="AX24" s="19">
-        <v>1092467</v>
+        <v>1049727</v>
       </c>
       <c r="AY24" s="19">
-        <v>845909</v>
+        <v>1144488</v>
       </c>
       <c r="AZ24" s="19">
-        <v>1049727</v>
+        <v>1190435</v>
       </c>
       <c r="BA24" s="19">
-        <v>1144488</v>
+        <v>1160167</v>
       </c>
       <c r="BB24" s="19">
-        <v>1190435</v>
+        <v>1113749</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3981,97 +3981,97 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>64289</v>
+        <v>70796</v>
       </c>
       <c r="F31" s="11">
-        <v>56428</v>
+        <v>28742</v>
       </c>
       <c r="G31" s="11">
-        <v>70796</v>
+        <v>30601</v>
       </c>
       <c r="H31" s="11">
-        <v>28742</v>
+        <v>30741</v>
       </c>
       <c r="I31" s="11">
-        <v>30601</v>
-      </c>
-      <c r="J31" s="11">
-        <v>30741</v>
-      </c>
-      <c r="K31" s="11">
         <v>15927</v>
       </c>
+      <c r="J31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>57</v>
+      <c r="M31" s="11">
+        <v>31652</v>
+      </c>
+      <c r="N31" s="11">
+        <v>32060</v>
       </c>
       <c r="O31" s="11">
-        <v>31652</v>
+        <v>29486</v>
       </c>
       <c r="P31" s="11">
-        <v>32060</v>
+        <v>47856</v>
       </c>
       <c r="Q31" s="11">
-        <v>29486</v>
+        <v>34387</v>
       </c>
       <c r="R31" s="11">
-        <v>47856</v>
+        <v>0</v>
       </c>
       <c r="S31" s="11">
-        <v>34387</v>
+        <v>33731</v>
       </c>
       <c r="T31" s="11">
-        <v>0</v>
+        <v>115352</v>
       </c>
       <c r="U31" s="11">
-        <v>33731</v>
+        <v>98630</v>
       </c>
       <c r="V31" s="11">
-        <v>115352</v>
+        <v>108341</v>
       </c>
       <c r="W31" s="11">
-        <v>98630</v>
+        <v>97677</v>
       </c>
       <c r="X31" s="11">
-        <v>108341</v>
+        <v>31522</v>
       </c>
       <c r="Y31" s="11">
-        <v>97677</v>
+        <v>4840</v>
       </c>
       <c r="Z31" s="11">
-        <v>31522</v>
+        <v>3507</v>
       </c>
       <c r="AA31" s="11">
-        <v>4840</v>
+        <v>8329</v>
       </c>
       <c r="AB31" s="11">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="11">
-        <v>8329</v>
+        <v>10783</v>
       </c>
       <c r="AD31" s="11">
         <v>0</v>
       </c>
       <c r="AE31" s="11">
-        <v>10783</v>
+        <v>7336</v>
       </c>
       <c r="AF31" s="11">
-        <v>0</v>
+        <v>47037</v>
       </c>
       <c r="AG31" s="11">
-        <v>7336</v>
+        <v>1063</v>
       </c>
       <c r="AH31" s="11">
-        <v>47037</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="11">
-        <v>1063</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="11">
         <v>0</v>
@@ -4080,55 +4080,55 @@
         <v>0</v>
       </c>
       <c r="AL31" s="11">
-        <v>0</v>
+        <v>24903</v>
       </c>
       <c r="AM31" s="11">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="AN31" s="11">
-        <v>24903</v>
+        <v>16318</v>
       </c>
       <c r="AO31" s="11">
-        <v>218</v>
+        <v>30393</v>
       </c>
       <c r="AP31" s="11">
-        <v>16318</v>
+        <v>36127</v>
       </c>
       <c r="AQ31" s="11">
-        <v>30393</v>
+        <v>45229</v>
       </c>
       <c r="AR31" s="11">
-        <v>36127</v>
+        <v>74156</v>
       </c>
       <c r="AS31" s="11">
-        <v>45229</v>
+        <v>34683</v>
       </c>
       <c r="AT31" s="11">
-        <v>74156</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="11">
-        <v>34683</v>
+        <v>50007</v>
       </c>
       <c r="AV31" s="11">
         <v>0</v>
       </c>
       <c r="AW31" s="11">
-        <v>50007</v>
+        <v>20752</v>
       </c>
       <c r="AX31" s="11">
-        <v>0</v>
+        <v>44038</v>
       </c>
       <c r="AY31" s="11">
-        <v>20752</v>
+        <v>18165</v>
       </c>
       <c r="AZ31" s="11">
-        <v>44038</v>
+        <v>35724</v>
       </c>
       <c r="BA31" s="11">
-        <v>18165</v>
+        <v>27038</v>
       </c>
       <c r="BB31" s="11">
-        <v>35724</v>
+        <v>46456</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4190,21 +4190,21 @@
       <c r="U32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>57</v>
+      <c r="V32" s="13">
+        <v>108439</v>
+      </c>
+      <c r="W32" s="13">
+        <v>101131</v>
       </c>
       <c r="X32" s="13">
-        <v>108439</v>
-      </c>
-      <c r="Y32" s="13">
-        <v>101131</v>
-      </c>
-      <c r="Z32" s="13">
         <v>99760</v>
       </c>
+      <c r="Y32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z32" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AA32" s="13" t="s">
         <v>57</v>
       </c>
@@ -4256,38 +4256,38 @@
       <c r="AQ32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT32" s="13" t="s">
-        <v>57</v>
+      <c r="AR32" s="13">
+        <v>608242</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>317818</v>
+      </c>
+      <c r="AT32" s="13">
+        <v>58322</v>
       </c>
       <c r="AU32" s="13">
-        <v>317818</v>
-      </c>
-      <c r="AV32" s="13" t="s">
-        <v>57</v>
+        <v>87940</v>
+      </c>
+      <c r="AV32" s="13">
+        <v>256695</v>
       </c>
       <c r="AW32" s="13">
-        <v>87940</v>
+        <v>88526</v>
       </c>
       <c r="AX32" s="13">
-        <v>256695</v>
+        <v>68109</v>
       </c>
       <c r="AY32" s="13">
-        <v>88526</v>
+        <v>113635</v>
       </c>
       <c r="AZ32" s="13">
-        <v>68109</v>
+        <v>147475</v>
       </c>
       <c r="BA32" s="13">
-        <v>113635</v>
+        <v>92022</v>
       </c>
       <c r="BB32" s="13">
-        <v>147475</v>
+        <v>76248</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4346,14 +4346,14 @@
       <c r="T33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="11" t="s">
-        <v>57</v>
+      <c r="U33" s="11">
+        <v>12828</v>
       </c>
       <c r="V33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W33" s="11">
-        <v>12828</v>
+      <c r="W33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X33" s="11" t="s">
         <v>57</v>
@@ -4394,29 +4394,29 @@
       <c r="AJ33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL33" s="11" t="s">
-        <v>57</v>
+      <c r="AK33" s="11">
+        <v>54</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>9032</v>
       </c>
       <c r="AM33" s="11">
-        <v>54</v>
+        <v>8191</v>
       </c>
       <c r="AN33" s="11">
-        <v>9032</v>
+        <v>7846</v>
       </c>
       <c r="AO33" s="11">
-        <v>8191</v>
+        <v>10267</v>
       </c>
       <c r="AP33" s="11">
-        <v>7846</v>
+        <v>7446</v>
       </c>
       <c r="AQ33" s="11">
-        <v>10267</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="11">
-        <v>7446</v>
+        <v>40644</v>
       </c>
       <c r="AS33" s="11">
         <v>0</v>
@@ -4428,25 +4428,25 @@
         <v>0</v>
       </c>
       <c r="AV33" s="11">
-        <v>0</v>
+        <v>15709</v>
       </c>
       <c r="AW33" s="11">
-        <v>0</v>
+        <v>20884</v>
       </c>
       <c r="AX33" s="11">
-        <v>15709</v>
+        <v>11106</v>
       </c>
       <c r="AY33" s="11">
-        <v>20884</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="11">
-        <v>11106</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="11">
         <v>0</v>
       </c>
       <c r="BB33" s="11">
-        <v>0</v>
+        <v>24977</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4458,136 +4458,136 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>29827</v>
+        <v>23796</v>
       </c>
       <c r="F34" s="13">
-        <v>31425</v>
+        <v>0</v>
       </c>
       <c r="G34" s="13">
-        <v>23796</v>
+        <v>52566</v>
       </c>
       <c r="H34" s="13">
-        <v>0</v>
+        <v>29337</v>
       </c>
       <c r="I34" s="13">
-        <v>52566</v>
+        <v>30500</v>
       </c>
       <c r="J34" s="13">
-        <v>29337</v>
+        <v>84044</v>
       </c>
       <c r="K34" s="13">
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="L34" s="13">
-        <v>84044</v>
+        <v>56640</v>
       </c>
       <c r="M34" s="13">
         <v>0</v>
       </c>
       <c r="N34" s="13">
-        <v>56640</v>
+        <v>61125</v>
       </c>
       <c r="O34" s="13">
-        <v>0</v>
+        <v>41441</v>
       </c>
       <c r="P34" s="13">
-        <v>61125</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="13">
-        <v>41441</v>
+        <v>39624</v>
       </c>
       <c r="R34" s="13">
         <v>0</v>
       </c>
       <c r="S34" s="13">
-        <v>39624</v>
+        <v>39978</v>
       </c>
       <c r="T34" s="13">
-        <v>0</v>
+        <v>38722</v>
       </c>
       <c r="U34" s="13">
-        <v>39978</v>
-      </c>
-      <c r="V34" s="13">
-        <v>38722</v>
-      </c>
-      <c r="W34" s="13">
         <v>39519</v>
       </c>
+      <c r="V34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z34" s="13" t="s">
-        <v>57</v>
+      <c r="Y34" s="13">
+        <v>39779</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>88287</v>
       </c>
       <c r="AA34" s="13">
-        <v>39779</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="13">
-        <v>88287</v>
+        <v>69757</v>
       </c>
       <c r="AC34" s="13">
-        <v>0</v>
+        <v>40062</v>
       </c>
       <c r="AD34" s="13">
-        <v>69757</v>
+        <v>29678</v>
       </c>
       <c r="AE34" s="13">
-        <v>40062</v>
+        <v>29839</v>
       </c>
       <c r="AF34" s="13">
-        <v>29678</v>
+        <v>44822</v>
       </c>
       <c r="AG34" s="13">
-        <v>29839</v>
+        <v>60374</v>
       </c>
       <c r="AH34" s="13">
-        <v>44822</v>
+        <v>30989</v>
       </c>
       <c r="AI34" s="13">
-        <v>60374</v>
+        <v>142786</v>
       </c>
       <c r="AJ34" s="13">
-        <v>30989</v>
+        <v>39773</v>
       </c>
       <c r="AK34" s="13">
-        <v>142786</v>
+        <v>137483</v>
       </c>
       <c r="AL34" s="13">
-        <v>39773</v>
+        <v>112583</v>
       </c>
       <c r="AM34" s="13">
-        <v>137483</v>
+        <v>40347</v>
       </c>
       <c r="AN34" s="13">
-        <v>112583</v>
+        <v>66548</v>
       </c>
       <c r="AO34" s="13">
-        <v>40347</v>
+        <v>121959</v>
       </c>
       <c r="AP34" s="13">
-        <v>66548</v>
+        <v>41583</v>
       </c>
       <c r="AQ34" s="13">
-        <v>121959</v>
-      </c>
-      <c r="AR34" s="13">
-        <v>41583</v>
-      </c>
-      <c r="AS34" s="13">
         <v>109774</v>
       </c>
-      <c r="AT34" s="13">
-        <v>41463</v>
+      <c r="AR34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV34" s="13">
-        <v>5127</v>
+      <c r="AV34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AW34" s="13" t="s">
         <v>57</v>
@@ -4617,136 +4617,136 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>64588</v>
+        <v>58014</v>
       </c>
       <c r="F35" s="11">
-        <v>43542</v>
+        <v>26895</v>
       </c>
       <c r="G35" s="11">
-        <v>58014</v>
+        <v>78289</v>
       </c>
       <c r="H35" s="11">
-        <v>26895</v>
+        <v>120624</v>
       </c>
       <c r="I35" s="11">
-        <v>78289</v>
+        <v>58634</v>
       </c>
       <c r="J35" s="11">
-        <v>120624</v>
+        <v>28565</v>
       </c>
       <c r="K35" s="11">
-        <v>58634</v>
+        <v>78150</v>
       </c>
       <c r="L35" s="11">
-        <v>28565</v>
+        <v>71048</v>
       </c>
       <c r="M35" s="11">
-        <v>78150</v>
+        <v>83665</v>
       </c>
       <c r="N35" s="11">
-        <v>71048</v>
+        <v>62902</v>
       </c>
       <c r="O35" s="11">
-        <v>83665</v>
+        <v>70603</v>
       </c>
       <c r="P35" s="11">
-        <v>62902</v>
+        <v>63230</v>
       </c>
       <c r="Q35" s="11">
-        <v>70603</v>
+        <v>65610</v>
       </c>
       <c r="R35" s="11">
-        <v>63230</v>
+        <v>55462</v>
       </c>
       <c r="S35" s="11">
-        <v>65610</v>
+        <v>56824</v>
       </c>
       <c r="T35" s="11">
-        <v>55462</v>
+        <v>64901</v>
       </c>
       <c r="U35" s="11">
-        <v>56824</v>
-      </c>
-      <c r="V35" s="11">
-        <v>64901</v>
-      </c>
-      <c r="W35" s="11">
         <v>59820</v>
       </c>
+      <c r="V35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z35" s="11" t="s">
-        <v>57</v>
+      <c r="Y35" s="11">
+        <v>79921</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>69098</v>
       </c>
       <c r="AA35" s="11">
-        <v>79921</v>
+        <v>75779</v>
       </c>
       <c r="AB35" s="11">
-        <v>69098</v>
+        <v>90506</v>
       </c>
       <c r="AC35" s="11">
-        <v>75779</v>
+        <v>72512</v>
       </c>
       <c r="AD35" s="11">
-        <v>90506</v>
+        <v>93483</v>
       </c>
       <c r="AE35" s="11">
-        <v>72512</v>
+        <v>66471</v>
       </c>
       <c r="AF35" s="11">
-        <v>93483</v>
+        <v>46580</v>
       </c>
       <c r="AG35" s="11">
-        <v>66471</v>
+        <v>82485</v>
       </c>
       <c r="AH35" s="11">
-        <v>46580</v>
+        <v>47954</v>
       </c>
       <c r="AI35" s="11">
-        <v>82485</v>
+        <v>32964</v>
       </c>
       <c r="AJ35" s="11">
-        <v>47954</v>
+        <v>46050</v>
       </c>
       <c r="AK35" s="11">
-        <v>32964</v>
+        <v>19916</v>
       </c>
       <c r="AL35" s="11">
-        <v>46050</v>
+        <v>30683</v>
       </c>
       <c r="AM35" s="11">
-        <v>19916</v>
+        <v>51773</v>
       </c>
       <c r="AN35" s="11">
-        <v>30683</v>
+        <v>57033</v>
       </c>
       <c r="AO35" s="11">
-        <v>51773</v>
+        <v>67190</v>
       </c>
       <c r="AP35" s="11">
-        <v>57033</v>
+        <v>60256</v>
       </c>
       <c r="AQ35" s="11">
-        <v>67190</v>
-      </c>
-      <c r="AR35" s="11">
-        <v>60256</v>
-      </c>
-      <c r="AS35" s="11">
         <v>71222</v>
       </c>
-      <c r="AT35" s="11">
-        <v>81738</v>
+      <c r="AR35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV35" s="11">
-        <v>53195</v>
+      <c r="AV35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW35" s="11" t="s">
         <v>57</v>
@@ -4892,38 +4892,38 @@
       <c r="AQ36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS36" s="13" t="s">
-        <v>57</v>
+      <c r="AR36" s="13">
+        <v>777149</v>
+      </c>
+      <c r="AS36" s="13">
+        <v>276042</v>
       </c>
       <c r="AT36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU36" s="13">
-        <v>276042</v>
-      </c>
-      <c r="AV36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW36" s="13" t="s">
-        <v>57</v>
+      <c r="AU36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV36" s="13">
+        <v>99197</v>
+      </c>
+      <c r="AW36" s="13">
+        <v>76101</v>
       </c>
       <c r="AX36" s="13">
-        <v>99197</v>
+        <v>106637</v>
       </c>
       <c r="AY36" s="13">
-        <v>120092</v>
+        <v>348173</v>
       </c>
       <c r="AZ36" s="13">
-        <v>106637</v>
+        <v>172483</v>
       </c>
       <c r="BA36" s="13">
-        <v>348173</v>
+        <v>222271</v>
       </c>
       <c r="BB36" s="13">
-        <v>172483</v>
+        <v>257477</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4964,56 +4964,56 @@
       <c r="N37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>57</v>
+      <c r="O37" s="11">
+        <v>18248</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0</v>
       </c>
       <c r="Q37" s="11">
-        <v>18248</v>
+        <v>990</v>
       </c>
       <c r="R37" s="11">
-        <v>0</v>
+        <v>8030</v>
       </c>
       <c r="S37" s="11">
-        <v>990</v>
+        <v>7331</v>
       </c>
       <c r="T37" s="11">
-        <v>8030</v>
+        <v>3117</v>
       </c>
       <c r="U37" s="11">
-        <v>7331</v>
-      </c>
-      <c r="V37" s="11">
-        <v>3117</v>
+        <v>2101</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W37" s="11">
-        <v>2101</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>57</v>
+        <v>678</v>
+      </c>
+      <c r="X37" s="11">
+        <v>282</v>
       </c>
       <c r="Y37" s="11">
-        <v>678</v>
+        <v>2001</v>
       </c>
       <c r="Z37" s="11">
-        <v>282</v>
+        <v>1965</v>
       </c>
       <c r="AA37" s="11">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="11">
-        <v>1965</v>
+        <v>961</v>
       </c>
       <c r="AC37" s="11">
-        <v>0</v>
+        <v>4396</v>
       </c>
       <c r="AD37" s="11">
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="11">
-        <v>4396</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="11">
         <v>0</v>
@@ -5021,14 +5021,14 @@
       <c r="AG37" s="11">
         <v>0</v>
       </c>
-      <c r="AH37" s="11">
-        <v>0</v>
+      <c r="AH37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI37" s="11">
         <v>0</v>
       </c>
-      <c r="AJ37" s="11" t="s">
-        <v>57</v>
+      <c r="AJ37" s="11">
+        <v>0</v>
       </c>
       <c r="AK37" s="11">
         <v>0</v>
@@ -5057,11 +5057,11 @@
       <c r="AS37" s="11">
         <v>0</v>
       </c>
-      <c r="AT37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU37" s="11">
-        <v>0</v>
+      <c r="AT37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV37" s="11" t="s">
         <v>57</v>
@@ -5094,136 +5094,136 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>121599</v>
+        <v>98535</v>
       </c>
       <c r="F38" s="13">
-        <v>37174</v>
+        <v>77079</v>
       </c>
       <c r="G38" s="13">
-        <v>98535</v>
+        <v>59564</v>
       </c>
       <c r="H38" s="13">
-        <v>77079</v>
+        <v>112485</v>
       </c>
       <c r="I38" s="13">
-        <v>59564</v>
+        <v>134999</v>
       </c>
       <c r="J38" s="13">
-        <v>112485</v>
+        <v>52235</v>
       </c>
       <c r="K38" s="13">
-        <v>134999</v>
+        <v>123910</v>
       </c>
       <c r="L38" s="13">
-        <v>52235</v>
+        <v>91857</v>
       </c>
       <c r="M38" s="13">
-        <v>123910</v>
+        <v>89138</v>
       </c>
       <c r="N38" s="13">
-        <v>91857</v>
+        <v>109284</v>
       </c>
       <c r="O38" s="13">
-        <v>89138</v>
+        <v>111195</v>
       </c>
       <c r="P38" s="13">
-        <v>109284</v>
+        <v>77009</v>
       </c>
       <c r="Q38" s="13">
-        <v>111195</v>
+        <v>106188</v>
       </c>
       <c r="R38" s="13">
-        <v>77009</v>
+        <v>120200</v>
       </c>
       <c r="S38" s="13">
-        <v>106188</v>
+        <v>101696</v>
       </c>
       <c r="T38" s="13">
-        <v>120200</v>
+        <v>83311</v>
       </c>
       <c r="U38" s="13">
-        <v>101696</v>
-      </c>
-      <c r="V38" s="13">
-        <v>83311</v>
-      </c>
-      <c r="W38" s="13">
         <v>101831</v>
       </c>
+      <c r="V38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z38" s="13" t="s">
-        <v>57</v>
+      <c r="Y38" s="13">
+        <v>101102</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>116345</v>
       </c>
       <c r="AA38" s="13">
-        <v>101102</v>
+        <v>93110</v>
       </c>
       <c r="AB38" s="13">
-        <v>116345</v>
+        <v>109943</v>
       </c>
       <c r="AC38" s="13">
-        <v>93110</v>
+        <v>99905</v>
       </c>
       <c r="AD38" s="13">
-        <v>109943</v>
+        <v>63318</v>
       </c>
       <c r="AE38" s="13">
-        <v>99905</v>
+        <v>78787</v>
       </c>
       <c r="AF38" s="13">
-        <v>63318</v>
+        <v>63593</v>
       </c>
       <c r="AG38" s="13">
-        <v>78787</v>
+        <v>77922</v>
       </c>
       <c r="AH38" s="13">
-        <v>63593</v>
+        <v>77499</v>
       </c>
       <c r="AI38" s="13">
-        <v>77922</v>
+        <v>79844</v>
       </c>
       <c r="AJ38" s="13">
-        <v>77499</v>
+        <v>49469</v>
       </c>
       <c r="AK38" s="13">
-        <v>79844</v>
+        <v>34955</v>
       </c>
       <c r="AL38" s="13">
-        <v>49469</v>
+        <v>39543</v>
       </c>
       <c r="AM38" s="13">
-        <v>34955</v>
+        <v>49736</v>
       </c>
       <c r="AN38" s="13">
-        <v>39543</v>
+        <v>69465</v>
       </c>
       <c r="AO38" s="13">
-        <v>49736</v>
+        <v>55348</v>
       </c>
       <c r="AP38" s="13">
-        <v>69465</v>
+        <v>76665</v>
       </c>
       <c r="AQ38" s="13">
-        <v>55348</v>
-      </c>
-      <c r="AR38" s="13">
-        <v>76665</v>
-      </c>
-      <c r="AS38" s="13">
         <v>70177</v>
       </c>
-      <c r="AT38" s="13">
-        <v>65453</v>
+      <c r="AR38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV38" s="13">
-        <v>70650</v>
+      <c r="AV38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AW38" s="13" t="s">
         <v>57</v>
@@ -5253,136 +5253,136 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>57437</v>
+        <v>160646</v>
       </c>
       <c r="F39" s="11">
-        <v>111579</v>
+        <v>138994</v>
       </c>
       <c r="G39" s="11">
-        <v>160646</v>
+        <v>123405</v>
       </c>
       <c r="H39" s="11">
-        <v>138994</v>
+        <v>130050</v>
       </c>
       <c r="I39" s="11">
-        <v>123405</v>
+        <v>153024</v>
       </c>
       <c r="J39" s="11">
-        <v>130050</v>
+        <v>174416</v>
       </c>
       <c r="K39" s="11">
-        <v>153024</v>
+        <v>140279</v>
       </c>
       <c r="L39" s="11">
-        <v>174416</v>
+        <v>93928</v>
       </c>
       <c r="M39" s="11">
-        <v>140279</v>
+        <v>163465</v>
       </c>
       <c r="N39" s="11">
-        <v>93928</v>
+        <v>113647</v>
       </c>
       <c r="O39" s="11">
-        <v>163465</v>
+        <v>72394</v>
       </c>
       <c r="P39" s="11">
-        <v>113647</v>
+        <v>82297</v>
       </c>
       <c r="Q39" s="11">
-        <v>72394</v>
+        <v>142858</v>
       </c>
       <c r="R39" s="11">
-        <v>82297</v>
+        <v>108128</v>
       </c>
       <c r="S39" s="11">
-        <v>142858</v>
+        <v>135293</v>
       </c>
       <c r="T39" s="11">
-        <v>108128</v>
+        <v>90462</v>
       </c>
       <c r="U39" s="11">
-        <v>135293</v>
-      </c>
-      <c r="V39" s="11">
-        <v>90462</v>
-      </c>
-      <c r="W39" s="11">
         <v>119402</v>
       </c>
+      <c r="V39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z39" s="11" t="s">
-        <v>57</v>
+      <c r="Y39" s="11">
+        <v>92369</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>114338</v>
       </c>
       <c r="AA39" s="11">
-        <v>92369</v>
+        <v>65052</v>
       </c>
       <c r="AB39" s="11">
-        <v>114338</v>
+        <v>135671</v>
       </c>
       <c r="AC39" s="11">
-        <v>65052</v>
+        <v>32350</v>
       </c>
       <c r="AD39" s="11">
-        <v>135671</v>
+        <v>122237</v>
       </c>
       <c r="AE39" s="11">
-        <v>32350</v>
+        <v>125725</v>
       </c>
       <c r="AF39" s="11">
-        <v>122237</v>
+        <v>59186</v>
       </c>
       <c r="AG39" s="11">
-        <v>125725</v>
+        <v>79780</v>
       </c>
       <c r="AH39" s="11">
-        <v>59186</v>
+        <v>118394</v>
       </c>
       <c r="AI39" s="11">
-        <v>79780</v>
+        <v>49017</v>
       </c>
       <c r="AJ39" s="11">
-        <v>118394</v>
+        <v>142361</v>
       </c>
       <c r="AK39" s="11">
-        <v>49017</v>
+        <v>86358</v>
       </c>
       <c r="AL39" s="11">
-        <v>142361</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="11">
-        <v>86358</v>
+        <v>3664</v>
       </c>
       <c r="AN39" s="11">
-        <v>0</v>
+        <v>4789</v>
       </c>
       <c r="AO39" s="11">
-        <v>3664</v>
+        <v>20153</v>
       </c>
       <c r="AP39" s="11">
-        <v>4789</v>
+        <v>173777</v>
       </c>
       <c r="AQ39" s="11">
-        <v>20153</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>173777</v>
-      </c>
-      <c r="AS39" s="11">
         <v>68177</v>
       </c>
-      <c r="AT39" s="11">
-        <v>45006</v>
+      <c r="AR39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV39" s="11">
-        <v>55071</v>
+      <c r="AV39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW39" s="11" t="s">
         <v>57</v>
@@ -5462,21 +5462,21 @@
       <c r="U40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>57</v>
+      <c r="V40" s="13">
+        <v>222227</v>
+      </c>
+      <c r="W40" s="13">
+        <v>149192</v>
       </c>
       <c r="X40" s="13">
-        <v>222227</v>
-      </c>
-      <c r="Y40" s="13">
-        <v>149192</v>
-      </c>
-      <c r="Z40" s="13">
         <v>213867</v>
       </c>
+      <c r="Y40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z40" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AA40" s="13" t="s">
         <v>57</v>
       </c>
@@ -5534,17 +5534,17 @@
       <c r="AS40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU40" s="13" t="s">
-        <v>57</v>
+      <c r="AT40" s="13">
+        <v>125721</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>171437</v>
       </c>
       <c r="AV40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW40" s="13">
-        <v>171437</v>
+      <c r="AW40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX40" s="13" t="s">
         <v>57</v>
@@ -5630,14 +5630,14 @@
       <c r="X41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>57</v>
+      <c r="Y41" s="11">
+        <v>2138</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>0</v>
       </c>
       <c r="AA41" s="11">
-        <v>2138</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="11">
         <v>0</v>
@@ -5657,44 +5657,44 @@
       <c r="AG41" s="11">
         <v>0</v>
       </c>
-      <c r="AH41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="11">
-        <v>0</v>
+      <c r="AH41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" s="11" t="s">
-        <v>57</v>
+      <c r="AK41" s="11">
+        <v>0</v>
       </c>
       <c r="AL41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO41" s="11" t="s">
-        <v>57</v>
+      <c r="AM41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>17649</v>
+      </c>
+      <c r="AO41" s="11">
+        <v>0</v>
       </c>
       <c r="AP41" s="11">
-        <v>17649</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="11">
         <v>23032</v>
       </c>
-      <c r="AT41" s="11">
-        <v>0</v>
+      <c r="AR41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU41" s="11" t="s">
         <v>57</v>
@@ -5844,11 +5844,11 @@
       <c r="X43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y43" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z43" s="17" t="s">
-        <v>57</v>
+      <c r="Y43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="17">
+        <v>0</v>
       </c>
       <c r="AA43" s="17">
         <v>0</v>
@@ -6058,11 +6058,11 @@
       <c r="X45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z45" s="17" t="s">
-        <v>57</v>
+      <c r="Y45" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="17">
+        <v>0</v>
       </c>
       <c r="AA45" s="17">
         <v>0</v>
@@ -6156,154 +6156,154 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19">
-        <v>337740</v>
+        <v>411787</v>
       </c>
       <c r="F46" s="19">
-        <v>280148</v>
+        <v>271710</v>
       </c>
       <c r="G46" s="19">
-        <v>411787</v>
+        <v>344425</v>
       </c>
       <c r="H46" s="19">
-        <v>271710</v>
+        <v>423237</v>
       </c>
       <c r="I46" s="19">
-        <v>344425</v>
+        <v>393084</v>
       </c>
       <c r="J46" s="19">
-        <v>423237</v>
+        <v>339260</v>
       </c>
       <c r="K46" s="19">
-        <v>393084</v>
+        <v>342339</v>
       </c>
       <c r="L46" s="19">
-        <v>339260</v>
+        <v>313473</v>
       </c>
       <c r="M46" s="19">
-        <v>342339</v>
+        <v>367920</v>
       </c>
       <c r="N46" s="19">
-        <v>313473</v>
+        <v>379018</v>
       </c>
       <c r="O46" s="19">
-        <v>367920</v>
+        <v>343367</v>
       </c>
       <c r="P46" s="19">
-        <v>379018</v>
+        <v>270392</v>
       </c>
       <c r="Q46" s="19">
-        <v>343367</v>
+        <v>389657</v>
       </c>
       <c r="R46" s="19">
-        <v>270392</v>
+        <v>291820</v>
       </c>
       <c r="S46" s="19">
-        <v>389657</v>
+        <v>374853</v>
       </c>
       <c r="T46" s="19">
-        <v>291820</v>
+        <v>395865</v>
       </c>
       <c r="U46" s="19">
-        <v>374853</v>
+        <v>434131</v>
       </c>
       <c r="V46" s="19">
-        <v>395865</v>
+        <v>439007</v>
       </c>
       <c r="W46" s="19">
-        <v>434131</v>
+        <v>348678</v>
       </c>
       <c r="X46" s="19">
-        <v>439007</v>
+        <v>345431</v>
       </c>
       <c r="Y46" s="19">
-        <v>348678</v>
+        <v>322150</v>
       </c>
       <c r="Z46" s="19">
-        <v>345431</v>
+        <v>393540</v>
       </c>
       <c r="AA46" s="19">
-        <v>322150</v>
+        <v>242270</v>
       </c>
       <c r="AB46" s="19">
-        <v>393540</v>
+        <v>406838</v>
       </c>
       <c r="AC46" s="19">
-        <v>242270</v>
+        <v>260008</v>
       </c>
       <c r="AD46" s="19">
-        <v>406838</v>
+        <v>308716</v>
       </c>
       <c r="AE46" s="19">
-        <v>260008</v>
+        <v>308158</v>
       </c>
       <c r="AF46" s="19">
-        <v>308716</v>
+        <v>261218</v>
       </c>
       <c r="AG46" s="19">
-        <v>308158</v>
+        <v>301624</v>
       </c>
       <c r="AH46" s="19">
-        <v>261218</v>
+        <v>274836</v>
       </c>
       <c r="AI46" s="19">
-        <v>301624</v>
+        <v>304611</v>
       </c>
       <c r="AJ46" s="19">
-        <v>274836</v>
+        <v>277653</v>
       </c>
       <c r="AK46" s="19">
-        <v>304611</v>
+        <v>278766</v>
       </c>
       <c r="AL46" s="19">
-        <v>277653</v>
+        <v>216744</v>
       </c>
       <c r="AM46" s="19">
-        <v>278766</v>
+        <v>153929</v>
       </c>
       <c r="AN46" s="19">
-        <v>216744</v>
+        <v>239648</v>
       </c>
       <c r="AO46" s="19">
-        <v>153929</v>
+        <v>305310</v>
       </c>
       <c r="AP46" s="19">
-        <v>239648</v>
+        <v>395854</v>
       </c>
       <c r="AQ46" s="19">
-        <v>305310</v>
+        <v>387611</v>
       </c>
       <c r="AR46" s="19">
-        <v>395854</v>
+        <v>1500191</v>
       </c>
       <c r="AS46" s="19">
-        <v>387611</v>
+        <v>628543</v>
       </c>
       <c r="AT46" s="19">
-        <v>307816</v>
+        <v>184043</v>
       </c>
       <c r="AU46" s="19">
-        <v>628543</v>
+        <v>309384</v>
       </c>
       <c r="AV46" s="19">
-        <v>184043</v>
+        <v>371601</v>
       </c>
       <c r="AW46" s="19">
-        <v>309384</v>
+        <v>206263</v>
       </c>
       <c r="AX46" s="19">
-        <v>371601</v>
+        <v>229890</v>
       </c>
       <c r="AY46" s="19">
-        <v>250254</v>
+        <v>479973</v>
       </c>
       <c r="AZ46" s="19">
-        <v>229890</v>
+        <v>355682</v>
       </c>
       <c r="BA46" s="19">
-        <v>479973</v>
+        <v>341331</v>
       </c>
       <c r="BB46" s="19">
-        <v>355682</v>
+        <v>405158</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6749,97 +6749,97 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>407237</v>
+        <v>538154</v>
       </c>
       <c r="F53" s="11">
-        <v>444250</v>
+        <v>225447</v>
       </c>
       <c r="G53" s="11">
-        <v>538154</v>
+        <v>225227</v>
       </c>
       <c r="H53" s="11">
-        <v>225447</v>
+        <v>211375</v>
       </c>
       <c r="I53" s="11">
-        <v>225227</v>
-      </c>
-      <c r="J53" s="11">
-        <v>211375</v>
-      </c>
-      <c r="K53" s="11">
         <v>190538</v>
       </c>
+      <c r="J53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N53" s="11" t="s">
-        <v>57</v>
+      <c r="M53" s="11">
+        <v>285248</v>
+      </c>
+      <c r="N53" s="11">
+        <v>305885</v>
       </c>
       <c r="O53" s="11">
-        <v>285248</v>
+        <v>265901</v>
       </c>
       <c r="P53" s="11">
-        <v>305885</v>
+        <v>432764</v>
       </c>
       <c r="Q53" s="11">
-        <v>265901</v>
+        <v>303602</v>
       </c>
       <c r="R53" s="11">
-        <v>432764</v>
+        <v>0</v>
       </c>
       <c r="S53" s="11">
-        <v>303602</v>
+        <v>319261</v>
       </c>
       <c r="T53" s="11">
-        <v>0</v>
+        <v>1173601</v>
       </c>
       <c r="U53" s="11">
-        <v>319261</v>
+        <v>1137817</v>
       </c>
       <c r="V53" s="11">
-        <v>1173601</v>
+        <v>1245565</v>
       </c>
       <c r="W53" s="11">
-        <v>1137817</v>
+        <v>1093040</v>
       </c>
       <c r="X53" s="11">
-        <v>1245565</v>
+        <v>407546</v>
       </c>
       <c r="Y53" s="11">
-        <v>1093040</v>
+        <v>67777</v>
       </c>
       <c r="Z53" s="11">
-        <v>407546</v>
+        <v>56854</v>
       </c>
       <c r="AA53" s="11">
-        <v>67777</v>
+        <v>150435</v>
       </c>
       <c r="AB53" s="11">
-        <v>56854</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="11">
-        <v>150435</v>
+        <v>261174</v>
       </c>
       <c r="AD53" s="11">
         <v>0</v>
       </c>
       <c r="AE53" s="11">
-        <v>261174</v>
+        <v>191476</v>
       </c>
       <c r="AF53" s="11">
-        <v>0</v>
+        <v>1150213</v>
       </c>
       <c r="AG53" s="11">
-        <v>191476</v>
+        <v>27752</v>
       </c>
       <c r="AH53" s="11">
-        <v>1150213</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="11">
-        <v>27752</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="11">
         <v>0</v>
@@ -6848,55 +6848,55 @@
         <v>0</v>
       </c>
       <c r="AL53" s="11">
-        <v>0</v>
+        <v>895116</v>
       </c>
       <c r="AM53" s="11">
-        <v>0</v>
+        <v>7856</v>
       </c>
       <c r="AN53" s="11">
-        <v>895116</v>
+        <v>569957</v>
       </c>
       <c r="AO53" s="11">
-        <v>7856</v>
+        <v>1096016</v>
       </c>
       <c r="AP53" s="11">
-        <v>569957</v>
+        <v>1257921</v>
       </c>
       <c r="AQ53" s="11">
-        <v>1096016</v>
+        <v>1568235</v>
       </c>
       <c r="AR53" s="11">
-        <v>1257921</v>
+        <v>2766542</v>
       </c>
       <c r="AS53" s="11">
-        <v>1568235</v>
+        <v>1468731</v>
       </c>
       <c r="AT53" s="11">
-        <v>2766542</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="11">
-        <v>1468731</v>
+        <v>1817350</v>
       </c>
       <c r="AV53" s="11">
         <v>0</v>
       </c>
       <c r="AW53" s="11">
-        <v>1817350</v>
+        <v>695838</v>
       </c>
       <c r="AX53" s="11">
-        <v>0</v>
+        <v>1137049</v>
       </c>
       <c r="AY53" s="11">
-        <v>695838</v>
+        <v>487915</v>
       </c>
       <c r="AZ53" s="11">
-        <v>1137049</v>
+        <v>1001422</v>
       </c>
       <c r="BA53" s="11">
-        <v>487915</v>
+        <v>788880</v>
       </c>
       <c r="BB53" s="11">
-        <v>1001422</v>
+        <v>1389211</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6958,21 +6958,21 @@
       <c r="U54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W54" s="13" t="s">
-        <v>57</v>
+      <c r="V54" s="13">
+        <v>5527388</v>
+      </c>
+      <c r="W54" s="13">
+        <v>5076714</v>
       </c>
       <c r="X54" s="13">
-        <v>5527388</v>
-      </c>
-      <c r="Y54" s="13">
-        <v>5076714</v>
-      </c>
-      <c r="Z54" s="13">
         <v>5402383</v>
       </c>
+      <c r="Y54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z54" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AA54" s="13" t="s">
         <v>57</v>
       </c>
@@ -7024,38 +7024,38 @@
       <c r="AQ54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT54" s="13" t="s">
-        <v>57</v>
+      <c r="AR54" s="13">
+        <v>95042144</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>45705838</v>
+      </c>
+      <c r="AT54" s="13">
+        <v>9079409</v>
       </c>
       <c r="AU54" s="13">
-        <v>45705838</v>
-      </c>
-      <c r="AV54" s="13" t="s">
-        <v>57</v>
+        <v>12807484</v>
+      </c>
+      <c r="AV54" s="13">
+        <v>43489028</v>
       </c>
       <c r="AW54" s="13">
-        <v>12807484</v>
+        <v>13335009</v>
       </c>
       <c r="AX54" s="13">
-        <v>43489028</v>
+        <v>9655515</v>
       </c>
       <c r="AY54" s="13">
-        <v>13335009</v>
+        <v>13769223</v>
       </c>
       <c r="AZ54" s="13">
-        <v>9655515</v>
+        <v>17367196</v>
       </c>
       <c r="BA54" s="13">
-        <v>13769223</v>
+        <v>11562359</v>
       </c>
       <c r="BB54" s="13">
-        <v>17367196</v>
+        <v>9840418</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7114,14 +7114,14 @@
       <c r="T55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>57</v>
+      <c r="U55" s="11">
+        <v>269309</v>
       </c>
       <c r="V55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W55" s="11">
-        <v>269309</v>
+      <c r="W55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X55" s="11" t="s">
         <v>57</v>
@@ -7162,29 +7162,29 @@
       <c r="AJ55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL55" s="11" t="s">
-        <v>57</v>
+      <c r="AK55" s="11">
+        <v>4449</v>
+      </c>
+      <c r="AL55" s="11">
+        <v>753174</v>
       </c>
       <c r="AM55" s="11">
-        <v>4449</v>
+        <v>669679</v>
       </c>
       <c r="AN55" s="11">
-        <v>753174</v>
+        <v>658525</v>
       </c>
       <c r="AO55" s="11">
-        <v>669679</v>
+        <v>877656</v>
       </c>
       <c r="AP55" s="11">
-        <v>658525</v>
+        <v>625730</v>
       </c>
       <c r="AQ55" s="11">
-        <v>877656</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="11">
-        <v>625730</v>
+        <v>3286424</v>
       </c>
       <c r="AS55" s="11">
         <v>0</v>
@@ -7196,25 +7196,25 @@
         <v>0</v>
       </c>
       <c r="AV55" s="11">
-        <v>0</v>
+        <v>1499746</v>
       </c>
       <c r="AW55" s="11">
-        <v>0</v>
+        <v>1796654</v>
       </c>
       <c r="AX55" s="11">
-        <v>1499746</v>
+        <v>896077</v>
       </c>
       <c r="AY55" s="11">
-        <v>1796654</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="11">
-        <v>896077</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="11">
         <v>0</v>
       </c>
       <c r="BB55" s="11">
-        <v>0</v>
+        <v>1987631</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7226,136 +7226,136 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>1353202</v>
+        <v>893636</v>
       </c>
       <c r="F56" s="13">
-        <v>1221778</v>
+        <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>893636</v>
+        <v>1913914</v>
       </c>
       <c r="H56" s="13">
-        <v>0</v>
+        <v>971452</v>
       </c>
       <c r="I56" s="13">
-        <v>1913914</v>
+        <v>971883</v>
       </c>
       <c r="J56" s="13">
-        <v>971452</v>
+        <v>2521643</v>
       </c>
       <c r="K56" s="13">
-        <v>971883</v>
+        <v>0</v>
       </c>
       <c r="L56" s="13">
-        <v>2521643</v>
+        <v>2486073</v>
       </c>
       <c r="M56" s="13">
         <v>0</v>
       </c>
       <c r="N56" s="13">
-        <v>2486073</v>
+        <v>2635410</v>
       </c>
       <c r="O56" s="13">
-        <v>0</v>
+        <v>1736032</v>
       </c>
       <c r="P56" s="13">
-        <v>2635410</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="13">
-        <v>1736032</v>
+        <v>1533692</v>
       </c>
       <c r="R56" s="13">
         <v>0</v>
       </c>
       <c r="S56" s="13">
-        <v>1533692</v>
+        <v>1555489</v>
       </c>
       <c r="T56" s="13">
-        <v>0</v>
+        <v>1624221</v>
       </c>
       <c r="U56" s="13">
-        <v>1555489</v>
-      </c>
-      <c r="V56" s="13">
-        <v>1624221</v>
-      </c>
-      <c r="W56" s="13">
         <v>2024865</v>
       </c>
+      <c r="V56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z56" s="13" t="s">
-        <v>57</v>
+      <c r="Y56" s="13">
+        <v>2163418</v>
+      </c>
+      <c r="Z56" s="13">
+        <v>5555592</v>
       </c>
       <c r="AA56" s="13">
-        <v>2163418</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="13">
-        <v>5555592</v>
+        <v>6262874</v>
       </c>
       <c r="AC56" s="13">
-        <v>0</v>
+        <v>4280294</v>
       </c>
       <c r="AD56" s="13">
-        <v>6262874</v>
+        <v>3349772</v>
       </c>
       <c r="AE56" s="13">
-        <v>4280294</v>
+        <v>3289109</v>
       </c>
       <c r="AF56" s="13">
-        <v>3349772</v>
+        <v>5287110</v>
       </c>
       <c r="AG56" s="13">
-        <v>3289109</v>
+        <v>8807821</v>
       </c>
       <c r="AH56" s="13">
-        <v>5287110</v>
+        <v>4050583</v>
       </c>
       <c r="AI56" s="13">
-        <v>8807821</v>
+        <v>18584987</v>
       </c>
       <c r="AJ56" s="13">
-        <v>4050583</v>
+        <v>5205767</v>
       </c>
       <c r="AK56" s="13">
-        <v>18584987</v>
+        <v>20821224</v>
       </c>
       <c r="AL56" s="13">
-        <v>5205767</v>
+        <v>17448502</v>
       </c>
       <c r="AM56" s="13">
-        <v>20821224</v>
+        <v>6864990</v>
       </c>
       <c r="AN56" s="13">
-        <v>17448502</v>
+        <v>10445836</v>
       </c>
       <c r="AO56" s="13">
-        <v>6864990</v>
+        <v>19834038</v>
       </c>
       <c r="AP56" s="13">
-        <v>10445836</v>
+        <v>6599389</v>
       </c>
       <c r="AQ56" s="13">
-        <v>19834038</v>
-      </c>
-      <c r="AR56" s="13">
-        <v>6599389</v>
-      </c>
-      <c r="AS56" s="13">
         <v>17711649</v>
       </c>
-      <c r="AT56" s="13">
-        <v>6561845</v>
+      <c r="AR56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV56" s="13">
-        <v>721448</v>
+      <c r="AV56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AW56" s="13" t="s">
         <v>57</v>
@@ -7385,136 +7385,136 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>1526540</v>
+        <v>2047294</v>
       </c>
       <c r="F57" s="11">
-        <v>1461076</v>
+        <v>916786</v>
       </c>
       <c r="G57" s="11">
-        <v>2047294</v>
+        <v>2439166</v>
       </c>
       <c r="H57" s="11">
-        <v>916786</v>
+        <v>3611258</v>
       </c>
       <c r="I57" s="11">
-        <v>2439166</v>
+        <v>1892037</v>
       </c>
       <c r="J57" s="11">
-        <v>3611258</v>
+        <v>1072376</v>
       </c>
       <c r="K57" s="11">
-        <v>1892037</v>
+        <v>3004476</v>
       </c>
       <c r="L57" s="11">
-        <v>1072376</v>
+        <v>2828896</v>
       </c>
       <c r="M57" s="11">
-        <v>3004476</v>
+        <v>3306580</v>
       </c>
       <c r="N57" s="11">
-        <v>2828896</v>
+        <v>2478192</v>
       </c>
       <c r="O57" s="11">
-        <v>3306580</v>
+        <v>2731944</v>
       </c>
       <c r="P57" s="11">
-        <v>2478192</v>
+        <v>2440857</v>
       </c>
       <c r="Q57" s="11">
-        <v>2731944</v>
+        <v>2518563</v>
       </c>
       <c r="R57" s="11">
-        <v>2440857</v>
+        <v>2103142</v>
       </c>
       <c r="S57" s="11">
-        <v>2518563</v>
+        <v>2265667</v>
       </c>
       <c r="T57" s="11">
-        <v>2103142</v>
+        <v>2730389</v>
       </c>
       <c r="U57" s="11">
-        <v>2265667</v>
-      </c>
-      <c r="V57" s="11">
-        <v>2730389</v>
-      </c>
-      <c r="W57" s="11">
         <v>2837793</v>
       </c>
+      <c r="V57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W57" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z57" s="11" t="s">
-        <v>57</v>
+      <c r="Y57" s="11">
+        <v>4820961</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>4872331</v>
       </c>
       <c r="AA57" s="11">
-        <v>4820961</v>
+        <v>5635016</v>
       </c>
       <c r="AB57" s="11">
-        <v>4872331</v>
+        <v>8808188</v>
       </c>
       <c r="AC57" s="11">
-        <v>5635016</v>
+        <v>7410055</v>
       </c>
       <c r="AD57" s="11">
-        <v>8808188</v>
+        <v>9597688</v>
       </c>
       <c r="AE57" s="11">
-        <v>7410055</v>
+        <v>7182793</v>
       </c>
       <c r="AF57" s="11">
-        <v>9597688</v>
+        <v>5895455</v>
       </c>
       <c r="AG57" s="11">
-        <v>7182793</v>
+        <v>10362984</v>
       </c>
       <c r="AH57" s="11">
-        <v>5895455</v>
+        <v>6660271</v>
       </c>
       <c r="AI57" s="11">
-        <v>10362984</v>
+        <v>5483906</v>
       </c>
       <c r="AJ57" s="11">
-        <v>6660271</v>
+        <v>7771653</v>
       </c>
       <c r="AK57" s="11">
-        <v>5483906</v>
+        <v>3383187</v>
       </c>
       <c r="AL57" s="11">
-        <v>7771653</v>
+        <v>5157712</v>
       </c>
       <c r="AM57" s="11">
-        <v>3383187</v>
+        <v>8537712</v>
       </c>
       <c r="AN57" s="11">
-        <v>5157712</v>
+        <v>9278929</v>
       </c>
       <c r="AO57" s="11">
-        <v>8537712</v>
+        <v>10294057</v>
       </c>
       <c r="AP57" s="11">
-        <v>9278929</v>
+        <v>9248682</v>
       </c>
       <c r="AQ57" s="11">
-        <v>10294057</v>
-      </c>
-      <c r="AR57" s="11">
-        <v>9248682</v>
-      </c>
-      <c r="AS57" s="11">
         <v>10695500</v>
       </c>
-      <c r="AT57" s="11">
-        <v>11968690</v>
+      <c r="AR57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV57" s="11">
-        <v>8357961</v>
+      <c r="AV57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW57" s="11" t="s">
         <v>57</v>
@@ -7660,38 +7660,38 @@
       <c r="AQ58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS58" s="13" t="s">
-        <v>57</v>
+      <c r="AR58" s="13">
+        <v>102938027</v>
+      </c>
+      <c r="AS58" s="13">
+        <v>37558239</v>
       </c>
       <c r="AT58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU58" s="13">
-        <v>37558239</v>
-      </c>
-      <c r="AV58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW58" s="13" t="s">
-        <v>57</v>
+      <c r="AU58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV58" s="13">
+        <v>15406812</v>
+      </c>
+      <c r="AW58" s="13">
+        <v>11233491</v>
       </c>
       <c r="AX58" s="13">
-        <v>15406812</v>
+        <v>14774282</v>
       </c>
       <c r="AY58" s="13">
-        <v>18982007</v>
+        <v>42433045</v>
       </c>
       <c r="AZ58" s="13">
-        <v>14774282</v>
+        <v>21645865</v>
       </c>
       <c r="BA58" s="13">
-        <v>42433045</v>
+        <v>29059110</v>
       </c>
       <c r="BB58" s="13">
-        <v>21645865</v>
+        <v>34368852</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7732,56 +7732,56 @@
       <c r="N59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P59" s="11" t="s">
-        <v>57</v>
+      <c r="O59" s="11">
+        <v>1040118</v>
+      </c>
+      <c r="P59" s="11">
+        <v>0</v>
       </c>
       <c r="Q59" s="11">
-        <v>1040118</v>
+        <v>54434</v>
       </c>
       <c r="R59" s="11">
-        <v>0</v>
+        <v>427721</v>
       </c>
       <c r="S59" s="11">
-        <v>54434</v>
+        <v>398336</v>
       </c>
       <c r="T59" s="11">
-        <v>427721</v>
+        <v>150288</v>
       </c>
       <c r="U59" s="11">
-        <v>398336</v>
-      </c>
-      <c r="V59" s="11">
-        <v>150288</v>
+        <v>128350</v>
+      </c>
+      <c r="V59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W59" s="11">
-        <v>128350</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>57</v>
+        <v>41959</v>
+      </c>
+      <c r="X59" s="11">
+        <v>16497</v>
       </c>
       <c r="Y59" s="11">
-        <v>41959</v>
+        <v>160555</v>
       </c>
       <c r="Z59" s="11">
-        <v>16497</v>
+        <v>126846</v>
       </c>
       <c r="AA59" s="11">
-        <v>160555</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="11">
-        <v>126846</v>
+        <v>73500</v>
       </c>
       <c r="AC59" s="11">
-        <v>0</v>
+        <v>326751</v>
       </c>
       <c r="AD59" s="11">
-        <v>73500</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="11">
-        <v>326751</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="11">
         <v>0</v>
@@ -7789,14 +7789,14 @@
       <c r="AG59" s="11">
         <v>0</v>
       </c>
-      <c r="AH59" s="11">
-        <v>0</v>
+      <c r="AH59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI59" s="11">
         <v>0</v>
       </c>
-      <c r="AJ59" s="11" t="s">
-        <v>57</v>
+      <c r="AJ59" s="11">
+        <v>0</v>
       </c>
       <c r="AK59" s="11">
         <v>0</v>
@@ -7825,11 +7825,11 @@
       <c r="AS59" s="11">
         <v>0</v>
       </c>
-      <c r="AT59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU59" s="11">
-        <v>0</v>
+      <c r="AT59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV59" s="11" t="s">
         <v>57</v>
@@ -7862,136 +7862,136 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>3000690</v>
+        <v>3020027</v>
       </c>
       <c r="F60" s="13">
-        <v>1168435</v>
+        <v>2490922</v>
       </c>
       <c r="G60" s="13">
-        <v>3020027</v>
+        <v>1718663</v>
       </c>
       <c r="H60" s="13">
-        <v>2490922</v>
+        <v>3359345</v>
       </c>
       <c r="I60" s="13">
-        <v>1718663</v>
+        <v>4736462</v>
       </c>
       <c r="J60" s="13">
-        <v>3359345</v>
+        <v>1982944</v>
       </c>
       <c r="K60" s="13">
-        <v>4736462</v>
+        <v>4979736</v>
       </c>
       <c r="L60" s="13">
-        <v>1982944</v>
+        <v>3785483</v>
       </c>
       <c r="M60" s="13">
-        <v>4979736</v>
+        <v>3362624</v>
       </c>
       <c r="N60" s="13">
-        <v>3785483</v>
+        <v>3887304</v>
       </c>
       <c r="O60" s="13">
-        <v>3362624</v>
+        <v>3826366</v>
       </c>
       <c r="P60" s="13">
-        <v>3887304</v>
+        <v>2667760</v>
       </c>
       <c r="Q60" s="13">
-        <v>3826366</v>
+        <v>3694684</v>
       </c>
       <c r="R60" s="13">
-        <v>2667760</v>
+        <v>4329693</v>
       </c>
       <c r="S60" s="13">
-        <v>3694684</v>
+        <v>4045546</v>
       </c>
       <c r="T60" s="13">
-        <v>4329693</v>
+        <v>3638320</v>
       </c>
       <c r="U60" s="13">
-        <v>4045546</v>
-      </c>
-      <c r="V60" s="13">
-        <v>3638320</v>
-      </c>
-      <c r="W60" s="13">
         <v>4868032</v>
       </c>
+      <c r="V60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W60" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z60" s="13" t="s">
-        <v>57</v>
+      <c r="Y60" s="13">
+        <v>6376364</v>
+      </c>
+      <c r="Z60" s="13">
+        <v>8522548</v>
       </c>
       <c r="AA60" s="13">
-        <v>6376364</v>
+        <v>7500645</v>
       </c>
       <c r="AB60" s="13">
-        <v>8522548</v>
+        <v>10341937</v>
       </c>
       <c r="AC60" s="13">
-        <v>7500645</v>
+        <v>10097494</v>
       </c>
       <c r="AD60" s="13">
-        <v>10341937</v>
+        <v>6191783</v>
       </c>
       <c r="AE60" s="13">
-        <v>10097494</v>
+        <v>8870698</v>
       </c>
       <c r="AF60" s="13">
-        <v>6191783</v>
+        <v>6876913</v>
       </c>
       <c r="AG60" s="13">
-        <v>8870698</v>
+        <v>8189548</v>
       </c>
       <c r="AH60" s="13">
-        <v>6876913</v>
+        <v>8400535</v>
       </c>
       <c r="AI60" s="13">
-        <v>8189548</v>
+        <v>9420599</v>
       </c>
       <c r="AJ60" s="13">
-        <v>8400535</v>
+        <v>6098124</v>
       </c>
       <c r="AK60" s="13">
-        <v>9420599</v>
+        <v>4582347</v>
       </c>
       <c r="AL60" s="13">
-        <v>6098124</v>
+        <v>5347647</v>
       </c>
       <c r="AM60" s="13">
-        <v>4582347</v>
+        <v>7004081</v>
       </c>
       <c r="AN60" s="13">
-        <v>5347647</v>
+        <v>9067174</v>
       </c>
       <c r="AO60" s="13">
-        <v>7004081</v>
+        <v>7522348</v>
       </c>
       <c r="AP60" s="13">
-        <v>9067174</v>
+        <v>10349132</v>
       </c>
       <c r="AQ60" s="13">
-        <v>7522348</v>
-      </c>
-      <c r="AR60" s="13">
-        <v>10349132</v>
-      </c>
-      <c r="AS60" s="13">
         <v>9056855</v>
       </c>
-      <c r="AT60" s="13">
-        <v>8331251</v>
+      <c r="AR60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV60" s="13">
-        <v>10233422</v>
+      <c r="AV60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AW60" s="13" t="s">
         <v>57</v>
@@ -8021,136 +8021,136 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>2472140</v>
+        <v>6619373</v>
       </c>
       <c r="F61" s="11">
-        <v>4506372</v>
+        <v>5481034</v>
       </c>
       <c r="G61" s="11">
-        <v>6619373</v>
+        <v>4671352</v>
       </c>
       <c r="H61" s="11">
-        <v>5481034</v>
+        <v>4609786</v>
       </c>
       <c r="I61" s="11">
-        <v>4671352</v>
+        <v>4962326</v>
       </c>
       <c r="J61" s="11">
-        <v>4609786</v>
+        <v>5772685</v>
       </c>
       <c r="K61" s="11">
-        <v>4962326</v>
+        <v>5357854</v>
       </c>
       <c r="L61" s="11">
-        <v>5772685</v>
+        <v>4255181</v>
       </c>
       <c r="M61" s="11">
-        <v>5357854</v>
+        <v>7425333</v>
       </c>
       <c r="N61" s="11">
-        <v>4255181</v>
+        <v>5084834</v>
       </c>
       <c r="O61" s="11">
-        <v>7425333</v>
+        <v>3050987</v>
       </c>
       <c r="P61" s="11">
-        <v>5084834</v>
+        <v>3455171</v>
       </c>
       <c r="Q61" s="11">
-        <v>3050987</v>
+        <v>5562985</v>
       </c>
       <c r="R61" s="11">
-        <v>3455171</v>
+        <v>4283505</v>
       </c>
       <c r="S61" s="11">
-        <v>5562985</v>
+        <v>5577646</v>
       </c>
       <c r="T61" s="11">
-        <v>4283505</v>
+        <v>4016299</v>
       </c>
       <c r="U61" s="11">
-        <v>5577646</v>
-      </c>
-      <c r="V61" s="11">
-        <v>4016299</v>
-      </c>
-      <c r="W61" s="11">
         <v>6367906</v>
       </c>
+      <c r="V61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W61" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z61" s="11" t="s">
-        <v>57</v>
+      <c r="Y61" s="11">
+        <v>5301095</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>7824437</v>
       </c>
       <c r="AA61" s="11">
-        <v>5301095</v>
+        <v>4844694</v>
       </c>
       <c r="AB61" s="11">
-        <v>7824437</v>
+        <v>13122982</v>
       </c>
       <c r="AC61" s="11">
-        <v>4844694</v>
+        <v>3445553</v>
       </c>
       <c r="AD61" s="11">
-        <v>13122982</v>
+        <v>13108096</v>
       </c>
       <c r="AE61" s="11">
-        <v>3445553</v>
+        <v>14068935</v>
       </c>
       <c r="AF61" s="11">
-        <v>13108096</v>
+        <v>7056041</v>
       </c>
       <c r="AG61" s="11">
-        <v>14068935</v>
+        <v>10413755</v>
       </c>
       <c r="AH61" s="11">
-        <v>7056041</v>
+        <v>14829988</v>
       </c>
       <c r="AI61" s="11">
-        <v>10413755</v>
+        <v>5881244</v>
       </c>
       <c r="AJ61" s="11">
-        <v>14829988</v>
+        <v>16680167</v>
       </c>
       <c r="AK61" s="11">
-        <v>5881244</v>
+        <v>10819903</v>
       </c>
       <c r="AL61" s="11">
-        <v>16680167</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="11">
-        <v>10819903</v>
+        <v>518411</v>
       </c>
       <c r="AN61" s="11">
-        <v>0</v>
+        <v>612785</v>
       </c>
       <c r="AO61" s="11">
-        <v>518411</v>
+        <v>2960772</v>
       </c>
       <c r="AP61" s="11">
-        <v>612785</v>
+        <v>25998055</v>
       </c>
       <c r="AQ61" s="11">
-        <v>2960772</v>
-      </c>
-      <c r="AR61" s="11">
-        <v>25998055</v>
-      </c>
-      <c r="AS61" s="11">
         <v>9654225</v>
       </c>
-      <c r="AT61" s="11">
-        <v>6651226</v>
+      <c r="AR61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV61" s="11">
-        <v>7851191</v>
+      <c r="AV61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW61" s="11" t="s">
         <v>57</v>
@@ -8230,21 +8230,21 @@
       <c r="U62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W62" s="13" t="s">
-        <v>57</v>
+      <c r="V62" s="13">
+        <v>10725994</v>
+      </c>
+      <c r="W62" s="13">
+        <v>6705840</v>
       </c>
       <c r="X62" s="13">
-        <v>10725994</v>
-      </c>
-      <c r="Y62" s="13">
-        <v>6705840</v>
-      </c>
-      <c r="Z62" s="13">
         <v>11852234</v>
       </c>
+      <c r="Y62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z62" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AA62" s="13" t="s">
         <v>57</v>
       </c>
@@ -8302,17 +8302,17 @@
       <c r="AS62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU62" s="13" t="s">
-        <v>57</v>
+      <c r="AT62" s="13">
+        <v>18084613</v>
+      </c>
+      <c r="AU62" s="13">
+        <v>25456763</v>
       </c>
       <c r="AV62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW62" s="13">
-        <v>25456763</v>
+      <c r="AW62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX62" s="13" t="s">
         <v>57</v>
@@ -8398,14 +8398,14 @@
       <c r="X63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z63" s="11" t="s">
-        <v>57</v>
+      <c r="Y63" s="11">
+        <v>45674</v>
+      </c>
+      <c r="Z63" s="11">
+        <v>0</v>
       </c>
       <c r="AA63" s="11">
-        <v>45674</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="11">
         <v>0</v>
@@ -8425,44 +8425,44 @@
       <c r="AG63" s="11">
         <v>0</v>
       </c>
-      <c r="AH63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="11">
-        <v>0</v>
+      <c r="AH63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK63" s="11" t="s">
-        <v>57</v>
+      <c r="AK63" s="11">
+        <v>0</v>
       </c>
       <c r="AL63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO63" s="11" t="s">
-        <v>57</v>
+      <c r="AM63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN63" s="11">
+        <v>1409713</v>
+      </c>
+      <c r="AO63" s="11">
+        <v>0</v>
       </c>
       <c r="AP63" s="11">
-        <v>1409713</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS63" s="11">
         <v>1879694</v>
       </c>
-      <c r="AT63" s="11">
-        <v>0</v>
+      <c r="AR63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU63" s="11" t="s">
         <v>57</v>
@@ -8614,11 +8614,11 @@
       <c r="X65" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y65" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z65" s="17" t="s">
-        <v>57</v>
+      <c r="Y65" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="17">
+        <v>0</v>
       </c>
       <c r="AA65" s="17">
         <v>0</v>
@@ -8830,11 +8830,11 @@
       <c r="X67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y67" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z67" s="17" t="s">
-        <v>57</v>
+      <c r="Y67" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="17">
+        <v>0</v>
       </c>
       <c r="AA67" s="17">
         <v>0</v>
@@ -9046,11 +9046,11 @@
       <c r="X69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z69" s="11" t="s">
-        <v>57</v>
+      <c r="Y69" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>0</v>
       </c>
       <c r="AA69" s="11">
         <v>0</v>
@@ -9144,154 +9144,154 @@
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19">
-        <v>8759809</v>
+        <v>13118484</v>
       </c>
       <c r="F70" s="19">
-        <v>8801911</v>
+        <v>9114189</v>
       </c>
       <c r="G70" s="19">
-        <v>13118484</v>
+        <v>10968322</v>
       </c>
       <c r="H70" s="19">
-        <v>9114189</v>
+        <v>12763216</v>
       </c>
       <c r="I70" s="19">
-        <v>10968322</v>
+        <v>12753246</v>
       </c>
       <c r="J70" s="19">
-        <v>12763216</v>
+        <v>11349648</v>
       </c>
       <c r="K70" s="19">
-        <v>12753246</v>
+        <v>13342066</v>
       </c>
       <c r="L70" s="19">
-        <v>11349648</v>
+        <v>13355633</v>
       </c>
       <c r="M70" s="19">
-        <v>13342066</v>
+        <v>14379785</v>
       </c>
       <c r="N70" s="19">
-        <v>13355633</v>
+        <v>14391625</v>
       </c>
       <c r="O70" s="19">
-        <v>14379785</v>
+        <v>12651348</v>
       </c>
       <c r="P70" s="19">
-        <v>14391625</v>
+        <v>8996552</v>
       </c>
       <c r="Q70" s="19">
-        <v>12651348</v>
+        <v>13667960</v>
       </c>
       <c r="R70" s="19">
-        <v>8996552</v>
+        <v>11144061</v>
       </c>
       <c r="S70" s="19">
-        <v>13667960</v>
+        <v>14161945</v>
       </c>
       <c r="T70" s="19">
-        <v>11144061</v>
+        <v>13333118</v>
       </c>
       <c r="U70" s="19">
-        <v>14161945</v>
+        <v>17634072</v>
       </c>
       <c r="V70" s="19">
-        <v>13333118</v>
+        <v>17498947</v>
       </c>
       <c r="W70" s="19">
-        <v>17634072</v>
+        <v>12917553</v>
       </c>
       <c r="X70" s="19">
-        <v>17498947</v>
+        <v>17678660</v>
       </c>
       <c r="Y70" s="19">
-        <v>12917553</v>
+        <v>18935844</v>
       </c>
       <c r="Z70" s="19">
-        <v>17678660</v>
+        <v>26958608</v>
       </c>
       <c r="AA70" s="19">
-        <v>18935844</v>
+        <v>18130790</v>
       </c>
       <c r="AB70" s="19">
-        <v>26958608</v>
+        <v>38609481</v>
       </c>
       <c r="AC70" s="19">
-        <v>18130790</v>
+        <v>25821321</v>
       </c>
       <c r="AD70" s="19">
-        <v>38609481</v>
+        <v>32247339</v>
       </c>
       <c r="AE70" s="19">
-        <v>25821321</v>
+        <v>33603011</v>
       </c>
       <c r="AF70" s="19">
-        <v>32247339</v>
+        <v>26265732</v>
       </c>
       <c r="AG70" s="19">
-        <v>33603011</v>
+        <v>37801860</v>
       </c>
       <c r="AH70" s="19">
-        <v>26265732</v>
+        <v>33941377</v>
       </c>
       <c r="AI70" s="19">
-        <v>37801860</v>
+        <v>39370736</v>
       </c>
       <c r="AJ70" s="19">
-        <v>33941377</v>
+        <v>35755711</v>
       </c>
       <c r="AK70" s="19">
-        <v>39370736</v>
+        <v>39611110</v>
       </c>
       <c r="AL70" s="19">
-        <v>35755711</v>
+        <v>29602151</v>
       </c>
       <c r="AM70" s="19">
-        <v>39611110</v>
+        <v>23602729</v>
       </c>
       <c r="AN70" s="19">
-        <v>29602151</v>
+        <v>32042919</v>
       </c>
       <c r="AO70" s="19">
-        <v>23602729</v>
+        <v>42584887</v>
       </c>
       <c r="AP70" s="19">
-        <v>32042919</v>
+        <v>54078909</v>
       </c>
       <c r="AQ70" s="19">
-        <v>42584887</v>
+        <v>50566158</v>
       </c>
       <c r="AR70" s="19">
-        <v>54078909</v>
+        <v>204033137</v>
       </c>
       <c r="AS70" s="19">
-        <v>50566158</v>
+        <v>84732808</v>
       </c>
       <c r="AT70" s="19">
-        <v>36279554</v>
+        <v>27164022</v>
       </c>
       <c r="AU70" s="19">
-        <v>84732808</v>
+        <v>40081597</v>
       </c>
       <c r="AV70" s="19">
-        <v>27164022</v>
+        <v>60395586</v>
       </c>
       <c r="AW70" s="19">
-        <v>40081597</v>
+        <v>27060992</v>
       </c>
       <c r="AX70" s="19">
-        <v>60395586</v>
+        <v>26462923</v>
       </c>
       <c r="AY70" s="19">
-        <v>34809508</v>
+        <v>56690183</v>
       </c>
       <c r="AZ70" s="19">
-        <v>26462923</v>
+        <v>40014483</v>
       </c>
       <c r="BA70" s="19">
-        <v>56690183</v>
+        <v>41410349</v>
       </c>
       <c r="BB70" s="19">
-        <v>40014483</v>
+        <v>47586112</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9737,154 +9737,154 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>6334474</v>
+        <v>7601475</v>
       </c>
       <c r="F77" s="11">
-        <v>7872865</v>
+        <v>7843817</v>
       </c>
       <c r="G77" s="11">
-        <v>7601475</v>
+        <v>7360119</v>
       </c>
       <c r="H77" s="11">
-        <v>7843817</v>
+        <v>6875996</v>
       </c>
       <c r="I77" s="11">
-        <v>7360119</v>
-      </c>
-      <c r="J77" s="11">
-        <v>6875996</v>
-      </c>
-      <c r="K77" s="11">
         <v>11963207</v>
       </c>
+      <c r="J77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>57</v>
+      <c r="M77" s="11">
+        <v>9012006</v>
+      </c>
+      <c r="N77" s="11">
+        <v>9541017</v>
       </c>
       <c r="O77" s="11">
-        <v>9012006</v>
+        <v>9017873</v>
       </c>
       <c r="P77" s="11">
-        <v>9541017</v>
+        <v>9043046</v>
       </c>
       <c r="Q77" s="11">
-        <v>9017873</v>
+        <v>8828976</v>
       </c>
       <c r="R77" s="11">
-        <v>9043046</v>
+        <v>0</v>
       </c>
       <c r="S77" s="11">
-        <v>8828976</v>
+        <v>9464914</v>
       </c>
       <c r="T77" s="11">
-        <v>0</v>
+        <v>10174085</v>
       </c>
       <c r="U77" s="11">
-        <v>9464914</v>
+        <v>11536216</v>
       </c>
       <c r="V77" s="11">
-        <v>10174085</v>
+        <v>11496710</v>
       </c>
       <c r="W77" s="11">
-        <v>11536216</v>
+        <v>11190352</v>
       </c>
       <c r="X77" s="11">
-        <v>11496710</v>
+        <v>12928939</v>
       </c>
       <c r="Y77" s="11">
-        <v>11190352</v>
+        <v>14003512</v>
       </c>
       <c r="Z77" s="11">
-        <v>12928939</v>
+        <v>16211577</v>
       </c>
       <c r="AA77" s="11">
-        <v>14003512</v>
-      </c>
-      <c r="AB77" s="11">
-        <v>16211577</v>
+        <v>18061592</v>
+      </c>
+      <c r="AB77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AC77" s="11">
-        <v>18061592</v>
+        <v>24220903</v>
       </c>
       <c r="AD77" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AE77" s="11">
-        <v>24220903</v>
-      </c>
-      <c r="AF77" s="11" t="s">
-        <v>57</v>
+        <v>26100872</v>
+      </c>
+      <c r="AF77" s="11">
+        <v>24453367</v>
       </c>
       <c r="AG77" s="11">
-        <v>26100872</v>
-      </c>
-      <c r="AH77" s="11">
-        <v>24453367</v>
-      </c>
-      <c r="AI77" s="11">
         <v>26107244</v>
       </c>
+      <c r="AH77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI77" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ77" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AK77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM77" s="11" t="s">
-        <v>57</v>
+      <c r="AL77" s="11">
+        <v>35944103</v>
+      </c>
+      <c r="AM77" s="11">
+        <v>36036697</v>
       </c>
       <c r="AN77" s="11">
-        <v>35944103</v>
+        <v>34928116</v>
       </c>
       <c r="AO77" s="11">
-        <v>36036697</v>
+        <v>36061462</v>
       </c>
       <c r="AP77" s="11">
-        <v>34928116</v>
+        <v>34819415</v>
       </c>
       <c r="AQ77" s="11">
-        <v>36061462</v>
+        <v>34673219</v>
       </c>
       <c r="AR77" s="11">
-        <v>34819415</v>
+        <v>37307055</v>
       </c>
       <c r="AS77" s="11">
-        <v>34673219</v>
-      </c>
-      <c r="AT77" s="11">
-        <v>37307055</v>
+        <v>42347288</v>
+      </c>
+      <c r="AT77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU77" s="11">
-        <v>42347288</v>
+        <v>36341912</v>
       </c>
       <c r="AV77" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AW77" s="11">
-        <v>36341912</v>
-      </c>
-      <c r="AX77" s="11" t="s">
-        <v>57</v>
+        <v>33531130</v>
+      </c>
+      <c r="AX77" s="11">
+        <v>25819724</v>
       </c>
       <c r="AY77" s="11">
-        <v>33531130</v>
+        <v>26860171</v>
       </c>
       <c r="AZ77" s="11">
-        <v>25819724</v>
+        <v>28032191</v>
       </c>
       <c r="BA77" s="11">
-        <v>26860171</v>
+        <v>29176714</v>
       </c>
       <c r="BB77" s="11">
-        <v>28032191</v>
+        <v>29903801</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9946,21 +9946,21 @@
       <c r="U78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W78" s="13" t="s">
-        <v>57</v>
+      <c r="V78" s="13">
+        <v>50972326</v>
+      </c>
+      <c r="W78" s="13">
+        <v>50199385</v>
       </c>
       <c r="X78" s="13">
-        <v>50972326</v>
-      </c>
-      <c r="Y78" s="13">
-        <v>50199385</v>
-      </c>
-      <c r="Z78" s="13">
         <v>54153799</v>
       </c>
+      <c r="Y78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z78" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AA78" s="13" t="s">
         <v>57</v>
       </c>
@@ -10012,38 +10012,38 @@
       <c r="AQ78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT78" s="13" t="s">
-        <v>57</v>
+      <c r="AR78" s="13">
+        <v>160054156</v>
+      </c>
+      <c r="AS78" s="13">
+        <v>143811357</v>
+      </c>
+      <c r="AT78" s="13">
+        <v>155677257</v>
       </c>
       <c r="AU78" s="13">
-        <v>143811357</v>
-      </c>
-      <c r="AV78" s="13" t="s">
-        <v>57</v>
+        <v>145638890</v>
+      </c>
+      <c r="AV78" s="13">
+        <v>169419069</v>
       </c>
       <c r="AW78" s="13">
-        <v>145638890</v>
+        <v>150633814</v>
       </c>
       <c r="AX78" s="13">
-        <v>169419069</v>
+        <v>141765626</v>
       </c>
       <c r="AY78" s="13">
-        <v>150633814</v>
+        <v>121170616</v>
       </c>
       <c r="AZ78" s="13">
-        <v>141765626</v>
+        <v>117763662</v>
       </c>
       <c r="BA78" s="13">
-        <v>121170616</v>
+        <v>125647769</v>
       </c>
       <c r="BB78" s="13">
-        <v>117763662</v>
+        <v>129058047</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10102,14 +10102,14 @@
       <c r="T79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U79" s="11" t="s">
-        <v>57</v>
+      <c r="U79" s="11">
+        <v>20993842</v>
       </c>
       <c r="V79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W79" s="11">
-        <v>20993842</v>
+      <c r="W79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X79" s="11" t="s">
         <v>57</v>
@@ -10150,29 +10150,29 @@
       <c r="AJ79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL79" s="11" t="s">
-        <v>57</v>
+      <c r="AK79" s="11">
+        <v>82388889</v>
+      </c>
+      <c r="AL79" s="11">
+        <v>83389504</v>
       </c>
       <c r="AM79" s="11">
-        <v>82388889</v>
+        <v>81757905</v>
       </c>
       <c r="AN79" s="11">
-        <v>83389504</v>
+        <v>83931303</v>
       </c>
       <c r="AO79" s="11">
-        <v>81757905</v>
+        <v>85483199</v>
       </c>
       <c r="AP79" s="11">
-        <v>83931303</v>
-      </c>
-      <c r="AQ79" s="11">
-        <v>85483199</v>
+        <v>84035724</v>
+      </c>
+      <c r="AQ79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR79" s="11">
-        <v>84035724</v>
+        <v>-1426954</v>
       </c>
       <c r="AS79" s="11" t="s">
         <v>57</v>
@@ -10183,26 +10183,26 @@
       <c r="AU79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW79" s="11" t="s">
-        <v>57</v>
+      <c r="AV79" s="11">
+        <v>95470495</v>
+      </c>
+      <c r="AW79" s="11">
+        <v>86030167</v>
       </c>
       <c r="AX79" s="11">
-        <v>95470495</v>
-      </c>
-      <c r="AY79" s="11">
-        <v>86030167</v>
-      </c>
-      <c r="AZ79" s="11">
         <v>80684045</v>
       </c>
+      <c r="AY79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="BA79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB79" s="11" t="s">
-        <v>57</v>
+      <c r="BB79" s="11">
+        <v>79578452</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10214,136 +10214,136 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>45368358</v>
+        <v>37554043</v>
       </c>
       <c r="F80" s="13">
-        <v>38879173</v>
+        <v>0</v>
       </c>
       <c r="G80" s="13">
-        <v>37554043</v>
+        <v>36409733</v>
       </c>
       <c r="H80" s="13">
-        <v>0</v>
+        <v>33113543</v>
       </c>
       <c r="I80" s="13">
-        <v>36409733</v>
+        <v>31865016</v>
       </c>
       <c r="J80" s="13">
-        <v>33113543</v>
+        <v>30003843</v>
       </c>
       <c r="K80" s="13">
-        <v>31865016</v>
+        <v>0</v>
       </c>
       <c r="L80" s="13">
-        <v>30003843</v>
+        <v>43892532</v>
       </c>
       <c r="M80" s="13">
         <v>0</v>
       </c>
       <c r="N80" s="13">
-        <v>43892532</v>
+        <v>43115092</v>
       </c>
       <c r="O80" s="13">
-        <v>0</v>
+        <v>41891653</v>
       </c>
       <c r="P80" s="13">
-        <v>43115092</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="13">
-        <v>41891653</v>
+        <v>38706138</v>
       </c>
       <c r="R80" s="13">
         <v>0</v>
       </c>
       <c r="S80" s="13">
-        <v>38706138</v>
+        <v>38908625</v>
       </c>
       <c r="T80" s="13">
-        <v>0</v>
+        <v>41945690</v>
       </c>
       <c r="U80" s="13">
-        <v>38908625</v>
-      </c>
-      <c r="V80" s="13">
-        <v>41945690</v>
-      </c>
-      <c r="W80" s="13">
         <v>51237759</v>
       </c>
+      <c r="V80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA80" s="13">
+      <c r="Y80" s="13">
         <v>54385932</v>
       </c>
+      <c r="Z80" s="13">
+        <v>62926501</v>
+      </c>
+      <c r="AA80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AB80" s="13">
-        <v>62926501</v>
-      </c>
-      <c r="AC80" s="13" t="s">
-        <v>57</v>
+        <v>89781298</v>
+      </c>
+      <c r="AC80" s="13">
+        <v>106841745</v>
       </c>
       <c r="AD80" s="13">
-        <v>89781298</v>
+        <v>112870544</v>
       </c>
       <c r="AE80" s="13">
-        <v>106841745</v>
+        <v>110228526</v>
       </c>
       <c r="AF80" s="13">
-        <v>112870544</v>
+        <v>117957922</v>
       </c>
       <c r="AG80" s="13">
-        <v>110228526</v>
+        <v>145887650</v>
       </c>
       <c r="AH80" s="13">
-        <v>117957922</v>
+        <v>130710349</v>
       </c>
       <c r="AI80" s="13">
-        <v>145887650</v>
+        <v>130159729</v>
       </c>
       <c r="AJ80" s="13">
-        <v>130710349</v>
+        <v>130886958</v>
       </c>
       <c r="AK80" s="13">
-        <v>130159729</v>
+        <v>151445808</v>
       </c>
       <c r="AL80" s="13">
-        <v>130886958</v>
+        <v>154983452</v>
       </c>
       <c r="AM80" s="13">
-        <v>151445808</v>
+        <v>170148710</v>
       </c>
       <c r="AN80" s="13">
-        <v>154983452</v>
+        <v>156966941</v>
       </c>
       <c r="AO80" s="13">
-        <v>170148710</v>
+        <v>162628736</v>
       </c>
       <c r="AP80" s="13">
-        <v>156966941</v>
+        <v>158704014</v>
       </c>
       <c r="AQ80" s="13">
-        <v>162628736</v>
-      </c>
-      <c r="AR80" s="13">
-        <v>158704014</v>
-      </c>
-      <c r="AS80" s="13">
         <v>161346485</v>
       </c>
-      <c r="AT80" s="13">
-        <v>158257844</v>
+      <c r="AR80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV80" s="13">
-        <v>140715428</v>
+      <c r="AV80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AW80" s="13" t="s">
         <v>57</v>
@@ -10373,136 +10373,136 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>23635041</v>
+        <v>35289654</v>
       </c>
       <c r="F81" s="11">
-        <v>33555556</v>
+        <v>34087600</v>
       </c>
       <c r="G81" s="11">
-        <v>35289654</v>
+        <v>31155922</v>
       </c>
       <c r="H81" s="11">
-        <v>34087600</v>
+        <v>29938138</v>
       </c>
       <c r="I81" s="11">
-        <v>31155922</v>
+        <v>32268598</v>
       </c>
       <c r="J81" s="11">
-        <v>29938138</v>
+        <v>37541607</v>
       </c>
       <c r="K81" s="11">
-        <v>32268598</v>
+        <v>38444990</v>
       </c>
       <c r="L81" s="11">
-        <v>37541607</v>
+        <v>39816687</v>
       </c>
       <c r="M81" s="11">
-        <v>38444990</v>
+        <v>39521664</v>
       </c>
       <c r="N81" s="11">
-        <v>39816687</v>
+        <v>39397666</v>
       </c>
       <c r="O81" s="11">
-        <v>39521664</v>
+        <v>38694446</v>
       </c>
       <c r="P81" s="11">
-        <v>39397666</v>
+        <v>38602831</v>
       </c>
       <c r="Q81" s="11">
-        <v>38694446</v>
+        <v>38386877</v>
       </c>
       <c r="R81" s="11">
-        <v>38602831</v>
+        <v>37920414</v>
       </c>
       <c r="S81" s="11">
-        <v>38386877</v>
+        <v>39871656</v>
       </c>
       <c r="T81" s="11">
-        <v>37920414</v>
+        <v>42070061</v>
       </c>
       <c r="U81" s="11">
-        <v>39871656</v>
-      </c>
-      <c r="V81" s="11">
-        <v>42070061</v>
-      </c>
-      <c r="W81" s="11">
         <v>47438867</v>
       </c>
+      <c r="V81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z81" s="11" t="s">
-        <v>57</v>
+      <c r="Y81" s="11">
+        <v>60321580</v>
+      </c>
+      <c r="Z81" s="11">
+        <v>70513343</v>
       </c>
       <c r="AA81" s="11">
-        <v>60321580</v>
+        <v>74361182</v>
       </c>
       <c r="AB81" s="11">
-        <v>70513343</v>
+        <v>97321592</v>
       </c>
       <c r="AC81" s="11">
-        <v>74361182</v>
+        <v>102190741</v>
       </c>
       <c r="AD81" s="11">
-        <v>97321592</v>
+        <v>102667736</v>
       </c>
       <c r="AE81" s="11">
-        <v>102190741</v>
+        <v>108059048</v>
       </c>
       <c r="AF81" s="11">
-        <v>102667736</v>
+        <v>126566230</v>
       </c>
       <c r="AG81" s="11">
-        <v>108059048</v>
+        <v>125634770</v>
       </c>
       <c r="AH81" s="11">
-        <v>126566230</v>
+        <v>138888748</v>
       </c>
       <c r="AI81" s="11">
-        <v>125634770</v>
+        <v>166360454</v>
       </c>
       <c r="AJ81" s="11">
-        <v>138888748</v>
+        <v>168765537</v>
       </c>
       <c r="AK81" s="11">
-        <v>166360454</v>
+        <v>169872816</v>
       </c>
       <c r="AL81" s="11">
-        <v>168765537</v>
+        <v>168096731</v>
       </c>
       <c r="AM81" s="11">
-        <v>169872816</v>
+        <v>164906650</v>
       </c>
       <c r="AN81" s="11">
-        <v>168096731</v>
+        <v>162694037</v>
       </c>
       <c r="AO81" s="11">
-        <v>164906650</v>
+        <v>153208171</v>
       </c>
       <c r="AP81" s="11">
-        <v>162694037</v>
+        <v>153489810</v>
       </c>
       <c r="AQ81" s="11">
-        <v>153208171</v>
-      </c>
-      <c r="AR81" s="11">
-        <v>153489810</v>
-      </c>
-      <c r="AS81" s="11">
         <v>150171295</v>
       </c>
-      <c r="AT81" s="11">
-        <v>146427488</v>
+      <c r="AR81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV81" s="11">
-        <v>157119297</v>
+      <c r="AV81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW81" s="11" t="s">
         <v>57</v>
@@ -10648,38 +10648,38 @@
       <c r="AQ82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS82" s="13" t="s">
-        <v>57</v>
+      <c r="AR82" s="13">
+        <v>130094790</v>
+      </c>
+      <c r="AS82" s="13">
+        <v>136059871</v>
       </c>
       <c r="AT82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU82" s="13">
-        <v>136059871</v>
-      </c>
-      <c r="AV82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW82" s="13" t="s">
-        <v>57</v>
+      <c r="AU82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV82" s="13">
+        <v>155315302</v>
+      </c>
+      <c r="AW82" s="13">
+        <v>155711907</v>
       </c>
       <c r="AX82" s="13">
-        <v>155315302</v>
+        <v>138547427</v>
       </c>
       <c r="AY82" s="13">
-        <v>158062211</v>
+        <v>121873451</v>
       </c>
       <c r="AZ82" s="13">
-        <v>138547427</v>
+        <v>125495643</v>
       </c>
       <c r="BA82" s="13">
-        <v>121873451</v>
+        <v>130737298</v>
       </c>
       <c r="BB82" s="13">
-        <v>125495643</v>
+        <v>133483193</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10720,56 +10720,56 @@
       <c r="N83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P83" s="11" t="s">
-        <v>57</v>
+      <c r="O83" s="11">
+        <v>56999014</v>
+      </c>
+      <c r="P83" s="11">
+        <v>0</v>
       </c>
       <c r="Q83" s="11">
-        <v>56999014</v>
+        <v>54983838</v>
       </c>
       <c r="R83" s="11">
-        <v>0</v>
+        <v>53265380</v>
       </c>
       <c r="S83" s="11">
-        <v>54983838</v>
+        <v>54335834</v>
       </c>
       <c r="T83" s="11">
-        <v>53265380</v>
+        <v>48215592</v>
       </c>
       <c r="U83" s="11">
-        <v>54335834</v>
-      </c>
-      <c r="V83" s="11">
-        <v>48215592</v>
+        <v>61089957</v>
+      </c>
+      <c r="V83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W83" s="11">
-        <v>61089957</v>
-      </c>
-      <c r="X83" s="11" t="s">
-        <v>57</v>
+        <v>61886431</v>
+      </c>
+      <c r="X83" s="11">
+        <v>58500000</v>
       </c>
       <c r="Y83" s="11">
-        <v>61886431</v>
+        <v>80237381</v>
       </c>
       <c r="Z83" s="11">
-        <v>58500000</v>
-      </c>
-      <c r="AA83" s="11">
-        <v>80237381</v>
+        <v>64552672</v>
+      </c>
+      <c r="AA83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AB83" s="11">
-        <v>64552672</v>
-      </c>
-      <c r="AC83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD83" s="11">
         <v>76482830</v>
       </c>
-      <c r="AE83" s="11">
+      <c r="AC83" s="11">
         <v>74329163</v>
+      </c>
+      <c r="AD83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AF83" s="11" t="s">
         <v>57</v>
@@ -10850,136 +10850,136 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>24676930</v>
+        <v>30649282</v>
       </c>
       <c r="F84" s="13">
-        <v>31431511</v>
+        <v>32316480</v>
       </c>
       <c r="G84" s="13">
-        <v>30649282</v>
+        <v>28854056</v>
       </c>
       <c r="H84" s="13">
-        <v>32316480</v>
+        <v>29864826</v>
       </c>
       <c r="I84" s="13">
-        <v>28854056</v>
+        <v>35085164</v>
       </c>
       <c r="J84" s="13">
-        <v>29864826</v>
+        <v>37961980</v>
       </c>
       <c r="K84" s="13">
-        <v>35085164</v>
+        <v>40188330</v>
       </c>
       <c r="L84" s="13">
-        <v>37961980</v>
+        <v>41210610</v>
       </c>
       <c r="M84" s="13">
-        <v>40188330</v>
+        <v>37723799</v>
       </c>
       <c r="N84" s="13">
-        <v>41210610</v>
+        <v>35570660</v>
       </c>
       <c r="O84" s="13">
-        <v>37723799</v>
+        <v>34411313</v>
       </c>
       <c r="P84" s="13">
-        <v>35570660</v>
+        <v>34642185</v>
       </c>
       <c r="Q84" s="13">
-        <v>34411313</v>
+        <v>34793800</v>
       </c>
       <c r="R84" s="13">
-        <v>34642185</v>
+        <v>36020740</v>
       </c>
       <c r="S84" s="13">
-        <v>34793800</v>
+        <v>39780778</v>
       </c>
       <c r="T84" s="13">
-        <v>36020740</v>
+        <v>43671544</v>
       </c>
       <c r="U84" s="13">
-        <v>39780778</v>
-      </c>
-      <c r="V84" s="13">
-        <v>43671544</v>
-      </c>
-      <c r="W84" s="13">
         <v>47805010</v>
       </c>
+      <c r="V84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W84" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z84" s="13" t="s">
-        <v>57</v>
+      <c r="Y84" s="13">
+        <v>63068624</v>
+      </c>
+      <c r="Z84" s="13">
+        <v>73252379</v>
       </c>
       <c r="AA84" s="13">
-        <v>63068624</v>
+        <v>80556815</v>
       </c>
       <c r="AB84" s="13">
-        <v>73252379</v>
+        <v>94066353</v>
       </c>
       <c r="AC84" s="13">
-        <v>80556815</v>
+        <v>101070957</v>
       </c>
       <c r="AD84" s="13">
-        <v>94066353</v>
+        <v>97788670</v>
       </c>
       <c r="AE84" s="13">
-        <v>101070957</v>
+        <v>112590884</v>
       </c>
       <c r="AF84" s="13">
-        <v>97788670</v>
+        <v>108139465</v>
       </c>
       <c r="AG84" s="13">
-        <v>112590884</v>
+        <v>105099304</v>
       </c>
       <c r="AH84" s="13">
-        <v>108139465</v>
+        <v>108395399</v>
       </c>
       <c r="AI84" s="13">
-        <v>105099304</v>
+        <v>117987563</v>
       </c>
       <c r="AJ84" s="13">
-        <v>108395399</v>
+        <v>123271625</v>
       </c>
       <c r="AK84" s="13">
-        <v>117987563</v>
+        <v>131092748</v>
       </c>
       <c r="AL84" s="13">
-        <v>123271625</v>
+        <v>135236249</v>
       </c>
       <c r="AM84" s="13">
-        <v>131092748</v>
+        <v>140825177</v>
       </c>
       <c r="AN84" s="13">
-        <v>135236249</v>
+        <v>130528669</v>
       </c>
       <c r="AO84" s="13">
-        <v>140825177</v>
+        <v>135910024</v>
       </c>
       <c r="AP84" s="13">
-        <v>130528669</v>
+        <v>134991613</v>
       </c>
       <c r="AQ84" s="13">
-        <v>135910024</v>
-      </c>
-      <c r="AR84" s="13">
-        <v>134991613</v>
-      </c>
-      <c r="AS84" s="13">
         <v>129057312</v>
       </c>
-      <c r="AT84" s="13">
-        <v>127286007</v>
+      <c r="AR84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV84" s="13">
-        <v>144846737</v>
+      <c r="AV84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AW84" s="13" t="s">
         <v>57</v>
@@ -11009,136 +11009,136 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>43040897</v>
+        <v>41204717</v>
       </c>
       <c r="F85" s="11">
-        <v>40387277</v>
+        <v>39433601</v>
       </c>
       <c r="G85" s="11">
-        <v>41204717</v>
+        <v>37853831</v>
       </c>
       <c r="H85" s="11">
-        <v>39433601</v>
+        <v>35446259</v>
       </c>
       <c r="I85" s="11">
-        <v>37853831</v>
+        <v>32428416</v>
       </c>
       <c r="J85" s="11">
-        <v>35446259</v>
+        <v>33097222</v>
       </c>
       <c r="K85" s="11">
-        <v>32428416</v>
+        <v>38194270</v>
       </c>
       <c r="L85" s="11">
-        <v>33097222</v>
+        <v>45302583</v>
       </c>
       <c r="M85" s="11">
-        <v>38194270</v>
+        <v>45424605</v>
       </c>
       <c r="N85" s="11">
-        <v>45302583</v>
+        <v>44742351</v>
       </c>
       <c r="O85" s="11">
-        <v>45424605</v>
+        <v>42144197</v>
       </c>
       <c r="P85" s="11">
-        <v>44742351</v>
+        <v>41984167</v>
       </c>
       <c r="Q85" s="11">
-        <v>42144197</v>
+        <v>38940661</v>
       </c>
       <c r="R85" s="11">
-        <v>41984167</v>
+        <v>39615132</v>
       </c>
       <c r="S85" s="11">
-        <v>38940661</v>
+        <v>41226420</v>
       </c>
       <c r="T85" s="11">
-        <v>39615132</v>
+        <v>44397637</v>
       </c>
       <c r="U85" s="11">
-        <v>41226420</v>
-      </c>
-      <c r="V85" s="11">
-        <v>44397637</v>
-      </c>
-      <c r="W85" s="11">
         <v>53331653</v>
       </c>
+      <c r="V85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W85" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z85" s="11" t="s">
-        <v>57</v>
+      <c r="Y85" s="11">
+        <v>57390412</v>
+      </c>
+      <c r="Z85" s="11">
+        <v>68432516</v>
       </c>
       <c r="AA85" s="11">
-        <v>57390412</v>
+        <v>74474175</v>
       </c>
       <c r="AB85" s="11">
-        <v>68432516</v>
+        <v>96726508</v>
       </c>
       <c r="AC85" s="11">
-        <v>74474175</v>
+        <v>106508594</v>
       </c>
       <c r="AD85" s="11">
-        <v>96726508</v>
+        <v>107235092</v>
       </c>
       <c r="AE85" s="11">
-        <v>106508594</v>
+        <v>111902446</v>
       </c>
       <c r="AF85" s="11">
-        <v>107235092</v>
+        <v>119218075</v>
       </c>
       <c r="AG85" s="11">
-        <v>111902446</v>
+        <v>130530897</v>
       </c>
       <c r="AH85" s="11">
-        <v>119218075</v>
+        <v>125259625</v>
       </c>
       <c r="AI85" s="11">
-        <v>130530897</v>
+        <v>119983761</v>
       </c>
       <c r="AJ85" s="11">
-        <v>125259625</v>
+        <v>117168094</v>
       </c>
       <c r="AK85" s="11">
-        <v>119983761</v>
-      </c>
-      <c r="AL85" s="11">
-        <v>117168094</v>
+        <v>125291264</v>
+      </c>
+      <c r="AL85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM85" s="11">
-        <v>125291264</v>
-      </c>
-      <c r="AN85" s="11" t="s">
-        <v>57</v>
+        <v>141487718</v>
+      </c>
+      <c r="AN85" s="11">
+        <v>127956776</v>
       </c>
       <c r="AO85" s="11">
-        <v>141487718</v>
+        <v>146914703</v>
       </c>
       <c r="AP85" s="11">
-        <v>127956776</v>
+        <v>149605845</v>
       </c>
       <c r="AQ85" s="11">
-        <v>146914703</v>
-      </c>
-      <c r="AR85" s="11">
-        <v>149605845</v>
-      </c>
-      <c r="AS85" s="11">
         <v>141605307</v>
       </c>
-      <c r="AT85" s="11">
-        <v>147785318</v>
+      <c r="AR85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV85" s="11">
-        <v>142564889</v>
+      <c r="AV85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW85" s="11" t="s">
         <v>57</v>
@@ -11218,21 +11218,21 @@
       <c r="U86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W86" s="13" t="s">
-        <v>57</v>
+      <c r="V86" s="13">
+        <v>48265935</v>
+      </c>
+      <c r="W86" s="13">
+        <v>44947718</v>
       </c>
       <c r="X86" s="13">
-        <v>48265935</v>
-      </c>
-      <c r="Y86" s="13">
-        <v>44947718</v>
-      </c>
-      <c r="Z86" s="13">
         <v>55418714</v>
       </c>
+      <c r="Y86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z86" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AA86" s="13" t="s">
         <v>57</v>
       </c>
@@ -11290,17 +11290,17 @@
       <c r="AS86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU86" s="13" t="s">
-        <v>57</v>
+      <c r="AT86" s="13">
+        <v>143847193</v>
+      </c>
+      <c r="AU86" s="13">
+        <v>148490483</v>
       </c>
       <c r="AV86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW86" s="13">
-        <v>148490483</v>
+      <c r="AW86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX86" s="13" t="s">
         <v>57</v>
@@ -11386,14 +11386,14 @@
       <c r="X87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y87" s="11" t="s">
-        <v>57</v>
+      <c r="Y87" s="11">
+        <v>21362956</v>
       </c>
       <c r="Z87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA87" s="11">
-        <v>21362956</v>
+      <c r="AA87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AB87" s="11" t="s">
         <v>57</v>
@@ -11431,23 +11431,23 @@
       <c r="AM87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN87" s="11" t="s">
-        <v>57</v>
+      <c r="AN87" s="11">
+        <v>79874950</v>
       </c>
       <c r="AO87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP87" s="11">
-        <v>79874950</v>
-      </c>
-      <c r="AQ87" s="11" t="s">
-        <v>57</v>
+      <c r="AP87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ87" s="11">
+        <v>81612279</v>
       </c>
       <c r="AR87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS87" s="11">
-        <v>81612279</v>
+      <c r="AS87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT87" s="11" t="s">
         <v>57</v>

--- a/database/industries/folad/fakhouz/product/monthly.xlsx
+++ b/database/industries/folad/fakhouz/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED299C0-7370-45B5-89F3-E716957FE34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F7A97-672F-48BF-8950-6A881FD44CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فخوز-فولاد  خوزستان</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>گندله</t>
@@ -751,12 +751,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -811,7 +811,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -980,7 +980,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1427,157 +1427,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>366569</v>
+        <v>561948</v>
       </c>
       <c r="F11" s="11">
-        <v>568056</v>
+        <v>522858</v>
       </c>
       <c r="G11" s="11">
-        <v>561948</v>
-      </c>
-      <c r="H11" s="11">
-        <v>522858</v>
-      </c>
-      <c r="I11" s="11">
         <v>527129</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>57</v>
+      <c r="K11" s="11">
+        <v>537712</v>
+      </c>
+      <c r="L11" s="11">
+        <v>538739</v>
       </c>
       <c r="M11" s="11">
-        <v>537712</v>
+        <v>509808</v>
       </c>
       <c r="N11" s="11">
-        <v>538739</v>
+        <v>515146</v>
       </c>
       <c r="O11" s="11">
-        <v>509808</v>
+        <v>523930</v>
       </c>
       <c r="P11" s="11">
-        <v>515146</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="11">
-        <v>523930</v>
+        <v>244414</v>
       </c>
       <c r="R11" s="11">
-        <v>0</v>
+        <v>452502</v>
       </c>
       <c r="S11" s="11">
-        <v>244414</v>
+        <v>444633</v>
       </c>
       <c r="T11" s="11">
-        <v>452502</v>
+        <v>536743</v>
       </c>
       <c r="U11" s="11">
-        <v>444633</v>
+        <v>547985</v>
       </c>
       <c r="V11" s="11">
-        <v>536743</v>
+        <v>529148</v>
       </c>
       <c r="W11" s="11">
-        <v>547985</v>
+        <v>468407</v>
       </c>
       <c r="X11" s="11">
-        <v>529148</v>
+        <v>524854</v>
       </c>
       <c r="Y11" s="11">
-        <v>468407</v>
+        <v>529010</v>
       </c>
       <c r="Z11" s="11">
-        <v>524854</v>
+        <v>526158</v>
       </c>
       <c r="AA11" s="11">
-        <v>529010</v>
+        <v>535181</v>
       </c>
       <c r="AB11" s="11">
-        <v>526158</v>
+        <v>453081</v>
       </c>
       <c r="AC11" s="11">
-        <v>535181</v>
+        <v>493368</v>
       </c>
       <c r="AD11" s="11">
-        <v>453081</v>
+        <v>355713</v>
       </c>
       <c r="AE11" s="11">
-        <v>493368</v>
+        <v>261605</v>
       </c>
       <c r="AF11" s="11">
-        <v>355713</v>
+        <v>505905</v>
       </c>
       <c r="AG11" s="11">
-        <v>261605</v>
+        <v>534781</v>
       </c>
       <c r="AH11" s="11">
-        <v>505905</v>
+        <v>527785</v>
       </c>
       <c r="AI11" s="11">
-        <v>534781</v>
+        <v>405444</v>
       </c>
       <c r="AJ11" s="11">
-        <v>527785</v>
+        <v>420236</v>
       </c>
       <c r="AK11" s="11">
-        <v>405444</v>
+        <v>367497</v>
       </c>
       <c r="AL11" s="11">
-        <v>420236</v>
+        <v>430395</v>
       </c>
       <c r="AM11" s="11">
-        <v>367497</v>
+        <v>513633</v>
       </c>
       <c r="AN11" s="11">
-        <v>430395</v>
+        <v>528153</v>
       </c>
       <c r="AO11" s="11">
-        <v>513633</v>
+        <v>469388</v>
       </c>
       <c r="AP11" s="11">
-        <v>528153</v>
+        <v>423442</v>
       </c>
       <c r="AQ11" s="11">
-        <v>469388</v>
+        <v>495064</v>
       </c>
       <c r="AR11" s="11">
-        <v>423442</v>
+        <v>422178</v>
       </c>
       <c r="AS11" s="11">
-        <v>495064</v>
+        <v>286562</v>
       </c>
       <c r="AT11" s="11">
-        <v>422178</v>
+        <v>457458</v>
       </c>
       <c r="AU11" s="11">
-        <v>286562</v>
+        <v>433810</v>
       </c>
       <c r="AV11" s="11">
-        <v>457458</v>
+        <v>568559</v>
       </c>
       <c r="AW11" s="11">
-        <v>433810</v>
+        <v>502675</v>
       </c>
       <c r="AX11" s="11">
-        <v>568559</v>
+        <v>522404</v>
       </c>
       <c r="AY11" s="11">
-        <v>502675</v>
+        <v>493162</v>
       </c>
       <c r="AZ11" s="11">
-        <v>522404</v>
+        <v>530291</v>
       </c>
       <c r="BA11" s="11">
-        <v>493162</v>
+        <v>345689</v>
       </c>
       <c r="BB11" s="11">
-        <v>530291</v>
+        <v>489912</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1630,21 +1630,21 @@
       <c r="S12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>57</v>
+      <c r="T12" s="13">
+        <v>128459</v>
+      </c>
+      <c r="U12" s="13">
+        <v>131166</v>
       </c>
       <c r="V12" s="13">
-        <v>128459</v>
-      </c>
-      <c r="W12" s="13">
-        <v>131166</v>
-      </c>
-      <c r="X12" s="13">
         <v>127607</v>
       </c>
+      <c r="W12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1699,44 +1699,44 @@
       <c r="AP12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ12" s="13" t="s">
-        <v>57</v>
+      <c r="AQ12" s="13">
+        <v>157204</v>
       </c>
       <c r="AR12" s="13">
-        <v>1593411</v>
+        <v>162356</v>
       </c>
       <c r="AS12" s="13">
-        <v>157204</v>
+        <v>158524</v>
       </c>
       <c r="AT12" s="13">
-        <v>162356</v>
+        <v>165783</v>
       </c>
       <c r="AU12" s="13">
-        <v>158524</v>
+        <v>121091</v>
       </c>
       <c r="AV12" s="13">
-        <v>165783</v>
+        <v>76607</v>
       </c>
       <c r="AW12" s="13">
-        <v>121091</v>
+        <v>78624</v>
       </c>
       <c r="AX12" s="13">
-        <v>76607</v>
+        <v>105781</v>
       </c>
       <c r="AY12" s="13">
-        <v>78624</v>
+        <v>102583</v>
       </c>
       <c r="AZ12" s="13">
-        <v>105781</v>
+        <v>81505</v>
       </c>
       <c r="BA12" s="13">
-        <v>102583</v>
+        <v>28520</v>
       </c>
       <c r="BB12" s="13">
-        <v>81505</v>
+        <v>118393</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1786,14 +1786,14 @@
       <c r="R13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="11" t="s">
-        <v>57</v>
+      <c r="S13" s="11">
+        <v>0</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U13" s="11">
-        <v>0</v>
+      <c r="U13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V13" s="11" t="s">
         <v>57</v>
@@ -1834,68 +1834,68 @@
       <c r="AH13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ13" s="11" t="s">
-        <v>57</v>
+      <c r="AI13" s="11">
+        <v>172127</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>156686</v>
       </c>
       <c r="AK13" s="11">
-        <v>172127</v>
+        <v>228863</v>
       </c>
       <c r="AL13" s="11">
-        <v>156686</v>
+        <v>315803</v>
       </c>
       <c r="AM13" s="11">
-        <v>228863</v>
+        <v>331127</v>
       </c>
       <c r="AN13" s="11">
-        <v>315803</v>
+        <v>326475</v>
       </c>
       <c r="AO13" s="11">
-        <v>331127</v>
+        <v>269811</v>
       </c>
       <c r="AP13" s="11">
-        <v>326475</v>
+        <v>232317</v>
       </c>
       <c r="AQ13" s="11">
-        <v>269811</v>
+        <v>315531</v>
       </c>
       <c r="AR13" s="11">
-        <v>232317</v>
+        <v>373392</v>
       </c>
       <c r="AS13" s="11">
-        <v>315531</v>
+        <v>354970</v>
       </c>
       <c r="AT13" s="11">
-        <v>373392</v>
+        <v>330358</v>
       </c>
       <c r="AU13" s="11">
-        <v>354970</v>
+        <v>213095</v>
       </c>
       <c r="AV13" s="11">
-        <v>330358</v>
+        <v>245969</v>
       </c>
       <c r="AW13" s="11">
-        <v>213095</v>
+        <v>318943</v>
       </c>
       <c r="AX13" s="11">
-        <v>245969</v>
+        <v>339118</v>
       </c>
       <c r="AY13" s="11">
-        <v>318943</v>
+        <v>344624</v>
       </c>
       <c r="AZ13" s="11">
-        <v>339118</v>
+        <v>271404</v>
       </c>
       <c r="BA13" s="11">
-        <v>344624</v>
+        <v>197454</v>
       </c>
       <c r="BB13" s="11">
-        <v>271404</v>
+        <v>284770</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1948,20 +1948,20 @@
       <c r="S14" s="13">
         <v>0</v>
       </c>
-      <c r="T14" s="13">
-        <v>0</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
+      <c r="T14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>57</v>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
       </c>
       <c r="Y14" s="13">
         <v>0</v>
@@ -2017,8 +2017,8 @@
       <c r="AP14" s="13">
         <v>0</v>
       </c>
-      <c r="AQ14" s="13">
-        <v>0</v>
+      <c r="AQ14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR14" s="13" t="s">
         <v>57</v>
@@ -2054,7 +2054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2063,121 +2063,121 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>101790</v>
+        <v>86266</v>
       </c>
       <c r="F15" s="11">
-        <v>93605</v>
+        <v>107235</v>
       </c>
       <c r="G15" s="11">
-        <v>86266</v>
+        <v>89557</v>
       </c>
       <c r="H15" s="11">
-        <v>107235</v>
+        <v>100273</v>
       </c>
       <c r="I15" s="11">
-        <v>89557</v>
+        <v>92200</v>
       </c>
       <c r="J15" s="11">
-        <v>100273</v>
+        <v>115733</v>
       </c>
       <c r="K15" s="11">
-        <v>92200</v>
+        <v>115328</v>
       </c>
       <c r="L15" s="11">
-        <v>115733</v>
+        <v>87729</v>
       </c>
       <c r="M15" s="11">
-        <v>115328</v>
+        <v>126036</v>
       </c>
       <c r="N15" s="11">
-        <v>87729</v>
+        <v>104854</v>
       </c>
       <c r="O15" s="11">
-        <v>126036</v>
+        <v>78507</v>
       </c>
       <c r="P15" s="11">
-        <v>104854</v>
+        <v>80767</v>
       </c>
       <c r="Q15" s="11">
-        <v>78507</v>
+        <v>100892</v>
       </c>
       <c r="R15" s="11">
-        <v>80767</v>
+        <v>83128</v>
       </c>
       <c r="S15" s="11">
-        <v>100892</v>
-      </c>
-      <c r="T15" s="11">
-        <v>83128</v>
-      </c>
-      <c r="U15" s="11">
         <v>106116</v>
       </c>
+      <c r="T15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>57</v>
+      <c r="W15" s="11">
+        <v>108370</v>
+      </c>
+      <c r="X15" s="11">
+        <v>104006</v>
       </c>
       <c r="Y15" s="11">
-        <v>108370</v>
+        <v>119061</v>
       </c>
       <c r="Z15" s="11">
-        <v>104006</v>
+        <v>143370</v>
       </c>
       <c r="AA15" s="11">
-        <v>119061</v>
+        <v>113940</v>
       </c>
       <c r="AB15" s="11">
-        <v>143370</v>
+        <v>120782</v>
       </c>
       <c r="AC15" s="11">
-        <v>113940</v>
+        <v>115821</v>
       </c>
       <c r="AD15" s="11">
-        <v>120782</v>
+        <v>113508</v>
       </c>
       <c r="AE15" s="11">
-        <v>115821</v>
+        <v>151160</v>
       </c>
       <c r="AF15" s="11">
-        <v>113508</v>
+        <v>147352</v>
       </c>
       <c r="AG15" s="11">
-        <v>151160</v>
+        <v>160975</v>
       </c>
       <c r="AH15" s="11">
-        <v>147352</v>
+        <v>161391</v>
       </c>
       <c r="AI15" s="11">
-        <v>160975</v>
+        <v>87763</v>
       </c>
       <c r="AJ15" s="11">
-        <v>161391</v>
+        <v>107494</v>
       </c>
       <c r="AK15" s="11">
-        <v>87763</v>
+        <v>135660</v>
       </c>
       <c r="AL15" s="11">
-        <v>107494</v>
+        <v>179213</v>
       </c>
       <c r="AM15" s="11">
-        <v>135660</v>
+        <v>172621</v>
       </c>
       <c r="AN15" s="11">
-        <v>179213</v>
+        <v>155418</v>
       </c>
       <c r="AO15" s="11">
-        <v>172621</v>
+        <v>161008</v>
       </c>
       <c r="AP15" s="11">
-        <v>155418</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>161008</v>
+        <v>124516</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR15" s="11" t="s">
         <v>57</v>
@@ -2213,7 +2213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2335,44 +2335,44 @@
       <c r="AP16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>149014</v>
-      </c>
-      <c r="AS16" s="13">
+      <c r="AQ16" s="13">
         <v>163728</v>
       </c>
-      <c r="AT16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU16" s="13" t="s">
-        <v>57</v>
+      <c r="AR16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>138868</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>77913</v>
       </c>
       <c r="AV16" s="13">
-        <v>138868</v>
+        <v>158592</v>
       </c>
       <c r="AW16" s="13">
-        <v>77913</v>
+        <v>244246</v>
       </c>
       <c r="AX16" s="13">
-        <v>158592</v>
+        <v>223132</v>
       </c>
       <c r="AY16" s="13">
-        <v>244246</v>
+        <v>219798</v>
       </c>
       <c r="AZ16" s="13">
-        <v>223132</v>
+        <v>230549</v>
       </c>
       <c r="BA16" s="13">
-        <v>219798</v>
+        <v>219564</v>
       </c>
       <c r="BB16" s="13">
-        <v>230549</v>
+        <v>199837</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2404,11 +2404,11 @@
       <c r="L17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>57</v>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
       </c>
       <c r="O17" s="11">
         <v>0</v>
@@ -2425,14 +2425,14 @@
       <c r="S17" s="11">
         <v>0</v>
       </c>
-      <c r="T17" s="11">
-        <v>0</v>
+      <c r="T17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U17" s="11">
         <v>0</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>57</v>
+      <c r="V17" s="11">
+        <v>0</v>
       </c>
       <c r="W17" s="11">
         <v>0</v>
@@ -2461,14 +2461,14 @@
       <c r="AE17" s="11">
         <v>0</v>
       </c>
-      <c r="AF17" s="11">
-        <v>0</v>
+      <c r="AF17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG17" s="11">
         <v>0</v>
       </c>
-      <c r="AH17" s="11" t="s">
-        <v>57</v>
+      <c r="AH17" s="11">
+        <v>0</v>
       </c>
       <c r="AI17" s="11">
         <v>0</v>
@@ -2497,11 +2497,11 @@
       <c r="AQ17" s="11">
         <v>0</v>
       </c>
-      <c r="AR17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="11">
-        <v>0</v>
+      <c r="AR17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT17" s="11" t="s">
         <v>57</v>
@@ -2531,7 +2531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2540,121 +2540,121 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>204136</v>
+        <v>241329</v>
       </c>
       <c r="F18" s="13">
-        <v>234946</v>
+        <v>231479</v>
       </c>
       <c r="G18" s="13">
-        <v>241329</v>
+        <v>226884</v>
       </c>
       <c r="H18" s="13">
-        <v>231479</v>
+        <v>225629</v>
       </c>
       <c r="I18" s="13">
-        <v>226884</v>
+        <v>227711</v>
       </c>
       <c r="J18" s="13">
-        <v>225629</v>
+        <v>218577</v>
       </c>
       <c r="K18" s="13">
-        <v>227711</v>
+        <v>207499</v>
       </c>
       <c r="L18" s="13">
-        <v>218577</v>
+        <v>217390</v>
       </c>
       <c r="M18" s="13">
-        <v>207499</v>
+        <v>166702</v>
       </c>
       <c r="N18" s="13">
-        <v>217390</v>
+        <v>192230</v>
       </c>
       <c r="O18" s="13">
-        <v>166702</v>
+        <v>228846</v>
       </c>
       <c r="P18" s="13">
-        <v>192230</v>
+        <v>229016</v>
       </c>
       <c r="Q18" s="13">
-        <v>228846</v>
+        <v>218766</v>
       </c>
       <c r="R18" s="13">
-        <v>229016</v>
+        <v>176649</v>
       </c>
       <c r="S18" s="13">
-        <v>218766</v>
-      </c>
-      <c r="T18" s="13">
-        <v>176649</v>
-      </c>
-      <c r="U18" s="13">
         <v>188811</v>
       </c>
+      <c r="T18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>57</v>
+      <c r="W18" s="13">
+        <v>219024</v>
+      </c>
+      <c r="X18" s="13">
+        <v>199764</v>
       </c>
       <c r="Y18" s="13">
-        <v>219024</v>
+        <v>202314</v>
       </c>
       <c r="Z18" s="13">
-        <v>199764</v>
+        <v>156270</v>
       </c>
       <c r="AA18" s="13">
-        <v>202314</v>
+        <v>200274</v>
       </c>
       <c r="AB18" s="13">
-        <v>156270</v>
+        <v>207824</v>
       </c>
       <c r="AC18" s="13">
-        <v>200274</v>
+        <v>175040</v>
       </c>
       <c r="AD18" s="13">
-        <v>207824</v>
+        <v>147085</v>
       </c>
       <c r="AE18" s="13">
-        <v>175040</v>
+        <v>161729</v>
       </c>
       <c r="AF18" s="13">
-        <v>147085</v>
+        <v>181654</v>
       </c>
       <c r="AG18" s="13">
-        <v>161729</v>
+        <v>145020</v>
       </c>
       <c r="AH18" s="13">
-        <v>181654</v>
+        <v>131140</v>
       </c>
       <c r="AI18" s="13">
-        <v>145020</v>
+        <v>58207</v>
       </c>
       <c r="AJ18" s="13">
-        <v>131140</v>
+        <v>37635</v>
       </c>
       <c r="AK18" s="13">
-        <v>58207</v>
+        <v>72668</v>
       </c>
       <c r="AL18" s="13">
-        <v>37635</v>
+        <v>138733</v>
       </c>
       <c r="AM18" s="13">
-        <v>72668</v>
+        <v>170203</v>
       </c>
       <c r="AN18" s="13">
-        <v>138733</v>
+        <v>176986</v>
       </c>
       <c r="AO18" s="13">
-        <v>170203</v>
+        <v>157115</v>
       </c>
       <c r="AP18" s="13">
-        <v>176986</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>157115</v>
+        <v>149014</v>
+      </c>
+      <c r="AQ18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR18" s="13" t="s">
         <v>57</v>
@@ -2690,7 +2690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2743,20 +2743,20 @@
       <c r="S19" s="11">
         <v>0</v>
       </c>
-      <c r="T19" s="11">
-        <v>0</v>
-      </c>
-      <c r="U19" s="11">
-        <v>0</v>
+      <c r="T19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>57</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
@@ -2812,8 +2812,8 @@
       <c r="AP19" s="11">
         <v>0</v>
       </c>
-      <c r="AQ19" s="11">
-        <v>0</v>
+      <c r="AQ19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR19" s="11" t="s">
         <v>57</v>
@@ -2849,7 +2849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2902,21 +2902,21 @@
       <c r="S20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>57</v>
+      <c r="T20" s="13">
+        <v>216899</v>
+      </c>
+      <c r="U20" s="13">
+        <v>217318</v>
       </c>
       <c r="V20" s="13">
-        <v>216899</v>
-      </c>
-      <c r="W20" s="13">
-        <v>217318</v>
-      </c>
-      <c r="X20" s="13">
         <v>202745</v>
       </c>
+      <c r="W20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y20" s="13" t="s">
         <v>57</v>
       </c>
@@ -2974,18 +2974,18 @@
       <c r="AQ20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT20" s="13">
+      <c r="AR20" s="13">
         <v>188789</v>
       </c>
-      <c r="AU20" s="13">
+      <c r="AS20" s="13">
         <v>173220</v>
       </c>
+      <c r="AT20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV20" s="13" t="s">
         <v>57</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3070,11 +3070,11 @@
       <c r="V21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>57</v>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+      <c r="X21" s="11">
+        <v>0</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -3097,29 +3097,29 @@
       <c r="AE21" s="11">
         <v>0</v>
       </c>
-      <c r="AF21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>0</v>
+      <c r="AF21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI21" s="11" t="s">
-        <v>57</v>
+      <c r="AI21" s="11">
+        <v>0</v>
       </c>
       <c r="AJ21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM21" s="11" t="s">
-        <v>57</v>
+      <c r="AK21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="11">
+        <v>0</v>
       </c>
       <c r="AN21" s="11">
         <v>0</v>
@@ -3130,8 +3130,8 @@
       <c r="AP21" s="11">
         <v>0</v>
       </c>
-      <c r="AQ21" s="11">
-        <v>0</v>
+      <c r="AQ21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR21" s="11" t="s">
         <v>57</v>
@@ -3167,7 +3167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>68</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="BA22" s="15"/>
       <c r="BB22" s="15"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3284,11 +3284,11 @@
       <c r="V23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X23" s="17" t="s">
-        <v>57</v>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>0</v>
       </c>
       <c r="Y23" s="17">
         <v>0</v>
@@ -3381,164 +3381,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
-        <v>672495</v>
+        <v>889543</v>
       </c>
       <c r="F24" s="19">
-        <v>896607</v>
+        <v>861572</v>
       </c>
       <c r="G24" s="19">
-        <v>889543</v>
+        <v>843570</v>
       </c>
       <c r="H24" s="19">
-        <v>861572</v>
+        <v>325902</v>
       </c>
       <c r="I24" s="19">
-        <v>843570</v>
+        <v>319911</v>
       </c>
       <c r="J24" s="19">
-        <v>325902</v>
+        <v>334310</v>
       </c>
       <c r="K24" s="19">
-        <v>319911</v>
+        <v>860539</v>
       </c>
       <c r="L24" s="19">
-        <v>334310</v>
+        <v>843858</v>
       </c>
       <c r="M24" s="19">
-        <v>860539</v>
+        <v>802546</v>
       </c>
       <c r="N24" s="19">
-        <v>843858</v>
+        <v>812230</v>
       </c>
       <c r="O24" s="19">
-        <v>802546</v>
+        <v>831283</v>
       </c>
       <c r="P24" s="19">
-        <v>812230</v>
+        <v>309783</v>
       </c>
       <c r="Q24" s="19">
-        <v>831283</v>
+        <v>564072</v>
       </c>
       <c r="R24" s="19">
-        <v>309783</v>
+        <v>712279</v>
       </c>
       <c r="S24" s="19">
-        <v>564072</v>
+        <v>739560</v>
       </c>
       <c r="T24" s="19">
-        <v>712279</v>
+        <v>882101</v>
       </c>
       <c r="U24" s="19">
-        <v>739560</v>
+        <v>896469</v>
       </c>
       <c r="V24" s="19">
-        <v>882101</v>
+        <v>859500</v>
       </c>
       <c r="W24" s="19">
-        <v>896469</v>
+        <v>795801</v>
       </c>
       <c r="X24" s="19">
-        <v>859500</v>
+        <v>828624</v>
       </c>
       <c r="Y24" s="19">
-        <v>795801</v>
+        <v>850385</v>
       </c>
       <c r="Z24" s="19">
-        <v>828624</v>
+        <v>825798</v>
       </c>
       <c r="AA24" s="19">
-        <v>850385</v>
+        <v>849395</v>
       </c>
       <c r="AB24" s="19">
-        <v>825798</v>
+        <v>781687</v>
       </c>
       <c r="AC24" s="19">
-        <v>849395</v>
+        <v>784229</v>
       </c>
       <c r="AD24" s="19">
-        <v>781687</v>
+        <v>616306</v>
       </c>
       <c r="AE24" s="19">
-        <v>784229</v>
+        <v>574494</v>
       </c>
       <c r="AF24" s="19">
-        <v>616306</v>
+        <v>834911</v>
       </c>
       <c r="AG24" s="19">
-        <v>574494</v>
+        <v>840776</v>
       </c>
       <c r="AH24" s="19">
-        <v>834911</v>
+        <v>820316</v>
       </c>
       <c r="AI24" s="19">
-        <v>840776</v>
+        <v>723541</v>
       </c>
       <c r="AJ24" s="19">
-        <v>820316</v>
+        <v>722051</v>
       </c>
       <c r="AK24" s="19">
-        <v>723541</v>
+        <v>804688</v>
       </c>
       <c r="AL24" s="19">
-        <v>722051</v>
+        <v>1064144</v>
       </c>
       <c r="AM24" s="19">
-        <v>804688</v>
+        <v>1187584</v>
       </c>
       <c r="AN24" s="19">
-        <v>1064144</v>
+        <v>1187032</v>
       </c>
       <c r="AO24" s="19">
-        <v>1187584</v>
+        <v>1057322</v>
       </c>
       <c r="AP24" s="19">
-        <v>1187032</v>
+        <v>929289</v>
       </c>
       <c r="AQ24" s="19">
-        <v>1057322</v>
+        <v>1131527</v>
       </c>
       <c r="AR24" s="19">
-        <v>2398184</v>
+        <v>1146715</v>
       </c>
       <c r="AS24" s="19">
-        <v>1131527</v>
+        <v>973276</v>
       </c>
       <c r="AT24" s="19">
-        <v>1146715</v>
+        <v>1092467</v>
       </c>
       <c r="AU24" s="19">
-        <v>973276</v>
+        <v>845909</v>
       </c>
       <c r="AV24" s="19">
-        <v>1092467</v>
+        <v>1049727</v>
       </c>
       <c r="AW24" s="19">
-        <v>845909</v>
+        <v>1144488</v>
       </c>
       <c r="AX24" s="19">
-        <v>1049727</v>
+        <v>1190435</v>
       </c>
       <c r="AY24" s="19">
-        <v>1144488</v>
+        <v>1160167</v>
       </c>
       <c r="AZ24" s="19">
-        <v>1190435</v>
+        <v>1113749</v>
       </c>
       <c r="BA24" s="19">
-        <v>1160167</v>
+        <v>791227</v>
       </c>
       <c r="BB24" s="19">
-        <v>1113749</v>
+        <v>1092912</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3593,7 +3593,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3648,7 +3648,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3703,7 +3703,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3915,7 +3915,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3981,91 +3981,91 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>70796</v>
+        <v>30601</v>
       </c>
       <c r="F31" s="11">
-        <v>28742</v>
+        <v>30741</v>
       </c>
       <c r="G31" s="11">
-        <v>30601</v>
-      </c>
-      <c r="H31" s="11">
-        <v>30741</v>
-      </c>
-      <c r="I31" s="11">
         <v>15927</v>
       </c>
+      <c r="H31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>57</v>
+      <c r="K31" s="11">
+        <v>31652</v>
+      </c>
+      <c r="L31" s="11">
+        <v>32060</v>
       </c>
       <c r="M31" s="11">
-        <v>31652</v>
+        <v>29486</v>
       </c>
       <c r="N31" s="11">
-        <v>32060</v>
+        <v>47856</v>
       </c>
       <c r="O31" s="11">
-        <v>29486</v>
+        <v>34387</v>
       </c>
       <c r="P31" s="11">
-        <v>47856</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="11">
-        <v>34387</v>
+        <v>33731</v>
       </c>
       <c r="R31" s="11">
-        <v>0</v>
+        <v>115352</v>
       </c>
       <c r="S31" s="11">
-        <v>33731</v>
+        <v>98630</v>
       </c>
       <c r="T31" s="11">
-        <v>115352</v>
+        <v>108341</v>
       </c>
       <c r="U31" s="11">
-        <v>98630</v>
+        <v>97677</v>
       </c>
       <c r="V31" s="11">
-        <v>108341</v>
+        <v>31522</v>
       </c>
       <c r="W31" s="11">
-        <v>97677</v>
+        <v>4840</v>
       </c>
       <c r="X31" s="11">
-        <v>31522</v>
+        <v>3507</v>
       </c>
       <c r="Y31" s="11">
-        <v>4840</v>
+        <v>8329</v>
       </c>
       <c r="Z31" s="11">
-        <v>3507</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="11">
-        <v>8329</v>
+        <v>10783</v>
       </c>
       <c r="AB31" s="11">
         <v>0</v>
       </c>
       <c r="AC31" s="11">
-        <v>10783</v>
+        <v>7336</v>
       </c>
       <c r="AD31" s="11">
-        <v>0</v>
+        <v>47037</v>
       </c>
       <c r="AE31" s="11">
-        <v>7336</v>
+        <v>1063</v>
       </c>
       <c r="AF31" s="11">
-        <v>47037</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="11">
-        <v>1063</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="11">
         <v>0</v>
@@ -4074,64 +4074,64 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="11">
-        <v>0</v>
+        <v>24903</v>
       </c>
       <c r="AK31" s="11">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="AL31" s="11">
-        <v>24903</v>
+        <v>16318</v>
       </c>
       <c r="AM31" s="11">
-        <v>218</v>
+        <v>30393</v>
       </c>
       <c r="AN31" s="11">
-        <v>16318</v>
+        <v>36127</v>
       </c>
       <c r="AO31" s="11">
-        <v>30393</v>
+        <v>45229</v>
       </c>
       <c r="AP31" s="11">
-        <v>36127</v>
+        <v>74156</v>
       </c>
       <c r="AQ31" s="11">
-        <v>45229</v>
+        <v>34683</v>
       </c>
       <c r="AR31" s="11">
-        <v>74156</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="11">
-        <v>34683</v>
+        <v>50007</v>
       </c>
       <c r="AT31" s="11">
         <v>0</v>
       </c>
       <c r="AU31" s="11">
-        <v>50007</v>
+        <v>20752</v>
       </c>
       <c r="AV31" s="11">
-        <v>0</v>
+        <v>44038</v>
       </c>
       <c r="AW31" s="11">
-        <v>20752</v>
+        <v>18165</v>
       </c>
       <c r="AX31" s="11">
-        <v>44038</v>
+        <v>35724</v>
       </c>
       <c r="AY31" s="11">
-        <v>18165</v>
+        <v>27038</v>
       </c>
       <c r="AZ31" s="11">
-        <v>35724</v>
+        <v>46456</v>
       </c>
       <c r="BA31" s="11">
-        <v>27038</v>
+        <v>54356</v>
       </c>
       <c r="BB31" s="11">
-        <v>46456</v>
+        <v>70927</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
@@ -4184,21 +4184,21 @@
       <c r="S32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>57</v>
+      <c r="T32" s="13">
+        <v>108439</v>
+      </c>
+      <c r="U32" s="13">
+        <v>101131</v>
       </c>
       <c r="V32" s="13">
-        <v>108439</v>
-      </c>
-      <c r="W32" s="13">
-        <v>101131</v>
-      </c>
-      <c r="X32" s="13">
         <v>99760</v>
       </c>
+      <c r="W32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y32" s="13" t="s">
         <v>57</v>
       </c>
@@ -4253,44 +4253,44 @@
       <c r="AP32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ32" s="13" t="s">
-        <v>57</v>
+      <c r="AQ32" s="13">
+        <v>317818</v>
       </c>
       <c r="AR32" s="13">
-        <v>608242</v>
+        <v>58322</v>
       </c>
       <c r="AS32" s="13">
-        <v>317818</v>
+        <v>87940</v>
       </c>
       <c r="AT32" s="13">
-        <v>58322</v>
+        <v>256695</v>
       </c>
       <c r="AU32" s="13">
-        <v>87940</v>
+        <v>88526</v>
       </c>
       <c r="AV32" s="13">
-        <v>256695</v>
+        <v>68109</v>
       </c>
       <c r="AW32" s="13">
-        <v>88526</v>
+        <v>113635</v>
       </c>
       <c r="AX32" s="13">
-        <v>68109</v>
+        <v>147475</v>
       </c>
       <c r="AY32" s="13">
-        <v>113635</v>
+        <v>92022</v>
       </c>
       <c r="AZ32" s="13">
-        <v>147475</v>
+        <v>76248</v>
       </c>
       <c r="BA32" s="13">
-        <v>92022</v>
+        <v>107064</v>
       </c>
       <c r="BB32" s="13">
-        <v>76248</v>
+        <v>104941</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -4340,14 +4340,14 @@
       <c r="R33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S33" s="11" t="s">
-        <v>57</v>
+      <c r="S33" s="11">
+        <v>12828</v>
       </c>
       <c r="T33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="11">
-        <v>12828</v>
+      <c r="U33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V33" s="11" t="s">
         <v>57</v>
@@ -4388,68 +4388,68 @@
       <c r="AH33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ33" s="11" t="s">
-        <v>57</v>
+      <c r="AI33" s="11">
+        <v>54</v>
+      </c>
+      <c r="AJ33" s="11">
+        <v>9032</v>
       </c>
       <c r="AK33" s="11">
-        <v>54</v>
+        <v>8191</v>
       </c>
       <c r="AL33" s="11">
-        <v>9032</v>
+        <v>7846</v>
       </c>
       <c r="AM33" s="11">
-        <v>8191</v>
+        <v>10267</v>
       </c>
       <c r="AN33" s="11">
-        <v>7846</v>
+        <v>7446</v>
       </c>
       <c r="AO33" s="11">
-        <v>10267</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="11">
-        <v>7446</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="11">
         <v>0</v>
       </c>
       <c r="AR33" s="11">
-        <v>40644</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="11">
         <v>0</v>
       </c>
       <c r="AT33" s="11">
-        <v>0</v>
+        <v>15709</v>
       </c>
       <c r="AU33" s="11">
-        <v>0</v>
+        <v>20884</v>
       </c>
       <c r="AV33" s="11">
-        <v>15709</v>
+        <v>11106</v>
       </c>
       <c r="AW33" s="11">
-        <v>20884</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="11">
-        <v>11106</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="11">
         <v>0</v>
       </c>
       <c r="AZ33" s="11">
-        <v>0</v>
+        <v>24977</v>
       </c>
       <c r="BA33" s="11">
         <v>0</v>
       </c>
       <c r="BB33" s="11">
-        <v>24977</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4458,121 +4458,121 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>23796</v>
+        <v>52566</v>
       </c>
       <c r="F34" s="13">
-        <v>0</v>
+        <v>29337</v>
       </c>
       <c r="G34" s="13">
-        <v>52566</v>
+        <v>30500</v>
       </c>
       <c r="H34" s="13">
-        <v>29337</v>
+        <v>84044</v>
       </c>
       <c r="I34" s="13">
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="J34" s="13">
-        <v>84044</v>
+        <v>56640</v>
       </c>
       <c r="K34" s="13">
         <v>0</v>
       </c>
       <c r="L34" s="13">
-        <v>56640</v>
+        <v>61125</v>
       </c>
       <c r="M34" s="13">
-        <v>0</v>
+        <v>41441</v>
       </c>
       <c r="N34" s="13">
-        <v>61125</v>
+        <v>0</v>
       </c>
       <c r="O34" s="13">
-        <v>41441</v>
+        <v>39624</v>
       </c>
       <c r="P34" s="13">
         <v>0</v>
       </c>
       <c r="Q34" s="13">
-        <v>39624</v>
+        <v>39978</v>
       </c>
       <c r="R34" s="13">
-        <v>0</v>
+        <v>38722</v>
       </c>
       <c r="S34" s="13">
-        <v>39978</v>
-      </c>
-      <c r="T34" s="13">
-        <v>38722</v>
-      </c>
-      <c r="U34" s="13">
         <v>39519</v>
       </c>
+      <c r="T34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>57</v>
+      <c r="W34" s="13">
+        <v>39779</v>
+      </c>
+      <c r="X34" s="13">
+        <v>88287</v>
       </c>
       <c r="Y34" s="13">
-        <v>39779</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="13">
-        <v>88287</v>
+        <v>69757</v>
       </c>
       <c r="AA34" s="13">
-        <v>0</v>
+        <v>40062</v>
       </c>
       <c r="AB34" s="13">
-        <v>69757</v>
+        <v>29678</v>
       </c>
       <c r="AC34" s="13">
-        <v>40062</v>
+        <v>29839</v>
       </c>
       <c r="AD34" s="13">
-        <v>29678</v>
+        <v>44822</v>
       </c>
       <c r="AE34" s="13">
-        <v>29839</v>
+        <v>60374</v>
       </c>
       <c r="AF34" s="13">
-        <v>44822</v>
+        <v>30989</v>
       </c>
       <c r="AG34" s="13">
-        <v>60374</v>
+        <v>142786</v>
       </c>
       <c r="AH34" s="13">
-        <v>30989</v>
+        <v>39773</v>
       </c>
       <c r="AI34" s="13">
-        <v>142786</v>
+        <v>137483</v>
       </c>
       <c r="AJ34" s="13">
-        <v>39773</v>
+        <v>112583</v>
       </c>
       <c r="AK34" s="13">
-        <v>137483</v>
+        <v>40347</v>
       </c>
       <c r="AL34" s="13">
-        <v>112583</v>
+        <v>66548</v>
       </c>
       <c r="AM34" s="13">
-        <v>40347</v>
+        <v>121959</v>
       </c>
       <c r="AN34" s="13">
-        <v>66548</v>
+        <v>41583</v>
       </c>
       <c r="AO34" s="13">
-        <v>121959</v>
+        <v>109774</v>
       </c>
       <c r="AP34" s="13">
-        <v>41583</v>
-      </c>
-      <c r="AQ34" s="13">
-        <v>109774</v>
+        <v>41463</v>
+      </c>
+      <c r="AQ34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR34" s="13" t="s">
         <v>57</v>
@@ -4608,7 +4608,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
@@ -4617,121 +4617,121 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>58014</v>
+        <v>78289</v>
       </c>
       <c r="F35" s="11">
-        <v>26895</v>
+        <v>120624</v>
       </c>
       <c r="G35" s="11">
-        <v>78289</v>
+        <v>58634</v>
       </c>
       <c r="H35" s="11">
-        <v>120624</v>
+        <v>28565</v>
       </c>
       <c r="I35" s="11">
-        <v>58634</v>
+        <v>78150</v>
       </c>
       <c r="J35" s="11">
-        <v>28565</v>
+        <v>71048</v>
       </c>
       <c r="K35" s="11">
-        <v>78150</v>
+        <v>83665</v>
       </c>
       <c r="L35" s="11">
-        <v>71048</v>
+        <v>62902</v>
       </c>
       <c r="M35" s="11">
-        <v>83665</v>
+        <v>70603</v>
       </c>
       <c r="N35" s="11">
-        <v>62902</v>
+        <v>63230</v>
       </c>
       <c r="O35" s="11">
-        <v>70603</v>
+        <v>65610</v>
       </c>
       <c r="P35" s="11">
-        <v>63230</v>
+        <v>55462</v>
       </c>
       <c r="Q35" s="11">
-        <v>65610</v>
+        <v>56824</v>
       </c>
       <c r="R35" s="11">
-        <v>55462</v>
+        <v>64901</v>
       </c>
       <c r="S35" s="11">
-        <v>56824</v>
-      </c>
-      <c r="T35" s="11">
-        <v>64901</v>
-      </c>
-      <c r="U35" s="11">
         <v>59820</v>
       </c>
+      <c r="T35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X35" s="11" t="s">
-        <v>57</v>
+      <c r="W35" s="11">
+        <v>79921</v>
+      </c>
+      <c r="X35" s="11">
+        <v>69098</v>
       </c>
       <c r="Y35" s="11">
-        <v>79921</v>
+        <v>75779</v>
       </c>
       <c r="Z35" s="11">
-        <v>69098</v>
+        <v>90506</v>
       </c>
       <c r="AA35" s="11">
-        <v>75779</v>
+        <v>72512</v>
       </c>
       <c r="AB35" s="11">
-        <v>90506</v>
+        <v>93483</v>
       </c>
       <c r="AC35" s="11">
-        <v>72512</v>
+        <v>66471</v>
       </c>
       <c r="AD35" s="11">
-        <v>93483</v>
+        <v>46580</v>
       </c>
       <c r="AE35" s="11">
-        <v>66471</v>
+        <v>82485</v>
       </c>
       <c r="AF35" s="11">
-        <v>46580</v>
+        <v>47954</v>
       </c>
       <c r="AG35" s="11">
-        <v>82485</v>
+        <v>32964</v>
       </c>
       <c r="AH35" s="11">
-        <v>47954</v>
+        <v>46050</v>
       </c>
       <c r="AI35" s="11">
-        <v>32964</v>
+        <v>19916</v>
       </c>
       <c r="AJ35" s="11">
-        <v>46050</v>
+        <v>30683</v>
       </c>
       <c r="AK35" s="11">
-        <v>19916</v>
+        <v>51773</v>
       </c>
       <c r="AL35" s="11">
-        <v>30683</v>
+        <v>57033</v>
       </c>
       <c r="AM35" s="11">
-        <v>51773</v>
+        <v>67190</v>
       </c>
       <c r="AN35" s="11">
-        <v>57033</v>
+        <v>60256</v>
       </c>
       <c r="AO35" s="11">
-        <v>67190</v>
+        <v>71222</v>
       </c>
       <c r="AP35" s="11">
-        <v>60256</v>
-      </c>
-      <c r="AQ35" s="11">
-        <v>71222</v>
+        <v>81738</v>
+      </c>
+      <c r="AQ35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR35" s="11" t="s">
         <v>57</v>
@@ -4767,7 +4767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4889,44 +4889,44 @@
       <c r="AP36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR36" s="13">
-        <v>777149</v>
-      </c>
-      <c r="AS36" s="13">
+      <c r="AQ36" s="13">
         <v>276042</v>
       </c>
-      <c r="AT36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU36" s="13" t="s">
-        <v>57</v>
+      <c r="AR36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT36" s="13">
+        <v>99197</v>
+      </c>
+      <c r="AU36" s="13">
+        <v>120092</v>
       </c>
       <c r="AV36" s="13">
-        <v>99197</v>
+        <v>106637</v>
       </c>
       <c r="AW36" s="13">
-        <v>76101</v>
+        <v>348173</v>
       </c>
       <c r="AX36" s="13">
-        <v>106637</v>
+        <v>172483</v>
       </c>
       <c r="AY36" s="13">
-        <v>348173</v>
+        <v>222271</v>
       </c>
       <c r="AZ36" s="13">
-        <v>172483</v>
+        <v>257477</v>
       </c>
       <c r="BA36" s="13">
-        <v>222271</v>
+        <v>159275</v>
       </c>
       <c r="BB36" s="13">
-        <v>257477</v>
+        <v>230114</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
@@ -4958,56 +4958,56 @@
       <c r="L37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>57</v>
+      <c r="M37" s="11">
+        <v>18248</v>
+      </c>
+      <c r="N37" s="11">
+        <v>0</v>
       </c>
       <c r="O37" s="11">
-        <v>18248</v>
+        <v>990</v>
       </c>
       <c r="P37" s="11">
-        <v>0</v>
+        <v>8030</v>
       </c>
       <c r="Q37" s="11">
-        <v>990</v>
+        <v>7331</v>
       </c>
       <c r="R37" s="11">
-        <v>8030</v>
+        <v>3117</v>
       </c>
       <c r="S37" s="11">
-        <v>7331</v>
-      </c>
-      <c r="T37" s="11">
-        <v>3117</v>
+        <v>2101</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U37" s="11">
-        <v>2101</v>
-      </c>
-      <c r="V37" s="11" t="s">
-        <v>57</v>
+        <v>678</v>
+      </c>
+      <c r="V37" s="11">
+        <v>282</v>
       </c>
       <c r="W37" s="11">
-        <v>678</v>
+        <v>2001</v>
       </c>
       <c r="X37" s="11">
-        <v>282</v>
+        <v>1965</v>
       </c>
       <c r="Y37" s="11">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="11">
-        <v>1965</v>
+        <v>961</v>
       </c>
       <c r="AA37" s="11">
-        <v>0</v>
+        <v>4396</v>
       </c>
       <c r="AB37" s="11">
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="11">
-        <v>4396</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="11">
         <v>0</v>
@@ -5015,14 +5015,14 @@
       <c r="AE37" s="11">
         <v>0</v>
       </c>
-      <c r="AF37" s="11">
-        <v>0</v>
+      <c r="AF37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG37" s="11">
         <v>0</v>
       </c>
-      <c r="AH37" s="11" t="s">
-        <v>57</v>
+      <c r="AH37" s="11">
+        <v>0</v>
       </c>
       <c r="AI37" s="11">
         <v>0</v>
@@ -5051,11 +5051,11 @@
       <c r="AQ37" s="11">
         <v>0</v>
       </c>
-      <c r="AR37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS37" s="11">
-        <v>0</v>
+      <c r="AR37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT37" s="11" t="s">
         <v>57</v>
@@ -5085,7 +5085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>64</v>
       </c>
@@ -5094,121 +5094,121 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>98535</v>
+        <v>59564</v>
       </c>
       <c r="F38" s="13">
-        <v>77079</v>
+        <v>112485</v>
       </c>
       <c r="G38" s="13">
-        <v>59564</v>
+        <v>134999</v>
       </c>
       <c r="H38" s="13">
-        <v>112485</v>
+        <v>52235</v>
       </c>
       <c r="I38" s="13">
-        <v>134999</v>
+        <v>123910</v>
       </c>
       <c r="J38" s="13">
-        <v>52235</v>
+        <v>91857</v>
       </c>
       <c r="K38" s="13">
-        <v>123910</v>
+        <v>89138</v>
       </c>
       <c r="L38" s="13">
-        <v>91857</v>
+        <v>109284</v>
       </c>
       <c r="M38" s="13">
-        <v>89138</v>
+        <v>111195</v>
       </c>
       <c r="N38" s="13">
-        <v>109284</v>
+        <v>77009</v>
       </c>
       <c r="O38" s="13">
-        <v>111195</v>
+        <v>106188</v>
       </c>
       <c r="P38" s="13">
-        <v>77009</v>
+        <v>120200</v>
       </c>
       <c r="Q38" s="13">
-        <v>106188</v>
+        <v>101696</v>
       </c>
       <c r="R38" s="13">
-        <v>120200</v>
+        <v>83311</v>
       </c>
       <c r="S38" s="13">
-        <v>101696</v>
-      </c>
-      <c r="T38" s="13">
-        <v>83311</v>
-      </c>
-      <c r="U38" s="13">
         <v>101831</v>
       </c>
+      <c r="T38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>57</v>
+      <c r="W38" s="13">
+        <v>101102</v>
+      </c>
+      <c r="X38" s="13">
+        <v>116345</v>
       </c>
       <c r="Y38" s="13">
-        <v>101102</v>
+        <v>93110</v>
       </c>
       <c r="Z38" s="13">
-        <v>116345</v>
+        <v>109943</v>
       </c>
       <c r="AA38" s="13">
-        <v>93110</v>
+        <v>99905</v>
       </c>
       <c r="AB38" s="13">
-        <v>109943</v>
+        <v>63318</v>
       </c>
       <c r="AC38" s="13">
-        <v>99905</v>
+        <v>78787</v>
       </c>
       <c r="AD38" s="13">
-        <v>63318</v>
+        <v>63593</v>
       </c>
       <c r="AE38" s="13">
-        <v>78787</v>
+        <v>77922</v>
       </c>
       <c r="AF38" s="13">
-        <v>63593</v>
+        <v>77499</v>
       </c>
       <c r="AG38" s="13">
-        <v>77922</v>
+        <v>79844</v>
       </c>
       <c r="AH38" s="13">
-        <v>77499</v>
+        <v>49469</v>
       </c>
       <c r="AI38" s="13">
-        <v>79844</v>
+        <v>34955</v>
       </c>
       <c r="AJ38" s="13">
-        <v>49469</v>
+        <v>39543</v>
       </c>
       <c r="AK38" s="13">
-        <v>34955</v>
+        <v>49736</v>
       </c>
       <c r="AL38" s="13">
-        <v>39543</v>
+        <v>69465</v>
       </c>
       <c r="AM38" s="13">
-        <v>49736</v>
+        <v>55348</v>
       </c>
       <c r="AN38" s="13">
-        <v>69465</v>
+        <v>76665</v>
       </c>
       <c r="AO38" s="13">
-        <v>55348</v>
+        <v>70177</v>
       </c>
       <c r="AP38" s="13">
-        <v>76665</v>
-      </c>
-      <c r="AQ38" s="13">
-        <v>70177</v>
+        <v>65453</v>
+      </c>
+      <c r="AQ38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR38" s="13" t="s">
         <v>57</v>
@@ -5244,7 +5244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>65</v>
       </c>
@@ -5253,121 +5253,121 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>160646</v>
+        <v>123405</v>
       </c>
       <c r="F39" s="11">
-        <v>138994</v>
+        <v>130050</v>
       </c>
       <c r="G39" s="11">
-        <v>123405</v>
+        <v>153024</v>
       </c>
       <c r="H39" s="11">
-        <v>130050</v>
+        <v>174416</v>
       </c>
       <c r="I39" s="11">
-        <v>153024</v>
+        <v>140279</v>
       </c>
       <c r="J39" s="11">
-        <v>174416</v>
+        <v>93928</v>
       </c>
       <c r="K39" s="11">
-        <v>140279</v>
+        <v>163465</v>
       </c>
       <c r="L39" s="11">
-        <v>93928</v>
+        <v>113647</v>
       </c>
       <c r="M39" s="11">
-        <v>163465</v>
+        <v>72394</v>
       </c>
       <c r="N39" s="11">
-        <v>113647</v>
+        <v>82297</v>
       </c>
       <c r="O39" s="11">
-        <v>72394</v>
+        <v>142858</v>
       </c>
       <c r="P39" s="11">
-        <v>82297</v>
+        <v>108128</v>
       </c>
       <c r="Q39" s="11">
-        <v>142858</v>
+        <v>135293</v>
       </c>
       <c r="R39" s="11">
-        <v>108128</v>
+        <v>90462</v>
       </c>
       <c r="S39" s="11">
-        <v>135293</v>
-      </c>
-      <c r="T39" s="11">
-        <v>90462</v>
-      </c>
-      <c r="U39" s="11">
         <v>119402</v>
       </c>
+      <c r="T39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>57</v>
+      <c r="W39" s="11">
+        <v>92369</v>
+      </c>
+      <c r="X39" s="11">
+        <v>114338</v>
       </c>
       <c r="Y39" s="11">
-        <v>92369</v>
+        <v>65052</v>
       </c>
       <c r="Z39" s="11">
-        <v>114338</v>
+        <v>135671</v>
       </c>
       <c r="AA39" s="11">
-        <v>65052</v>
+        <v>32350</v>
       </c>
       <c r="AB39" s="11">
-        <v>135671</v>
+        <v>122237</v>
       </c>
       <c r="AC39" s="11">
-        <v>32350</v>
+        <v>125725</v>
       </c>
       <c r="AD39" s="11">
-        <v>122237</v>
+        <v>59186</v>
       </c>
       <c r="AE39" s="11">
-        <v>125725</v>
+        <v>79780</v>
       </c>
       <c r="AF39" s="11">
-        <v>59186</v>
+        <v>118394</v>
       </c>
       <c r="AG39" s="11">
-        <v>79780</v>
+        <v>49017</v>
       </c>
       <c r="AH39" s="11">
-        <v>118394</v>
+        <v>142361</v>
       </c>
       <c r="AI39" s="11">
-        <v>49017</v>
+        <v>86358</v>
       </c>
       <c r="AJ39" s="11">
-        <v>142361</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="11">
-        <v>86358</v>
+        <v>3664</v>
       </c>
       <c r="AL39" s="11">
-        <v>0</v>
+        <v>4789</v>
       </c>
       <c r="AM39" s="11">
-        <v>3664</v>
+        <v>20153</v>
       </c>
       <c r="AN39" s="11">
-        <v>4789</v>
+        <v>173777</v>
       </c>
       <c r="AO39" s="11">
-        <v>20153</v>
+        <v>68177</v>
       </c>
       <c r="AP39" s="11">
-        <v>173777</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>68177</v>
+        <v>45006</v>
+      </c>
+      <c r="AQ39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR39" s="11" t="s">
         <v>57</v>
@@ -5403,7 +5403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>66</v>
       </c>
@@ -5456,21 +5456,21 @@
       <c r="S40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>57</v>
+      <c r="T40" s="13">
+        <v>222227</v>
+      </c>
+      <c r="U40" s="13">
+        <v>149192</v>
       </c>
       <c r="V40" s="13">
-        <v>222227</v>
-      </c>
-      <c r="W40" s="13">
-        <v>149192</v>
-      </c>
-      <c r="X40" s="13">
         <v>213867</v>
       </c>
+      <c r="W40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X40" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y40" s="13" t="s">
         <v>57</v>
       </c>
@@ -5528,18 +5528,18 @@
       <c r="AQ40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT40" s="13">
+      <c r="AR40" s="13">
         <v>125721</v>
       </c>
-      <c r="AU40" s="13">
+      <c r="AS40" s="13">
         <v>171437</v>
       </c>
+      <c r="AT40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU40" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV40" s="13" t="s">
         <v>57</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -5624,14 +5624,14 @@
       <c r="V41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>57</v>
+      <c r="W41" s="11">
+        <v>2138</v>
+      </c>
+      <c r="X41" s="11">
+        <v>0</v>
       </c>
       <c r="Y41" s="11">
-        <v>2138</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="11">
         <v>0</v>
@@ -5651,41 +5651,41 @@
       <c r="AE41" s="11">
         <v>0</v>
       </c>
-      <c r="AF41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="11">
-        <v>0</v>
+      <c r="AF41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI41" s="11" t="s">
-        <v>57</v>
+      <c r="AI41" s="11">
+        <v>0</v>
       </c>
       <c r="AJ41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM41" s="11" t="s">
-        <v>57</v>
+      <c r="AK41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>17649</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>0</v>
       </c>
       <c r="AN41" s="11">
-        <v>17649</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="11">
-        <v>0</v>
+        <v>23032</v>
       </c>
       <c r="AP41" s="11">
         <v>0</v>
       </c>
-      <c r="AQ41" s="11">
-        <v>23032</v>
+      <c r="AQ41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR41" s="11" t="s">
         <v>57</v>
@@ -5721,7 +5721,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>68</v>
       </c>
@@ -5778,7 +5778,7 @@
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>69</v>
       </c>
@@ -5838,11 +5838,11 @@
       <c r="V43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X43" s="17" t="s">
-        <v>57</v>
+      <c r="W43" s="17">
+        <v>0</v>
+      </c>
+      <c r="X43" s="17">
+        <v>0</v>
       </c>
       <c r="Y43" s="17">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>72</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="BA44" s="15"/>
       <c r="BB44" s="15"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>73</v>
       </c>
@@ -6052,11 +6052,11 @@
       <c r="V45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X45" s="17" t="s">
-        <v>57</v>
+      <c r="W45" s="17">
+        <v>0</v>
+      </c>
+      <c r="X45" s="17">
+        <v>0</v>
       </c>
       <c r="Y45" s="17">
         <v>0</v>
@@ -6149,164 +6149,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19">
-        <v>411787</v>
+        <v>344425</v>
       </c>
       <c r="F46" s="19">
-        <v>271710</v>
+        <v>423237</v>
       </c>
       <c r="G46" s="19">
-        <v>344425</v>
+        <v>393084</v>
       </c>
       <c r="H46" s="19">
-        <v>423237</v>
+        <v>339260</v>
       </c>
       <c r="I46" s="19">
-        <v>393084</v>
+        <v>342339</v>
       </c>
       <c r="J46" s="19">
-        <v>339260</v>
+        <v>313473</v>
       </c>
       <c r="K46" s="19">
-        <v>342339</v>
+        <v>367920</v>
       </c>
       <c r="L46" s="19">
-        <v>313473</v>
+        <v>379018</v>
       </c>
       <c r="M46" s="19">
-        <v>367920</v>
+        <v>343367</v>
       </c>
       <c r="N46" s="19">
-        <v>379018</v>
+        <v>270392</v>
       </c>
       <c r="O46" s="19">
-        <v>343367</v>
+        <v>389657</v>
       </c>
       <c r="P46" s="19">
-        <v>270392</v>
+        <v>291820</v>
       </c>
       <c r="Q46" s="19">
-        <v>389657</v>
+        <v>374853</v>
       </c>
       <c r="R46" s="19">
-        <v>291820</v>
+        <v>395865</v>
       </c>
       <c r="S46" s="19">
-        <v>374853</v>
+        <v>434131</v>
       </c>
       <c r="T46" s="19">
-        <v>395865</v>
+        <v>439007</v>
       </c>
       <c r="U46" s="19">
-        <v>434131</v>
+        <v>348678</v>
       </c>
       <c r="V46" s="19">
-        <v>439007</v>
+        <v>345431</v>
       </c>
       <c r="W46" s="19">
-        <v>348678</v>
+        <v>322150</v>
       </c>
       <c r="X46" s="19">
-        <v>345431</v>
+        <v>393540</v>
       </c>
       <c r="Y46" s="19">
-        <v>322150</v>
+        <v>242270</v>
       </c>
       <c r="Z46" s="19">
-        <v>393540</v>
+        <v>406838</v>
       </c>
       <c r="AA46" s="19">
-        <v>242270</v>
+        <v>260008</v>
       </c>
       <c r="AB46" s="19">
-        <v>406838</v>
+        <v>308716</v>
       </c>
       <c r="AC46" s="19">
-        <v>260008</v>
+        <v>308158</v>
       </c>
       <c r="AD46" s="19">
-        <v>308716</v>
+        <v>261218</v>
       </c>
       <c r="AE46" s="19">
-        <v>308158</v>
+        <v>301624</v>
       </c>
       <c r="AF46" s="19">
-        <v>261218</v>
+        <v>274836</v>
       </c>
       <c r="AG46" s="19">
-        <v>301624</v>
+        <v>304611</v>
       </c>
       <c r="AH46" s="19">
-        <v>274836</v>
+        <v>277653</v>
       </c>
       <c r="AI46" s="19">
-        <v>304611</v>
+        <v>278766</v>
       </c>
       <c r="AJ46" s="19">
-        <v>277653</v>
+        <v>216744</v>
       </c>
       <c r="AK46" s="19">
-        <v>278766</v>
+        <v>153929</v>
       </c>
       <c r="AL46" s="19">
-        <v>216744</v>
+        <v>239648</v>
       </c>
       <c r="AM46" s="19">
-        <v>153929</v>
+        <v>305310</v>
       </c>
       <c r="AN46" s="19">
-        <v>239648</v>
+        <v>395854</v>
       </c>
       <c r="AO46" s="19">
-        <v>305310</v>
+        <v>387611</v>
       </c>
       <c r="AP46" s="19">
-        <v>395854</v>
+        <v>307816</v>
       </c>
       <c r="AQ46" s="19">
-        <v>387611</v>
+        <v>628543</v>
       </c>
       <c r="AR46" s="19">
-        <v>1500191</v>
+        <v>184043</v>
       </c>
       <c r="AS46" s="19">
-        <v>628543</v>
+        <v>309384</v>
       </c>
       <c r="AT46" s="19">
-        <v>184043</v>
+        <v>371601</v>
       </c>
       <c r="AU46" s="19">
-        <v>309384</v>
+        <v>250254</v>
       </c>
       <c r="AV46" s="19">
-        <v>371601</v>
+        <v>229890</v>
       </c>
       <c r="AW46" s="19">
-        <v>206263</v>
+        <v>479973</v>
       </c>
       <c r="AX46" s="19">
-        <v>229890</v>
+        <v>355682</v>
       </c>
       <c r="AY46" s="19">
-        <v>479973</v>
+        <v>341331</v>
       </c>
       <c r="AZ46" s="19">
-        <v>355682</v>
+        <v>405158</v>
       </c>
       <c r="BA46" s="19">
-        <v>341331</v>
+        <v>320695</v>
       </c>
       <c r="BB46" s="19">
-        <v>405158</v>
+        <v>405982</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6361,7 +6361,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6416,7 +6416,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6471,7 +6471,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>74</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6683,7 +6683,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>74</v>
       </c>
@@ -6740,7 +6740,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
@@ -6749,91 +6749,91 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>538154</v>
+        <v>225227</v>
       </c>
       <c r="F53" s="11">
-        <v>225447</v>
+        <v>211375</v>
       </c>
       <c r="G53" s="11">
-        <v>225227</v>
-      </c>
-      <c r="H53" s="11">
-        <v>211375</v>
-      </c>
-      <c r="I53" s="11">
         <v>190538</v>
       </c>
+      <c r="H53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>57</v>
+      <c r="K53" s="11">
+        <v>285248</v>
+      </c>
+      <c r="L53" s="11">
+        <v>305885</v>
       </c>
       <c r="M53" s="11">
-        <v>285248</v>
+        <v>265901</v>
       </c>
       <c r="N53" s="11">
-        <v>305885</v>
+        <v>432764</v>
       </c>
       <c r="O53" s="11">
-        <v>265901</v>
+        <v>303602</v>
       </c>
       <c r="P53" s="11">
-        <v>432764</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="11">
-        <v>303602</v>
+        <v>319261</v>
       </c>
       <c r="R53" s="11">
-        <v>0</v>
+        <v>1173601</v>
       </c>
       <c r="S53" s="11">
-        <v>319261</v>
+        <v>1137817</v>
       </c>
       <c r="T53" s="11">
-        <v>1173601</v>
+        <v>1245565</v>
       </c>
       <c r="U53" s="11">
-        <v>1137817</v>
+        <v>1093040</v>
       </c>
       <c r="V53" s="11">
-        <v>1245565</v>
+        <v>407546</v>
       </c>
       <c r="W53" s="11">
-        <v>1093040</v>
+        <v>67777</v>
       </c>
       <c r="X53" s="11">
-        <v>407546</v>
+        <v>56854</v>
       </c>
       <c r="Y53" s="11">
-        <v>67777</v>
+        <v>150435</v>
       </c>
       <c r="Z53" s="11">
-        <v>56854</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="11">
-        <v>150435</v>
+        <v>261174</v>
       </c>
       <c r="AB53" s="11">
         <v>0</v>
       </c>
       <c r="AC53" s="11">
-        <v>261174</v>
+        <v>191476</v>
       </c>
       <c r="AD53" s="11">
-        <v>0</v>
+        <v>1150213</v>
       </c>
       <c r="AE53" s="11">
-        <v>191476</v>
+        <v>27752</v>
       </c>
       <c r="AF53" s="11">
-        <v>1150213</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="11">
-        <v>27752</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="11">
         <v>0</v>
@@ -6842,64 +6842,64 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="11">
-        <v>0</v>
+        <v>895116</v>
       </c>
       <c r="AK53" s="11">
-        <v>0</v>
+        <v>7856</v>
       </c>
       <c r="AL53" s="11">
-        <v>895116</v>
+        <v>569957</v>
       </c>
       <c r="AM53" s="11">
-        <v>7856</v>
+        <v>1096016</v>
       </c>
       <c r="AN53" s="11">
-        <v>569957</v>
+        <v>1257921</v>
       </c>
       <c r="AO53" s="11">
-        <v>1096016</v>
+        <v>1568235</v>
       </c>
       <c r="AP53" s="11">
-        <v>1257921</v>
+        <v>2766542</v>
       </c>
       <c r="AQ53" s="11">
-        <v>1568235</v>
+        <v>1468731</v>
       </c>
       <c r="AR53" s="11">
-        <v>2766542</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="11">
-        <v>1468731</v>
+        <v>1817350</v>
       </c>
       <c r="AT53" s="11">
         <v>0</v>
       </c>
       <c r="AU53" s="11">
-        <v>1817350</v>
+        <v>695838</v>
       </c>
       <c r="AV53" s="11">
-        <v>0</v>
+        <v>1137049</v>
       </c>
       <c r="AW53" s="11">
-        <v>695838</v>
+        <v>487915</v>
       </c>
       <c r="AX53" s="11">
-        <v>1137049</v>
+        <v>1001422</v>
       </c>
       <c r="AY53" s="11">
-        <v>487915</v>
+        <v>788880</v>
       </c>
       <c r="AZ53" s="11">
-        <v>1001422</v>
+        <v>1389211</v>
       </c>
       <c r="BA53" s="11">
-        <v>788880</v>
+        <v>1949853</v>
       </c>
       <c r="BB53" s="11">
-        <v>1389211</v>
+        <v>2706146</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>58</v>
       </c>
@@ -6952,21 +6952,21 @@
       <c r="S54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U54" s="13" t="s">
-        <v>57</v>
+      <c r="T54" s="13">
+        <v>5527388</v>
+      </c>
+      <c r="U54" s="13">
+        <v>5076714</v>
       </c>
       <c r="V54" s="13">
-        <v>5527388</v>
-      </c>
-      <c r="W54" s="13">
-        <v>5076714</v>
-      </c>
-      <c r="X54" s="13">
         <v>5402383</v>
       </c>
+      <c r="W54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X54" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y54" s="13" t="s">
         <v>57</v>
       </c>
@@ -7021,44 +7021,44 @@
       <c r="AP54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ54" s="13" t="s">
-        <v>57</v>
+      <c r="AQ54" s="13">
+        <v>45705838</v>
       </c>
       <c r="AR54" s="13">
-        <v>95042144</v>
+        <v>9079409</v>
       </c>
       <c r="AS54" s="13">
-        <v>45705838</v>
+        <v>12807484</v>
       </c>
       <c r="AT54" s="13">
-        <v>9079409</v>
+        <v>43489028</v>
       </c>
       <c r="AU54" s="13">
-        <v>12807484</v>
+        <v>13335009</v>
       </c>
       <c r="AV54" s="13">
-        <v>43489028</v>
+        <v>9655515</v>
       </c>
       <c r="AW54" s="13">
-        <v>13335009</v>
+        <v>13769223</v>
       </c>
       <c r="AX54" s="13">
-        <v>9655515</v>
+        <v>17367196</v>
       </c>
       <c r="AY54" s="13">
-        <v>13769223</v>
+        <v>11562359</v>
       </c>
       <c r="AZ54" s="13">
-        <v>17367196</v>
+        <v>9840418</v>
       </c>
       <c r="BA54" s="13">
-        <v>11562359</v>
+        <v>12320929</v>
       </c>
       <c r="BB54" s="13">
-        <v>9840418</v>
+        <v>13945433</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
@@ -7108,14 +7108,14 @@
       <c r="R55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S55" s="11" t="s">
-        <v>57</v>
+      <c r="S55" s="11">
+        <v>269309</v>
       </c>
       <c r="T55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U55" s="11">
-        <v>269309</v>
+      <c r="U55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V55" s="11" t="s">
         <v>57</v>
@@ -7156,68 +7156,68 @@
       <c r="AH55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ55" s="11" t="s">
-        <v>57</v>
+      <c r="AI55" s="11">
+        <v>4449</v>
+      </c>
+      <c r="AJ55" s="11">
+        <v>753174</v>
       </c>
       <c r="AK55" s="11">
-        <v>4449</v>
+        <v>669679</v>
       </c>
       <c r="AL55" s="11">
-        <v>753174</v>
+        <v>658525</v>
       </c>
       <c r="AM55" s="11">
-        <v>669679</v>
+        <v>877656</v>
       </c>
       <c r="AN55" s="11">
-        <v>658525</v>
+        <v>625730</v>
       </c>
       <c r="AO55" s="11">
-        <v>877656</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="11">
-        <v>625730</v>
+        <v>0</v>
       </c>
       <c r="AQ55" s="11">
         <v>0</v>
       </c>
       <c r="AR55" s="11">
-        <v>3286424</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="11">
         <v>0</v>
       </c>
       <c r="AT55" s="11">
-        <v>0</v>
+        <v>1499746</v>
       </c>
       <c r="AU55" s="11">
-        <v>0</v>
+        <v>1796654</v>
       </c>
       <c r="AV55" s="11">
-        <v>1499746</v>
+        <v>896077</v>
       </c>
       <c r="AW55" s="11">
-        <v>1796654</v>
+        <v>0</v>
       </c>
       <c r="AX55" s="11">
-        <v>896077</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="11">
         <v>0</v>
       </c>
       <c r="AZ55" s="11">
-        <v>0</v>
+        <v>1987631</v>
       </c>
       <c r="BA55" s="11">
         <v>0</v>
       </c>
       <c r="BB55" s="11">
-        <v>1987631</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>60</v>
       </c>
@@ -7226,121 +7226,121 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>893636</v>
+        <v>1913914</v>
       </c>
       <c r="F56" s="13">
-        <v>0</v>
+        <v>971452</v>
       </c>
       <c r="G56" s="13">
-        <v>1913914</v>
+        <v>971883</v>
       </c>
       <c r="H56" s="13">
-        <v>971452</v>
+        <v>2521643</v>
       </c>
       <c r="I56" s="13">
-        <v>971883</v>
+        <v>0</v>
       </c>
       <c r="J56" s="13">
-        <v>2521643</v>
+        <v>2486073</v>
       </c>
       <c r="K56" s="13">
         <v>0</v>
       </c>
       <c r="L56" s="13">
-        <v>2486073</v>
+        <v>2635410</v>
       </c>
       <c r="M56" s="13">
-        <v>0</v>
+        <v>1736032</v>
       </c>
       <c r="N56" s="13">
-        <v>2635410</v>
+        <v>0</v>
       </c>
       <c r="O56" s="13">
-        <v>1736032</v>
+        <v>1533692</v>
       </c>
       <c r="P56" s="13">
         <v>0</v>
       </c>
       <c r="Q56" s="13">
-        <v>1533692</v>
+        <v>1555489</v>
       </c>
       <c r="R56" s="13">
-        <v>0</v>
+        <v>1624221</v>
       </c>
       <c r="S56" s="13">
-        <v>1555489</v>
-      </c>
-      <c r="T56" s="13">
-        <v>1624221</v>
-      </c>
-      <c r="U56" s="13">
         <v>2024865</v>
       </c>
+      <c r="T56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X56" s="13" t="s">
-        <v>57</v>
+      <c r="W56" s="13">
+        <v>2163418</v>
+      </c>
+      <c r="X56" s="13">
+        <v>5555592</v>
       </c>
       <c r="Y56" s="13">
-        <v>2163418</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="13">
-        <v>5555592</v>
+        <v>6262874</v>
       </c>
       <c r="AA56" s="13">
-        <v>0</v>
+        <v>4280294</v>
       </c>
       <c r="AB56" s="13">
-        <v>6262874</v>
+        <v>3349772</v>
       </c>
       <c r="AC56" s="13">
-        <v>4280294</v>
+        <v>3289109</v>
       </c>
       <c r="AD56" s="13">
-        <v>3349772</v>
+        <v>5287110</v>
       </c>
       <c r="AE56" s="13">
-        <v>3289109</v>
+        <v>8807821</v>
       </c>
       <c r="AF56" s="13">
-        <v>5287110</v>
+        <v>4050583</v>
       </c>
       <c r="AG56" s="13">
-        <v>8807821</v>
+        <v>18584987</v>
       </c>
       <c r="AH56" s="13">
-        <v>4050583</v>
+        <v>5205767</v>
       </c>
       <c r="AI56" s="13">
-        <v>18584987</v>
+        <v>20821224</v>
       </c>
       <c r="AJ56" s="13">
-        <v>5205767</v>
+        <v>17448502</v>
       </c>
       <c r="AK56" s="13">
-        <v>20821224</v>
+        <v>6864990</v>
       </c>
       <c r="AL56" s="13">
-        <v>17448502</v>
+        <v>10445836</v>
       </c>
       <c r="AM56" s="13">
-        <v>6864990</v>
+        <v>19834038</v>
       </c>
       <c r="AN56" s="13">
-        <v>10445836</v>
+        <v>6599389</v>
       </c>
       <c r="AO56" s="13">
-        <v>19834038</v>
+        <v>17711649</v>
       </c>
       <c r="AP56" s="13">
-        <v>6599389</v>
-      </c>
-      <c r="AQ56" s="13">
-        <v>17711649</v>
+        <v>6561845</v>
+      </c>
+      <c r="AQ56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR56" s="13" t="s">
         <v>57</v>
@@ -7376,7 +7376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>61</v>
       </c>
@@ -7385,121 +7385,121 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>2047294</v>
+        <v>2439166</v>
       </c>
       <c r="F57" s="11">
-        <v>916786</v>
+        <v>3611258</v>
       </c>
       <c r="G57" s="11">
-        <v>2439166</v>
+        <v>1892037</v>
       </c>
       <c r="H57" s="11">
-        <v>3611258</v>
+        <v>1072376</v>
       </c>
       <c r="I57" s="11">
-        <v>1892037</v>
+        <v>3004476</v>
       </c>
       <c r="J57" s="11">
-        <v>1072376</v>
+        <v>2828896</v>
       </c>
       <c r="K57" s="11">
-        <v>3004476</v>
+        <v>3306580</v>
       </c>
       <c r="L57" s="11">
-        <v>2828896</v>
+        <v>2478192</v>
       </c>
       <c r="M57" s="11">
-        <v>3306580</v>
+        <v>2731944</v>
       </c>
       <c r="N57" s="11">
-        <v>2478192</v>
+        <v>2440857</v>
       </c>
       <c r="O57" s="11">
-        <v>2731944</v>
+        <v>2518563</v>
       </c>
       <c r="P57" s="11">
-        <v>2440857</v>
+        <v>2103142</v>
       </c>
       <c r="Q57" s="11">
-        <v>2518563</v>
+        <v>2265667</v>
       </c>
       <c r="R57" s="11">
-        <v>2103142</v>
+        <v>2730389</v>
       </c>
       <c r="S57" s="11">
-        <v>2265667</v>
-      </c>
-      <c r="T57" s="11">
-        <v>2730389</v>
-      </c>
-      <c r="U57" s="11">
         <v>2837793</v>
       </c>
+      <c r="T57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U57" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X57" s="11" t="s">
-        <v>57</v>
+      <c r="W57" s="11">
+        <v>4820961</v>
+      </c>
+      <c r="X57" s="11">
+        <v>4872331</v>
       </c>
       <c r="Y57" s="11">
-        <v>4820961</v>
+        <v>5635016</v>
       </c>
       <c r="Z57" s="11">
-        <v>4872331</v>
+        <v>8808188</v>
       </c>
       <c r="AA57" s="11">
-        <v>5635016</v>
+        <v>7410055</v>
       </c>
       <c r="AB57" s="11">
-        <v>8808188</v>
+        <v>9597688</v>
       </c>
       <c r="AC57" s="11">
-        <v>7410055</v>
+        <v>7182793</v>
       </c>
       <c r="AD57" s="11">
-        <v>9597688</v>
+        <v>5895455</v>
       </c>
       <c r="AE57" s="11">
-        <v>7182793</v>
+        <v>10362984</v>
       </c>
       <c r="AF57" s="11">
-        <v>5895455</v>
+        <v>6660271</v>
       </c>
       <c r="AG57" s="11">
-        <v>10362984</v>
+        <v>5483906</v>
       </c>
       <c r="AH57" s="11">
-        <v>6660271</v>
+        <v>7771653</v>
       </c>
       <c r="AI57" s="11">
-        <v>5483906</v>
+        <v>3383187</v>
       </c>
       <c r="AJ57" s="11">
-        <v>7771653</v>
+        <v>5157712</v>
       </c>
       <c r="AK57" s="11">
-        <v>3383187</v>
+        <v>8537712</v>
       </c>
       <c r="AL57" s="11">
-        <v>5157712</v>
+        <v>9278929</v>
       </c>
       <c r="AM57" s="11">
-        <v>8537712</v>
+        <v>10294057</v>
       </c>
       <c r="AN57" s="11">
-        <v>9278929</v>
+        <v>9248682</v>
       </c>
       <c r="AO57" s="11">
-        <v>10294057</v>
+        <v>10695500</v>
       </c>
       <c r="AP57" s="11">
-        <v>9248682</v>
-      </c>
-      <c r="AQ57" s="11">
-        <v>10695500</v>
+        <v>11968690</v>
+      </c>
+      <c r="AQ57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>57</v>
@@ -7535,7 +7535,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>62</v>
       </c>
@@ -7657,44 +7657,44 @@
       <c r="AP58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR58" s="13">
-        <v>102938027</v>
-      </c>
-      <c r="AS58" s="13">
+      <c r="AQ58" s="13">
         <v>37558239</v>
       </c>
-      <c r="AT58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU58" s="13" t="s">
-        <v>57</v>
+      <c r="AR58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT58" s="13">
+        <v>15406812</v>
+      </c>
+      <c r="AU58" s="13">
+        <v>18982007</v>
       </c>
       <c r="AV58" s="13">
-        <v>15406812</v>
+        <v>14774282</v>
       </c>
       <c r="AW58" s="13">
-        <v>11233491</v>
+        <v>42433045</v>
       </c>
       <c r="AX58" s="13">
-        <v>14774282</v>
+        <v>21645865</v>
       </c>
       <c r="AY58" s="13">
-        <v>42433045</v>
+        <v>29059110</v>
       </c>
       <c r="AZ58" s="13">
-        <v>21645865</v>
+        <v>34368852</v>
       </c>
       <c r="BA58" s="13">
-        <v>29059110</v>
+        <v>23054075</v>
       </c>
       <c r="BB58" s="13">
-        <v>34368852</v>
+        <v>33291450</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>63</v>
       </c>
@@ -7726,56 +7726,56 @@
       <c r="L59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M59" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N59" s="11" t="s">
-        <v>57</v>
+      <c r="M59" s="11">
+        <v>1040118</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
       </c>
       <c r="O59" s="11">
-        <v>1040118</v>
+        <v>54434</v>
       </c>
       <c r="P59" s="11">
-        <v>0</v>
+        <v>427721</v>
       </c>
       <c r="Q59" s="11">
-        <v>54434</v>
+        <v>398336</v>
       </c>
       <c r="R59" s="11">
-        <v>427721</v>
+        <v>150288</v>
       </c>
       <c r="S59" s="11">
-        <v>398336</v>
-      </c>
-      <c r="T59" s="11">
-        <v>150288</v>
+        <v>128350</v>
+      </c>
+      <c r="T59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U59" s="11">
-        <v>128350</v>
-      </c>
-      <c r="V59" s="11" t="s">
-        <v>57</v>
+        <v>41959</v>
+      </c>
+      <c r="V59" s="11">
+        <v>16497</v>
       </c>
       <c r="W59" s="11">
-        <v>41959</v>
+        <v>160555</v>
       </c>
       <c r="X59" s="11">
-        <v>16497</v>
+        <v>126846</v>
       </c>
       <c r="Y59" s="11">
-        <v>160555</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="11">
-        <v>126846</v>
+        <v>73500</v>
       </c>
       <c r="AA59" s="11">
-        <v>0</v>
+        <v>326751</v>
       </c>
       <c r="AB59" s="11">
-        <v>73500</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="11">
-        <v>326751</v>
+        <v>0</v>
       </c>
       <c r="AD59" s="11">
         <v>0</v>
@@ -7783,14 +7783,14 @@
       <c r="AE59" s="11">
         <v>0</v>
       </c>
-      <c r="AF59" s="11">
-        <v>0</v>
+      <c r="AF59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG59" s="11">
         <v>0</v>
       </c>
-      <c r="AH59" s="11" t="s">
-        <v>57</v>
+      <c r="AH59" s="11">
+        <v>0</v>
       </c>
       <c r="AI59" s="11">
         <v>0</v>
@@ -7819,11 +7819,11 @@
       <c r="AQ59" s="11">
         <v>0</v>
       </c>
-      <c r="AR59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS59" s="11">
-        <v>0</v>
+      <c r="AR59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT59" s="11" t="s">
         <v>57</v>
@@ -7853,7 +7853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>64</v>
       </c>
@@ -7862,121 +7862,121 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>3020027</v>
+        <v>1718663</v>
       </c>
       <c r="F60" s="13">
-        <v>2490922</v>
+        <v>3359345</v>
       </c>
       <c r="G60" s="13">
-        <v>1718663</v>
+        <v>4736462</v>
       </c>
       <c r="H60" s="13">
-        <v>3359345</v>
+        <v>1982944</v>
       </c>
       <c r="I60" s="13">
-        <v>4736462</v>
+        <v>4979736</v>
       </c>
       <c r="J60" s="13">
-        <v>1982944</v>
+        <v>3785483</v>
       </c>
       <c r="K60" s="13">
-        <v>4979736</v>
+        <v>3362624</v>
       </c>
       <c r="L60" s="13">
-        <v>3785483</v>
+        <v>3887304</v>
       </c>
       <c r="M60" s="13">
-        <v>3362624</v>
+        <v>3826366</v>
       </c>
       <c r="N60" s="13">
-        <v>3887304</v>
+        <v>2667760</v>
       </c>
       <c r="O60" s="13">
-        <v>3826366</v>
+        <v>3694684</v>
       </c>
       <c r="P60" s="13">
-        <v>2667760</v>
+        <v>4329693</v>
       </c>
       <c r="Q60" s="13">
-        <v>3694684</v>
+        <v>4045546</v>
       </c>
       <c r="R60" s="13">
-        <v>4329693</v>
+        <v>3638320</v>
       </c>
       <c r="S60" s="13">
-        <v>4045546</v>
-      </c>
-      <c r="T60" s="13">
-        <v>3638320</v>
-      </c>
-      <c r="U60" s="13">
         <v>4868032</v>
       </c>
+      <c r="T60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U60" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X60" s="13" t="s">
-        <v>57</v>
+      <c r="W60" s="13">
+        <v>6376364</v>
+      </c>
+      <c r="X60" s="13">
+        <v>8522548</v>
       </c>
       <c r="Y60" s="13">
-        <v>6376364</v>
+        <v>7500645</v>
       </c>
       <c r="Z60" s="13">
-        <v>8522548</v>
+        <v>10341937</v>
       </c>
       <c r="AA60" s="13">
-        <v>7500645</v>
+        <v>10097494</v>
       </c>
       <c r="AB60" s="13">
-        <v>10341937</v>
+        <v>6191783</v>
       </c>
       <c r="AC60" s="13">
-        <v>10097494</v>
+        <v>8870698</v>
       </c>
       <c r="AD60" s="13">
-        <v>6191783</v>
+        <v>6876913</v>
       </c>
       <c r="AE60" s="13">
-        <v>8870698</v>
+        <v>8189548</v>
       </c>
       <c r="AF60" s="13">
-        <v>6876913</v>
+        <v>8400535</v>
       </c>
       <c r="AG60" s="13">
-        <v>8189548</v>
+        <v>9420599</v>
       </c>
       <c r="AH60" s="13">
-        <v>8400535</v>
+        <v>6098124</v>
       </c>
       <c r="AI60" s="13">
-        <v>9420599</v>
+        <v>4582347</v>
       </c>
       <c r="AJ60" s="13">
-        <v>6098124</v>
+        <v>5347647</v>
       </c>
       <c r="AK60" s="13">
-        <v>4582347</v>
+        <v>7004081</v>
       </c>
       <c r="AL60" s="13">
-        <v>5347647</v>
+        <v>9067174</v>
       </c>
       <c r="AM60" s="13">
-        <v>7004081</v>
+        <v>7522348</v>
       </c>
       <c r="AN60" s="13">
-        <v>9067174</v>
+        <v>10349132</v>
       </c>
       <c r="AO60" s="13">
-        <v>7522348</v>
+        <v>9056855</v>
       </c>
       <c r="AP60" s="13">
-        <v>10349132</v>
-      </c>
-      <c r="AQ60" s="13">
-        <v>9056855</v>
+        <v>8331251</v>
+      </c>
+      <c r="AQ60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR60" s="13" t="s">
         <v>57</v>
@@ -8012,7 +8012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>65</v>
       </c>
@@ -8021,121 +8021,121 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>6619373</v>
+        <v>4671352</v>
       </c>
       <c r="F61" s="11">
-        <v>5481034</v>
+        <v>4609786</v>
       </c>
       <c r="G61" s="11">
-        <v>4671352</v>
+        <v>4962326</v>
       </c>
       <c r="H61" s="11">
-        <v>4609786</v>
+        <v>5772685</v>
       </c>
       <c r="I61" s="11">
-        <v>4962326</v>
+        <v>5357854</v>
       </c>
       <c r="J61" s="11">
-        <v>5772685</v>
+        <v>4255181</v>
       </c>
       <c r="K61" s="11">
-        <v>5357854</v>
+        <v>7425333</v>
       </c>
       <c r="L61" s="11">
-        <v>4255181</v>
+        <v>5084834</v>
       </c>
       <c r="M61" s="11">
-        <v>7425333</v>
+        <v>3050987</v>
       </c>
       <c r="N61" s="11">
-        <v>5084834</v>
+        <v>3455171</v>
       </c>
       <c r="O61" s="11">
-        <v>3050987</v>
+        <v>5562985</v>
       </c>
       <c r="P61" s="11">
-        <v>3455171</v>
+        <v>4283505</v>
       </c>
       <c r="Q61" s="11">
-        <v>5562985</v>
+        <v>5577646</v>
       </c>
       <c r="R61" s="11">
-        <v>4283505</v>
+        <v>4016299</v>
       </c>
       <c r="S61" s="11">
-        <v>5577646</v>
-      </c>
-      <c r="T61" s="11">
-        <v>4016299</v>
-      </c>
-      <c r="U61" s="11">
         <v>6367906</v>
       </c>
+      <c r="T61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U61" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>57</v>
+      <c r="W61" s="11">
+        <v>5301095</v>
+      </c>
+      <c r="X61" s="11">
+        <v>7824437</v>
       </c>
       <c r="Y61" s="11">
-        <v>5301095</v>
+        <v>4844694</v>
       </c>
       <c r="Z61" s="11">
-        <v>7824437</v>
+        <v>13122982</v>
       </c>
       <c r="AA61" s="11">
-        <v>4844694</v>
+        <v>3445553</v>
       </c>
       <c r="AB61" s="11">
-        <v>13122982</v>
+        <v>13108096</v>
       </c>
       <c r="AC61" s="11">
-        <v>3445553</v>
+        <v>14068935</v>
       </c>
       <c r="AD61" s="11">
-        <v>13108096</v>
+        <v>7056041</v>
       </c>
       <c r="AE61" s="11">
-        <v>14068935</v>
+        <v>10413755</v>
       </c>
       <c r="AF61" s="11">
-        <v>7056041</v>
+        <v>14829988</v>
       </c>
       <c r="AG61" s="11">
-        <v>10413755</v>
+        <v>5881244</v>
       </c>
       <c r="AH61" s="11">
-        <v>14829988</v>
+        <v>16680167</v>
       </c>
       <c r="AI61" s="11">
-        <v>5881244</v>
+        <v>10819903</v>
       </c>
       <c r="AJ61" s="11">
-        <v>16680167</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="11">
-        <v>10819903</v>
+        <v>518411</v>
       </c>
       <c r="AL61" s="11">
-        <v>0</v>
+        <v>612785</v>
       </c>
       <c r="AM61" s="11">
-        <v>518411</v>
+        <v>2960772</v>
       </c>
       <c r="AN61" s="11">
-        <v>612785</v>
+        <v>25998055</v>
       </c>
       <c r="AO61" s="11">
-        <v>2960772</v>
+        <v>9654225</v>
       </c>
       <c r="AP61" s="11">
-        <v>25998055</v>
-      </c>
-      <c r="AQ61" s="11">
-        <v>9654225</v>
+        <v>6651226</v>
+      </c>
+      <c r="AQ61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR61" s="11" t="s">
         <v>57</v>
@@ -8171,7 +8171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>66</v>
       </c>
@@ -8224,21 +8224,21 @@
       <c r="S62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U62" s="13" t="s">
-        <v>57</v>
+      <c r="T62" s="13">
+        <v>10725994</v>
+      </c>
+      <c r="U62" s="13">
+        <v>6705840</v>
       </c>
       <c r="V62" s="13">
-        <v>10725994</v>
-      </c>
-      <c r="W62" s="13">
-        <v>6705840</v>
-      </c>
-      <c r="X62" s="13">
         <v>11852234</v>
       </c>
+      <c r="W62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X62" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y62" s="13" t="s">
         <v>57</v>
       </c>
@@ -8296,18 +8296,18 @@
       <c r="AQ62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT62" s="13">
+      <c r="AR62" s="13">
         <v>18084613</v>
       </c>
-      <c r="AU62" s="13">
+      <c r="AS62" s="13">
         <v>25456763</v>
       </c>
+      <c r="AT62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU62" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV62" s="13" t="s">
         <v>57</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>67</v>
       </c>
@@ -8392,14 +8392,14 @@
       <c r="V63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>57</v>
+      <c r="W63" s="11">
+        <v>45674</v>
+      </c>
+      <c r="X63" s="11">
+        <v>0</v>
       </c>
       <c r="Y63" s="11">
-        <v>45674</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="11">
         <v>0</v>
@@ -8419,41 +8419,41 @@
       <c r="AE63" s="11">
         <v>0</v>
       </c>
-      <c r="AF63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="11">
-        <v>0</v>
+      <c r="AF63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI63" s="11" t="s">
-        <v>57</v>
+      <c r="AI63" s="11">
+        <v>0</v>
       </c>
       <c r="AJ63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM63" s="11" t="s">
-        <v>57</v>
+      <c r="AK63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL63" s="11">
+        <v>1409713</v>
+      </c>
+      <c r="AM63" s="11">
+        <v>0</v>
       </c>
       <c r="AN63" s="11">
-        <v>1409713</v>
+        <v>0</v>
       </c>
       <c r="AO63" s="11">
-        <v>0</v>
+        <v>1879694</v>
       </c>
       <c r="AP63" s="11">
         <v>0</v>
       </c>
-      <c r="AQ63" s="11">
-        <v>1879694</v>
+      <c r="AQ63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR63" s="11" t="s">
         <v>57</v>
@@ -8489,7 +8489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>76</v>
       </c>
@@ -8546,7 +8546,7 @@
       <c r="BA64" s="15"/>
       <c r="BB64" s="15"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
         <v>69</v>
       </c>
@@ -8608,11 +8608,11 @@
       <c r="V65" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W65" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X65" s="17" t="s">
-        <v>57</v>
+      <c r="W65" s="17">
+        <v>0</v>
+      </c>
+      <c r="X65" s="17">
+        <v>0</v>
       </c>
       <c r="Y65" s="17">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>77</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="BA66" s="15"/>
       <c r="BB66" s="15"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>73</v>
       </c>
@@ -8824,11 +8824,11 @@
       <c r="V67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W67" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X67" s="17" t="s">
-        <v>57</v>
+      <c r="W67" s="17">
+        <v>0</v>
+      </c>
+      <c r="X67" s="17">
+        <v>0</v>
       </c>
       <c r="Y67" s="17">
         <v>0</v>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>78</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>79</v>
       </c>
@@ -9040,11 +9040,11 @@
       <c r="V69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>57</v>
+      <c r="W69" s="11">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0</v>
       </c>
       <c r="Y69" s="11">
         <v>0</v>
@@ -9137,164 +9137,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19">
-        <v>13118484</v>
+        <v>10968322</v>
       </c>
       <c r="F70" s="19">
-        <v>9114189</v>
+        <v>12763216</v>
       </c>
       <c r="G70" s="19">
-        <v>10968322</v>
+        <v>12753246</v>
       </c>
       <c r="H70" s="19">
-        <v>12763216</v>
+        <v>11349648</v>
       </c>
       <c r="I70" s="19">
-        <v>12753246</v>
+        <v>13342066</v>
       </c>
       <c r="J70" s="19">
-        <v>11349648</v>
+        <v>13355633</v>
       </c>
       <c r="K70" s="19">
-        <v>13342066</v>
+        <v>14379785</v>
       </c>
       <c r="L70" s="19">
-        <v>13355633</v>
+        <v>14391625</v>
       </c>
       <c r="M70" s="19">
-        <v>14379785</v>
+        <v>12651348</v>
       </c>
       <c r="N70" s="19">
-        <v>14391625</v>
+        <v>8996552</v>
       </c>
       <c r="O70" s="19">
-        <v>12651348</v>
+        <v>13667960</v>
       </c>
       <c r="P70" s="19">
-        <v>8996552</v>
+        <v>11144061</v>
       </c>
       <c r="Q70" s="19">
-        <v>13667960</v>
+        <v>14161945</v>
       </c>
       <c r="R70" s="19">
-        <v>11144061</v>
+        <v>13333118</v>
       </c>
       <c r="S70" s="19">
-        <v>14161945</v>
+        <v>17634072</v>
       </c>
       <c r="T70" s="19">
-        <v>13333118</v>
+        <v>17498947</v>
       </c>
       <c r="U70" s="19">
-        <v>17634072</v>
+        <v>12917553</v>
       </c>
       <c r="V70" s="19">
-        <v>17498947</v>
+        <v>17678660</v>
       </c>
       <c r="W70" s="19">
-        <v>12917553</v>
+        <v>18935844</v>
       </c>
       <c r="X70" s="19">
-        <v>17678660</v>
+        <v>26958608</v>
       </c>
       <c r="Y70" s="19">
-        <v>18935844</v>
+        <v>18130790</v>
       </c>
       <c r="Z70" s="19">
-        <v>26958608</v>
+        <v>38609481</v>
       </c>
       <c r="AA70" s="19">
-        <v>18130790</v>
+        <v>25821321</v>
       </c>
       <c r="AB70" s="19">
-        <v>38609481</v>
+        <v>32247339</v>
       </c>
       <c r="AC70" s="19">
-        <v>25821321</v>
+        <v>33603011</v>
       </c>
       <c r="AD70" s="19">
-        <v>32247339</v>
+        <v>26265732</v>
       </c>
       <c r="AE70" s="19">
-        <v>33603011</v>
+        <v>37801860</v>
       </c>
       <c r="AF70" s="19">
-        <v>26265732</v>
+        <v>33941377</v>
       </c>
       <c r="AG70" s="19">
-        <v>37801860</v>
+        <v>39370736</v>
       </c>
       <c r="AH70" s="19">
-        <v>33941377</v>
+        <v>35755711</v>
       </c>
       <c r="AI70" s="19">
-        <v>39370736</v>
+        <v>39611110</v>
       </c>
       <c r="AJ70" s="19">
-        <v>35755711</v>
+        <v>29602151</v>
       </c>
       <c r="AK70" s="19">
-        <v>39611110</v>
+        <v>23602729</v>
       </c>
       <c r="AL70" s="19">
-        <v>29602151</v>
+        <v>32042919</v>
       </c>
       <c r="AM70" s="19">
-        <v>23602729</v>
+        <v>42584887</v>
       </c>
       <c r="AN70" s="19">
-        <v>32042919</v>
+        <v>54078909</v>
       </c>
       <c r="AO70" s="19">
-        <v>42584887</v>
+        <v>50566158</v>
       </c>
       <c r="AP70" s="19">
-        <v>54078909</v>
+        <v>36279554</v>
       </c>
       <c r="AQ70" s="19">
-        <v>50566158</v>
+        <v>84732808</v>
       </c>
       <c r="AR70" s="19">
-        <v>204033137</v>
+        <v>27164022</v>
       </c>
       <c r="AS70" s="19">
-        <v>84732808</v>
+        <v>40081597</v>
       </c>
       <c r="AT70" s="19">
-        <v>27164022</v>
+        <v>60395586</v>
       </c>
       <c r="AU70" s="19">
-        <v>40081597</v>
+        <v>34809508</v>
       </c>
       <c r="AV70" s="19">
-        <v>60395586</v>
+        <v>26462923</v>
       </c>
       <c r="AW70" s="19">
-        <v>27060992</v>
+        <v>56690183</v>
       </c>
       <c r="AX70" s="19">
-        <v>26462923</v>
+        <v>40014483</v>
       </c>
       <c r="AY70" s="19">
-        <v>56690183</v>
+        <v>41410349</v>
       </c>
       <c r="AZ70" s="19">
-        <v>40014483</v>
+        <v>47586112</v>
       </c>
       <c r="BA70" s="19">
-        <v>41410349</v>
+        <v>37324857</v>
       </c>
       <c r="BB70" s="19">
-        <v>47586112</v>
+        <v>49943029</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9349,7 +9349,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9404,7 +9404,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9459,7 +9459,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>80</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9671,7 +9671,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>81</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>55</v>
       </c>
@@ -9737,157 +9737,157 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>7601475</v>
+        <v>7360119</v>
       </c>
       <c r="F77" s="11">
-        <v>7843817</v>
+        <v>6875996</v>
       </c>
       <c r="G77" s="11">
-        <v>7360119</v>
-      </c>
-      <c r="H77" s="11">
-        <v>6875996</v>
-      </c>
-      <c r="I77" s="11">
         <v>11963207</v>
       </c>
+      <c r="H77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L77" s="11" t="s">
-        <v>57</v>
+      <c r="K77" s="11">
+        <v>9012006</v>
+      </c>
+      <c r="L77" s="11">
+        <v>9541017</v>
       </c>
       <c r="M77" s="11">
-        <v>9012006</v>
+        <v>9017873</v>
       </c>
       <c r="N77" s="11">
-        <v>9541017</v>
+        <v>9043046</v>
       </c>
       <c r="O77" s="11">
-        <v>9017873</v>
+        <v>8828976</v>
       </c>
       <c r="P77" s="11">
-        <v>9043046</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="11">
-        <v>8828976</v>
+        <v>9464914</v>
       </c>
       <c r="R77" s="11">
-        <v>0</v>
+        <v>10174085</v>
       </c>
       <c r="S77" s="11">
-        <v>9464914</v>
+        <v>11536216</v>
       </c>
       <c r="T77" s="11">
-        <v>10174085</v>
+        <v>11496710</v>
       </c>
       <c r="U77" s="11">
-        <v>11536216</v>
+        <v>11190352</v>
       </c>
       <c r="V77" s="11">
-        <v>11496710</v>
+        <v>12928939</v>
       </c>
       <c r="W77" s="11">
-        <v>11190352</v>
+        <v>14003512</v>
       </c>
       <c r="X77" s="11">
-        <v>12928939</v>
+        <v>16211577</v>
       </c>
       <c r="Y77" s="11">
-        <v>14003512</v>
-      </c>
-      <c r="Z77" s="11">
-        <v>16211577</v>
+        <v>18061592</v>
+      </c>
+      <c r="Z77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA77" s="11">
-        <v>18061592</v>
+        <v>24220903</v>
       </c>
       <c r="AB77" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AC77" s="11">
-        <v>24220903</v>
-      </c>
-      <c r="AD77" s="11" t="s">
-        <v>57</v>
+        <v>26100872</v>
+      </c>
+      <c r="AD77" s="11">
+        <v>24453367</v>
       </c>
       <c r="AE77" s="11">
-        <v>26100872</v>
-      </c>
-      <c r="AF77" s="11">
-        <v>24453367</v>
-      </c>
-      <c r="AG77" s="11">
         <v>26107244</v>
       </c>
+      <c r="AF77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG77" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH77" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AI77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK77" s="11" t="s">
-        <v>57</v>
+      <c r="AJ77" s="11">
+        <v>35944103</v>
+      </c>
+      <c r="AK77" s="11">
+        <v>36036697</v>
       </c>
       <c r="AL77" s="11">
-        <v>35944103</v>
+        <v>34928116</v>
       </c>
       <c r="AM77" s="11">
-        <v>36036697</v>
+        <v>36061462</v>
       </c>
       <c r="AN77" s="11">
-        <v>34928116</v>
+        <v>34819415</v>
       </c>
       <c r="AO77" s="11">
-        <v>36061462</v>
+        <v>34673219</v>
       </c>
       <c r="AP77" s="11">
-        <v>34819415</v>
+        <v>37307055</v>
       </c>
       <c r="AQ77" s="11">
-        <v>34673219</v>
-      </c>
-      <c r="AR77" s="11">
-        <v>37307055</v>
+        <v>42347288</v>
+      </c>
+      <c r="AR77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS77" s="11">
-        <v>42347288</v>
+        <v>36341912</v>
       </c>
       <c r="AT77" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AU77" s="11">
-        <v>36341912</v>
-      </c>
-      <c r="AV77" s="11" t="s">
-        <v>57</v>
+        <v>33531130</v>
+      </c>
+      <c r="AV77" s="11">
+        <v>25819724</v>
       </c>
       <c r="AW77" s="11">
-        <v>33531130</v>
+        <v>26860171</v>
       </c>
       <c r="AX77" s="11">
-        <v>25819724</v>
+        <v>28032191</v>
       </c>
       <c r="AY77" s="11">
-        <v>26860171</v>
+        <v>29176714</v>
       </c>
       <c r="AZ77" s="11">
-        <v>28032191</v>
+        <v>29903801</v>
       </c>
       <c r="BA77" s="11">
-        <v>29176714</v>
+        <v>35871900</v>
       </c>
       <c r="BB77" s="11">
-        <v>29903801</v>
+        <v>38153961</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>58</v>
       </c>
@@ -9940,21 +9940,21 @@
       <c r="S78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U78" s="13" t="s">
-        <v>57</v>
+      <c r="T78" s="13">
+        <v>50972326</v>
+      </c>
+      <c r="U78" s="13">
+        <v>50199385</v>
       </c>
       <c r="V78" s="13">
-        <v>50972326</v>
-      </c>
-      <c r="W78" s="13">
-        <v>50199385</v>
-      </c>
-      <c r="X78" s="13">
         <v>54153799</v>
       </c>
+      <c r="W78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X78" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y78" s="13" t="s">
         <v>57</v>
       </c>
@@ -10009,44 +10009,44 @@
       <c r="AP78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ78" s="13" t="s">
-        <v>57</v>
+      <c r="AQ78" s="13">
+        <v>143811357</v>
       </c>
       <c r="AR78" s="13">
-        <v>160054156</v>
+        <v>155677257</v>
       </c>
       <c r="AS78" s="13">
-        <v>143811357</v>
+        <v>145638890</v>
       </c>
       <c r="AT78" s="13">
-        <v>155677257</v>
+        <v>169419069</v>
       </c>
       <c r="AU78" s="13">
-        <v>145638890</v>
+        <v>150633814</v>
       </c>
       <c r="AV78" s="13">
-        <v>169419069</v>
+        <v>141765626</v>
       </c>
       <c r="AW78" s="13">
-        <v>150633814</v>
+        <v>121170616</v>
       </c>
       <c r="AX78" s="13">
-        <v>141765626</v>
+        <v>117763662</v>
       </c>
       <c r="AY78" s="13">
-        <v>121170616</v>
+        <v>125647769</v>
       </c>
       <c r="AZ78" s="13">
-        <v>117763662</v>
+        <v>129058047</v>
       </c>
       <c r="BA78" s="13">
-        <v>125647769</v>
+        <v>115080036</v>
       </c>
       <c r="BB78" s="13">
-        <v>129058047</v>
+        <v>132888318</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>59</v>
       </c>
@@ -10096,14 +10096,14 @@
       <c r="R79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S79" s="11" t="s">
-        <v>57</v>
+      <c r="S79" s="11">
+        <v>20993842</v>
       </c>
       <c r="T79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U79" s="11">
-        <v>20993842</v>
+      <c r="U79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V79" s="11" t="s">
         <v>57</v>
@@ -10144,68 +10144,68 @@
       <c r="AH79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ79" s="11" t="s">
-        <v>57</v>
+      <c r="AI79" s="11">
+        <v>82388889</v>
+      </c>
+      <c r="AJ79" s="11">
+        <v>83389504</v>
       </c>
       <c r="AK79" s="11">
-        <v>82388889</v>
+        <v>81757905</v>
       </c>
       <c r="AL79" s="11">
-        <v>83389504</v>
+        <v>83931303</v>
       </c>
       <c r="AM79" s="11">
-        <v>81757905</v>
+        <v>85483199</v>
       </c>
       <c r="AN79" s="11">
-        <v>83931303</v>
-      </c>
-      <c r="AO79" s="11">
-        <v>85483199</v>
-      </c>
-      <c r="AP79" s="11">
         <v>84035724</v>
       </c>
+      <c r="AO79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR79" s="11">
-        <v>-1426954</v>
+      <c r="AR79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU79" s="11" t="s">
-        <v>57</v>
+      <c r="AT79" s="11">
+        <v>95470495</v>
+      </c>
+      <c r="AU79" s="11">
+        <v>86030167</v>
       </c>
       <c r="AV79" s="11">
-        <v>95470495</v>
-      </c>
-      <c r="AW79" s="11">
-        <v>86030167</v>
-      </c>
-      <c r="AX79" s="11">
         <v>80684045</v>
       </c>
+      <c r="AW79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AY79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AZ79" s="11" t="s">
-        <v>57</v>
+      <c r="AZ79" s="11">
+        <v>79578452</v>
       </c>
       <c r="BA79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB79" s="11">
-        <v>79578452</v>
+      <c r="BB79" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
@@ -10214,121 +10214,121 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>37554043</v>
+        <v>36409733</v>
       </c>
       <c r="F80" s="13">
-        <v>0</v>
+        <v>33113543</v>
       </c>
       <c r="G80" s="13">
-        <v>36409733</v>
+        <v>31865016</v>
       </c>
       <c r="H80" s="13">
-        <v>33113543</v>
+        <v>30003843</v>
       </c>
       <c r="I80" s="13">
-        <v>31865016</v>
+        <v>0</v>
       </c>
       <c r="J80" s="13">
-        <v>30003843</v>
+        <v>43892532</v>
       </c>
       <c r="K80" s="13">
         <v>0</v>
       </c>
       <c r="L80" s="13">
-        <v>43892532</v>
+        <v>43115092</v>
       </c>
       <c r="M80" s="13">
-        <v>0</v>
+        <v>41891653</v>
       </c>
       <c r="N80" s="13">
-        <v>43115092</v>
+        <v>0</v>
       </c>
       <c r="O80" s="13">
-        <v>41891653</v>
+        <v>38706138</v>
       </c>
       <c r="P80" s="13">
         <v>0</v>
       </c>
       <c r="Q80" s="13">
-        <v>38706138</v>
+        <v>38908625</v>
       </c>
       <c r="R80" s="13">
-        <v>0</v>
+        <v>41945690</v>
       </c>
       <c r="S80" s="13">
-        <v>38908625</v>
-      </c>
-      <c r="T80" s="13">
-        <v>41945690</v>
-      </c>
-      <c r="U80" s="13">
         <v>51237759</v>
       </c>
+      <c r="T80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y80" s="13">
+      <c r="W80" s="13">
         <v>54385932</v>
       </c>
+      <c r="X80" s="13">
+        <v>62926501</v>
+      </c>
+      <c r="Y80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Z80" s="13">
-        <v>62926501</v>
-      </c>
-      <c r="AA80" s="13" t="s">
-        <v>57</v>
+        <v>89781298</v>
+      </c>
+      <c r="AA80" s="13">
+        <v>106841745</v>
       </c>
       <c r="AB80" s="13">
-        <v>89781298</v>
+        <v>112870544</v>
       </c>
       <c r="AC80" s="13">
-        <v>106841745</v>
+        <v>110228526</v>
       </c>
       <c r="AD80" s="13">
-        <v>112870544</v>
+        <v>117957922</v>
       </c>
       <c r="AE80" s="13">
-        <v>110228526</v>
+        <v>145887650</v>
       </c>
       <c r="AF80" s="13">
-        <v>117957922</v>
+        <v>130710349</v>
       </c>
       <c r="AG80" s="13">
-        <v>145887650</v>
+        <v>130159729</v>
       </c>
       <c r="AH80" s="13">
-        <v>130710349</v>
+        <v>130886958</v>
       </c>
       <c r="AI80" s="13">
-        <v>130159729</v>
+        <v>151445808</v>
       </c>
       <c r="AJ80" s="13">
-        <v>130886958</v>
+        <v>154983452</v>
       </c>
       <c r="AK80" s="13">
-        <v>151445808</v>
+        <v>170148710</v>
       </c>
       <c r="AL80" s="13">
-        <v>154983452</v>
+        <v>156966941</v>
       </c>
       <c r="AM80" s="13">
-        <v>170148710</v>
+        <v>162628736</v>
       </c>
       <c r="AN80" s="13">
-        <v>156966941</v>
+        <v>158704014</v>
       </c>
       <c r="AO80" s="13">
-        <v>162628736</v>
+        <v>161346485</v>
       </c>
       <c r="AP80" s="13">
-        <v>158704014</v>
-      </c>
-      <c r="AQ80" s="13">
-        <v>161346485</v>
+        <v>158257844</v>
+      </c>
+      <c r="AQ80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR80" s="13" t="s">
         <v>57</v>
@@ -10364,7 +10364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>61</v>
       </c>
@@ -10373,121 +10373,121 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>35289654</v>
+        <v>31155922</v>
       </c>
       <c r="F81" s="11">
-        <v>34087600</v>
+        <v>29938138</v>
       </c>
       <c r="G81" s="11">
-        <v>31155922</v>
+        <v>32268598</v>
       </c>
       <c r="H81" s="11">
-        <v>29938138</v>
+        <v>37541607</v>
       </c>
       <c r="I81" s="11">
-        <v>32268598</v>
+        <v>38444990</v>
       </c>
       <c r="J81" s="11">
-        <v>37541607</v>
+        <v>39816687</v>
       </c>
       <c r="K81" s="11">
-        <v>38444990</v>
+        <v>39521664</v>
       </c>
       <c r="L81" s="11">
-        <v>39816687</v>
+        <v>39397666</v>
       </c>
       <c r="M81" s="11">
-        <v>39521664</v>
+        <v>38694446</v>
       </c>
       <c r="N81" s="11">
-        <v>39397666</v>
+        <v>38602831</v>
       </c>
       <c r="O81" s="11">
-        <v>38694446</v>
+        <v>38386877</v>
       </c>
       <c r="P81" s="11">
-        <v>38602831</v>
+        <v>37920414</v>
       </c>
       <c r="Q81" s="11">
-        <v>38386877</v>
+        <v>39871656</v>
       </c>
       <c r="R81" s="11">
-        <v>37920414</v>
+        <v>42070061</v>
       </c>
       <c r="S81" s="11">
-        <v>39871656</v>
-      </c>
-      <c r="T81" s="11">
-        <v>42070061</v>
-      </c>
-      <c r="U81" s="11">
         <v>47438867</v>
       </c>
+      <c r="T81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>57</v>
+      <c r="W81" s="11">
+        <v>60321580</v>
+      </c>
+      <c r="X81" s="11">
+        <v>70513343</v>
       </c>
       <c r="Y81" s="11">
-        <v>60321580</v>
+        <v>74361182</v>
       </c>
       <c r="Z81" s="11">
-        <v>70513343</v>
+        <v>97321592</v>
       </c>
       <c r="AA81" s="11">
-        <v>74361182</v>
+        <v>102190741</v>
       </c>
       <c r="AB81" s="11">
-        <v>97321592</v>
+        <v>102667736</v>
       </c>
       <c r="AC81" s="11">
-        <v>102190741</v>
+        <v>108059048</v>
       </c>
       <c r="AD81" s="11">
-        <v>102667736</v>
+        <v>126566230</v>
       </c>
       <c r="AE81" s="11">
-        <v>108059048</v>
+        <v>125634770</v>
       </c>
       <c r="AF81" s="11">
-        <v>126566230</v>
+        <v>138888748</v>
       </c>
       <c r="AG81" s="11">
-        <v>125634770</v>
+        <v>166360454</v>
       </c>
       <c r="AH81" s="11">
-        <v>138888748</v>
+        <v>168765537</v>
       </c>
       <c r="AI81" s="11">
-        <v>166360454</v>
+        <v>169872816</v>
       </c>
       <c r="AJ81" s="11">
-        <v>168765537</v>
+        <v>168096731</v>
       </c>
       <c r="AK81" s="11">
-        <v>169872816</v>
+        <v>164906650</v>
       </c>
       <c r="AL81" s="11">
-        <v>168096731</v>
+        <v>162694037</v>
       </c>
       <c r="AM81" s="11">
-        <v>164906650</v>
+        <v>153208171</v>
       </c>
       <c r="AN81" s="11">
-        <v>162694037</v>
+        <v>153489810</v>
       </c>
       <c r="AO81" s="11">
-        <v>153208171</v>
+        <v>150171295</v>
       </c>
       <c r="AP81" s="11">
-        <v>153489810</v>
-      </c>
-      <c r="AQ81" s="11">
-        <v>150171295</v>
+        <v>146427488</v>
+      </c>
+      <c r="AQ81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR81" s="11" t="s">
         <v>57</v>
@@ -10523,7 +10523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>62</v>
       </c>
@@ -10645,44 +10645,44 @@
       <c r="AP82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR82" s="13">
-        <v>130094790</v>
-      </c>
-      <c r="AS82" s="13">
+      <c r="AQ82" s="13">
         <v>136059871</v>
       </c>
-      <c r="AT82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU82" s="13" t="s">
-        <v>57</v>
+      <c r="AR82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT82" s="13">
+        <v>155315302</v>
+      </c>
+      <c r="AU82" s="13">
+        <v>158062211</v>
       </c>
       <c r="AV82" s="13">
-        <v>155315302</v>
+        <v>138547427</v>
       </c>
       <c r="AW82" s="13">
-        <v>155711907</v>
+        <v>121873451</v>
       </c>
       <c r="AX82" s="13">
-        <v>138547427</v>
+        <v>125495643</v>
       </c>
       <c r="AY82" s="13">
-        <v>121873451</v>
+        <v>130737298</v>
       </c>
       <c r="AZ82" s="13">
-        <v>125495643</v>
+        <v>133483193</v>
       </c>
       <c r="BA82" s="13">
-        <v>130737298</v>
+        <v>144743839</v>
       </c>
       <c r="BB82" s="13">
-        <v>133483193</v>
+        <v>144673727</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>63</v>
       </c>
@@ -10714,57 +10714,57 @@
       <c r="L83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N83" s="11" t="s">
-        <v>57</v>
+      <c r="M83" s="11">
+        <v>56999014</v>
+      </c>
+      <c r="N83" s="11">
+        <v>0</v>
       </c>
       <c r="O83" s="11">
-        <v>56999014</v>
+        <v>54983838</v>
       </c>
       <c r="P83" s="11">
-        <v>0</v>
+        <v>53265380</v>
       </c>
       <c r="Q83" s="11">
-        <v>54983838</v>
+        <v>54335834</v>
       </c>
       <c r="R83" s="11">
-        <v>53265380</v>
+        <v>48215592</v>
       </c>
       <c r="S83" s="11">
-        <v>54335834</v>
-      </c>
-      <c r="T83" s="11">
-        <v>48215592</v>
+        <v>61089957</v>
+      </c>
+      <c r="T83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U83" s="11">
-        <v>61089957</v>
-      </c>
-      <c r="V83" s="11" t="s">
-        <v>57</v>
+        <v>61886431</v>
+      </c>
+      <c r="V83" s="11">
+        <v>58500000</v>
       </c>
       <c r="W83" s="11">
-        <v>61886431</v>
+        <v>80237381</v>
       </c>
       <c r="X83" s="11">
-        <v>58500000</v>
-      </c>
-      <c r="Y83" s="11">
-        <v>80237381</v>
+        <v>64552672</v>
+      </c>
+      <c r="Y83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Z83" s="11">
-        <v>64552672</v>
-      </c>
-      <c r="AA83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB83" s="11">
         <v>76482830</v>
       </c>
-      <c r="AC83" s="11">
+      <c r="AA83" s="11">
         <v>74329163</v>
       </c>
+      <c r="AB83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD83" s="11" t="s">
         <v>57</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>64</v>
       </c>
@@ -10850,121 +10850,121 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>30649282</v>
+        <v>28854056</v>
       </c>
       <c r="F84" s="13">
-        <v>32316480</v>
+        <v>29864826</v>
       </c>
       <c r="G84" s="13">
-        <v>28854056</v>
+        <v>35085164</v>
       </c>
       <c r="H84" s="13">
-        <v>29864826</v>
+        <v>37961980</v>
       </c>
       <c r="I84" s="13">
-        <v>35085164</v>
+        <v>40188330</v>
       </c>
       <c r="J84" s="13">
-        <v>37961980</v>
+        <v>41210610</v>
       </c>
       <c r="K84" s="13">
-        <v>40188330</v>
+        <v>37723799</v>
       </c>
       <c r="L84" s="13">
-        <v>41210610</v>
+        <v>35570660</v>
       </c>
       <c r="M84" s="13">
-        <v>37723799</v>
+        <v>34411313</v>
       </c>
       <c r="N84" s="13">
-        <v>35570660</v>
+        <v>34642185</v>
       </c>
       <c r="O84" s="13">
-        <v>34411313</v>
+        <v>34793800</v>
       </c>
       <c r="P84" s="13">
-        <v>34642185</v>
+        <v>36020740</v>
       </c>
       <c r="Q84" s="13">
-        <v>34793800</v>
+        <v>39780778</v>
       </c>
       <c r="R84" s="13">
-        <v>36020740</v>
+        <v>43671544</v>
       </c>
       <c r="S84" s="13">
-        <v>39780778</v>
-      </c>
-      <c r="T84" s="13">
-        <v>43671544</v>
-      </c>
-      <c r="U84" s="13">
         <v>47805010</v>
       </c>
+      <c r="T84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U84" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X84" s="13" t="s">
-        <v>57</v>
+      <c r="W84" s="13">
+        <v>63068624</v>
+      </c>
+      <c r="X84" s="13">
+        <v>73252379</v>
       </c>
       <c r="Y84" s="13">
-        <v>63068624</v>
+        <v>80556815</v>
       </c>
       <c r="Z84" s="13">
-        <v>73252379</v>
+        <v>94066353</v>
       </c>
       <c r="AA84" s="13">
-        <v>80556815</v>
+        <v>101070957</v>
       </c>
       <c r="AB84" s="13">
-        <v>94066353</v>
+        <v>97788670</v>
       </c>
       <c r="AC84" s="13">
-        <v>101070957</v>
+        <v>112590884</v>
       </c>
       <c r="AD84" s="13">
-        <v>97788670</v>
+        <v>108139465</v>
       </c>
       <c r="AE84" s="13">
-        <v>112590884</v>
+        <v>105099304</v>
       </c>
       <c r="AF84" s="13">
-        <v>108139465</v>
+        <v>108395399</v>
       </c>
       <c r="AG84" s="13">
-        <v>105099304</v>
+        <v>117987563</v>
       </c>
       <c r="AH84" s="13">
-        <v>108395399</v>
+        <v>123271625</v>
       </c>
       <c r="AI84" s="13">
-        <v>117987563</v>
+        <v>131092748</v>
       </c>
       <c r="AJ84" s="13">
-        <v>123271625</v>
+        <v>135236249</v>
       </c>
       <c r="AK84" s="13">
-        <v>131092748</v>
+        <v>140825177</v>
       </c>
       <c r="AL84" s="13">
-        <v>135236249</v>
+        <v>130528669</v>
       </c>
       <c r="AM84" s="13">
-        <v>140825177</v>
+        <v>135910024</v>
       </c>
       <c r="AN84" s="13">
-        <v>130528669</v>
+        <v>134991613</v>
       </c>
       <c r="AO84" s="13">
-        <v>135910024</v>
+        <v>129057312</v>
       </c>
       <c r="AP84" s="13">
-        <v>134991613</v>
-      </c>
-      <c r="AQ84" s="13">
-        <v>129057312</v>
+        <v>127286007</v>
+      </c>
+      <c r="AQ84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR84" s="13" t="s">
         <v>57</v>
@@ -11000,7 +11000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>65</v>
       </c>
@@ -11009,121 +11009,121 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>41204717</v>
+        <v>37853831</v>
       </c>
       <c r="F85" s="11">
-        <v>39433601</v>
+        <v>35446259</v>
       </c>
       <c r="G85" s="11">
-        <v>37853831</v>
+        <v>32428416</v>
       </c>
       <c r="H85" s="11">
-        <v>35446259</v>
+        <v>33097222</v>
       </c>
       <c r="I85" s="11">
-        <v>32428416</v>
+        <v>38194270</v>
       </c>
       <c r="J85" s="11">
-        <v>33097222</v>
+        <v>45302583</v>
       </c>
       <c r="K85" s="11">
-        <v>38194270</v>
+        <v>45424605</v>
       </c>
       <c r="L85" s="11">
-        <v>45302583</v>
+        <v>44742351</v>
       </c>
       <c r="M85" s="11">
-        <v>45424605</v>
+        <v>42144197</v>
       </c>
       <c r="N85" s="11">
-        <v>44742351</v>
+        <v>41984167</v>
       </c>
       <c r="O85" s="11">
-        <v>42144197</v>
+        <v>38940661</v>
       </c>
       <c r="P85" s="11">
-        <v>41984167</v>
+        <v>39615132</v>
       </c>
       <c r="Q85" s="11">
-        <v>38940661</v>
+        <v>41226420</v>
       </c>
       <c r="R85" s="11">
-        <v>39615132</v>
+        <v>44397637</v>
       </c>
       <c r="S85" s="11">
-        <v>41226420</v>
-      </c>
-      <c r="T85" s="11">
-        <v>44397637</v>
-      </c>
-      <c r="U85" s="11">
         <v>53331653</v>
       </c>
+      <c r="T85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U85" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X85" s="11" t="s">
-        <v>57</v>
+      <c r="W85" s="11">
+        <v>57390412</v>
+      </c>
+      <c r="X85" s="11">
+        <v>68432516</v>
       </c>
       <c r="Y85" s="11">
-        <v>57390412</v>
+        <v>74474175</v>
       </c>
       <c r="Z85" s="11">
-        <v>68432516</v>
+        <v>96726508</v>
       </c>
       <c r="AA85" s="11">
-        <v>74474175</v>
+        <v>106508594</v>
       </c>
       <c r="AB85" s="11">
-        <v>96726508</v>
+        <v>107235092</v>
       </c>
       <c r="AC85" s="11">
-        <v>106508594</v>
+        <v>111902446</v>
       </c>
       <c r="AD85" s="11">
-        <v>107235092</v>
+        <v>119218075</v>
       </c>
       <c r="AE85" s="11">
-        <v>111902446</v>
+        <v>130530897</v>
       </c>
       <c r="AF85" s="11">
-        <v>119218075</v>
+        <v>125259625</v>
       </c>
       <c r="AG85" s="11">
-        <v>130530897</v>
+        <v>119983761</v>
       </c>
       <c r="AH85" s="11">
-        <v>125259625</v>
+        <v>117168094</v>
       </c>
       <c r="AI85" s="11">
-        <v>119983761</v>
-      </c>
-      <c r="AJ85" s="11">
-        <v>117168094</v>
+        <v>125291264</v>
+      </c>
+      <c r="AJ85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK85" s="11">
-        <v>125291264</v>
-      </c>
-      <c r="AL85" s="11" t="s">
-        <v>57</v>
+        <v>141487718</v>
+      </c>
+      <c r="AL85" s="11">
+        <v>127956776</v>
       </c>
       <c r="AM85" s="11">
-        <v>141487718</v>
+        <v>146914703</v>
       </c>
       <c r="AN85" s="11">
-        <v>127956776</v>
+        <v>149605845</v>
       </c>
       <c r="AO85" s="11">
-        <v>146914703</v>
+        <v>141605307</v>
       </c>
       <c r="AP85" s="11">
-        <v>149605845</v>
-      </c>
-      <c r="AQ85" s="11">
-        <v>141605307</v>
+        <v>147785318</v>
+      </c>
+      <c r="AQ85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR85" s="11" t="s">
         <v>57</v>
@@ -11159,7 +11159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>66</v>
       </c>
@@ -11212,21 +11212,21 @@
       <c r="S86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U86" s="13" t="s">
-        <v>57</v>
+      <c r="T86" s="13">
+        <v>48265935</v>
+      </c>
+      <c r="U86" s="13">
+        <v>44947718</v>
       </c>
       <c r="V86" s="13">
-        <v>48265935</v>
-      </c>
-      <c r="W86" s="13">
-        <v>44947718</v>
-      </c>
-      <c r="X86" s="13">
         <v>55418714</v>
       </c>
+      <c r="W86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X86" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y86" s="13" t="s">
         <v>57</v>
       </c>
@@ -11284,18 +11284,18 @@
       <c r="AQ86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT86" s="13">
+      <c r="AR86" s="13">
         <v>143847193</v>
       </c>
-      <c r="AU86" s="13">
+      <c r="AS86" s="13">
         <v>148490483</v>
       </c>
+      <c r="AT86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU86" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV86" s="13" t="s">
         <v>57</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>67</v>
       </c>
@@ -11380,14 +11380,14 @@
       <c r="V87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W87" s="11" t="s">
-        <v>57</v>
+      <c r="W87" s="11">
+        <v>21362956</v>
       </c>
       <c r="X87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y87" s="11">
-        <v>21362956</v>
+      <c r="Y87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Z87" s="11" t="s">
         <v>57</v>
@@ -11425,23 +11425,23 @@
       <c r="AK87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL87" s="11" t="s">
-        <v>57</v>
+      <c r="AL87" s="11">
+        <v>79874950</v>
       </c>
       <c r="AM87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN87" s="11">
-        <v>79874950</v>
-      </c>
-      <c r="AO87" s="11" t="s">
-        <v>57</v>
+      <c r="AN87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO87" s="11">
+        <v>81612279</v>
       </c>
       <c r="AP87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ87" s="11">
-        <v>81612279</v>
+      <c r="AQ87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR87" s="11" t="s">
         <v>57</v>

--- a/database/industries/folad/fakhouz/product/monthly.xlsx
+++ b/database/industries/folad/fakhouz/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F7A97-672F-48BF-8950-6A881FD44CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -208,9 +207,6 @@
     <t>اسلب داخلی</t>
   </si>
   <si>
-    <t>بلوم ، بیلت</t>
-  </si>
-  <si>
     <t>ورق</t>
   </si>
   <si>
@@ -274,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,10 +742,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2215,7 +2213,7 @@
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>56</v>
@@ -2374,7 +2372,7 @@
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>56</v>
@@ -2533,7 +2531,7 @@
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>56</v>
@@ -2692,7 +2690,7 @@
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>56</v>
@@ -2851,7 +2849,7 @@
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>56</v>
@@ -3010,7 +3008,7 @@
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>56</v>
@@ -3169,7 +3167,7 @@
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -3226,7 +3224,7 @@
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -3383,7 +3381,7 @@
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -3705,7 +3703,7 @@
     </row>
     <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3917,7 +3915,7 @@
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4769,7 +4767,7 @@
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>56</v>
@@ -4928,7 +4926,7 @@
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>56</v>
@@ -5087,7 +5085,7 @@
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>56</v>
@@ -5246,7 +5244,7 @@
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>56</v>
@@ -5405,7 +5403,7 @@
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>56</v>
@@ -5564,7 +5562,7 @@
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>56</v>
@@ -5723,7 +5721,7 @@
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -5780,7 +5778,7 @@
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -5937,7 +5935,7 @@
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -5994,7 +5992,7 @@
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -6151,7 +6149,7 @@
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -6473,7 +6471,7 @@
     </row>
     <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -6685,7 +6683,7 @@
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -6745,7 +6743,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
@@ -6904,7 +6902,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
@@ -7063,7 +7061,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
@@ -7222,7 +7220,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
@@ -7381,7 +7379,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
@@ -7537,10 +7535,10 @@
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
@@ -7696,10 +7694,10 @@
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
@@ -7855,10 +7853,10 @@
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
@@ -8014,10 +8012,10 @@
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
@@ -8173,10 +8171,10 @@
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
@@ -8332,10 +8330,10 @@
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
@@ -8491,7 +8489,7 @@
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -8548,10 +8546,10 @@
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="17" t="s">
@@ -8707,7 +8705,7 @@
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -8764,10 +8762,10 @@
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17" t="s">
@@ -8923,7 +8921,7 @@
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -8980,10 +8978,10 @@
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
@@ -9139,7 +9137,7 @@
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -9461,7 +9459,7 @@
     </row>
     <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -9673,7 +9671,7 @@
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -9733,7 +9731,7 @@
         <v>55</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
@@ -9892,7 +9890,7 @@
         <v>58</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
@@ -10051,7 +10049,7 @@
         <v>59</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
@@ -10210,7 +10208,7 @@
         <v>60</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
@@ -10369,7 +10367,7 @@
         <v>61</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
@@ -10525,10 +10523,10 @@
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13" t="s">
@@ -10684,10 +10682,10 @@
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
@@ -10843,10 +10841,10 @@
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
@@ -11002,10 +11000,10 @@
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
@@ -11161,10 +11159,10 @@
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
@@ -11320,10 +11318,10 @@
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">

--- a/database/industries/folad/fakhouz/product/monthly.xlsx
+++ b/database/industries/folad/fakhouz/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="83">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3234,154 +3234,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>522858</v>
-      </c>
-      <c r="F11" s="12" t="n">
         <v>527129</v>
       </c>
+      <c r="F11" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G11" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>57</v>
+      <c r="I11" s="13" t="n">
+        <v>537712</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>537712</v>
+        <v>538739</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>538739</v>
+        <v>509808</v>
       </c>
       <c r="L11" s="13" t="n">
-        <v>509808</v>
+        <v>515146</v>
       </c>
       <c r="M11" s="13" t="n">
-        <v>515146</v>
+        <v>523930</v>
       </c>
       <c r="N11" s="13" t="n">
-        <v>523930</v>
+        <v>0</v>
       </c>
       <c r="O11" s="13" t="n">
-        <v>0</v>
+        <v>244414</v>
       </c>
       <c r="P11" s="13" t="n">
-        <v>244414</v>
+        <v>452502</v>
       </c>
       <c r="Q11" s="13" t="n">
-        <v>452502</v>
+        <v>444633</v>
       </c>
       <c r="R11" s="13" t="n">
-        <v>444633</v>
+        <v>536743</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>536743</v>
+        <v>547985</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>547985</v>
+        <v>529148</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>529148</v>
+        <v>468407</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>468407</v>
+        <v>524854</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>524854</v>
+        <v>529010</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>529010</v>
+        <v>526158</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>526158</v>
+        <v>535181</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>535181</v>
+        <v>453081</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>453081</v>
+        <v>493368</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>493368</v>
+        <v>355713</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>355713</v>
+        <v>261605</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>261605</v>
+        <v>505905</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>505905</v>
+        <v>534781</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>534781</v>
+        <v>527785</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>527785</v>
+        <v>405444</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>405444</v>
+        <v>420236</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>420236</v>
+        <v>367497</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>367497</v>
+        <v>430395</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>430395</v>
+        <v>513633</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>513633</v>
+        <v>528153</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>528153</v>
+        <v>469388</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>469388</v>
+        <v>423442</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>423442</v>
+        <v>495064</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>495064</v>
+        <v>422178</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>422178</v>
+        <v>286562</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>286562</v>
+        <v>457458</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>457458</v>
+        <v>433810</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>433810</v>
+        <v>568559</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>568559</v>
+        <v>502675</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>502675</v>
+        <v>522404</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>522404</v>
+        <v>493162</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>493162</v>
+        <v>530291</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>530291</v>
+        <v>345689</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>345689</v>
+        <v>489912</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>489912</v>
+        <v>508390</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>508390</v>
+        <v>559912</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,18 +3431,18 @@
       <c r="Q12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="16" t="s">
-        <v>57</v>
+      <c r="R12" s="16" t="n">
+        <v>128459</v>
       </c>
       <c r="S12" s="16" t="n">
-        <v>128459</v>
+        <v>131166</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>131166</v>
-      </c>
-      <c r="U12" s="16" t="n">
         <v>127607</v>
       </c>
+      <c r="U12" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V12" s="16" t="s">
         <v>57</v>
       </c>
@@ -3500,47 +3500,47 @@
       <c r="AN12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO12" s="16" t="s">
-        <v>57</v>
+      <c r="AO12" s="16" t="n">
+        <v>157204</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>157204</v>
+        <v>162356</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>162356</v>
+        <v>158524</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>158524</v>
+        <v>165783</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>165783</v>
+        <v>121091</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>121091</v>
+        <v>76607</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>76607</v>
+        <v>78624</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>78624</v>
+        <v>105781</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>105781</v>
+        <v>102583</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>102583</v>
+        <v>81505</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>81505</v>
+        <v>28520</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>28520</v>
+        <v>118393</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>118393</v>
+        <v>132186</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>132186</v>
+        <v>156985</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,11 +3587,11 @@
       <c r="P13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="13" t="n">
-        <v>0</v>
+      <c r="Q13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S13" s="13" t="s">
         <v>57</v>
@@ -3635,71 +3635,71 @@
       <c r="AF13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG13" s="13" t="s">
-        <v>57</v>
+      <c r="AG13" s="13" t="n">
+        <v>172127</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>172127</v>
+        <v>156686</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>156686</v>
+        <v>228863</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>228863</v>
+        <v>315803</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>315803</v>
+        <v>331127</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>331127</v>
+        <v>326475</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>326475</v>
+        <v>269811</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>269811</v>
+        <v>232317</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>232317</v>
+        <v>315531</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>315531</v>
+        <v>373392</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>373392</v>
+        <v>354970</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>354970</v>
+        <v>330358</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>330358</v>
+        <v>213095</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>213095</v>
+        <v>245969</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>245969</v>
+        <v>318943</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>318943</v>
+        <v>339118</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>339118</v>
+        <v>344624</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>344624</v>
+        <v>271404</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>271404</v>
+        <v>197454</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>197454</v>
+        <v>284770</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>284770</v>
+        <v>330688</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>330688</v>
+        <v>388018</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,8 +3749,8 @@
       <c r="Q14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="16" t="n">
-        <v>0</v>
+      <c r="R14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>57</v>
@@ -3758,8 +3758,8 @@
       <c r="T14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>57</v>
+      <c r="U14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V14" s="16" t="n">
         <v>0</v>
@@ -3818,8 +3818,8 @@
       <c r="AN14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" s="16" t="n">
-        <v>0</v>
+      <c r="AO14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP14" s="16" t="s">
         <v>57</v>
@@ -3870,115 +3870,115 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="n">
-        <v>107235</v>
+        <v>89557</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>89557</v>
+        <v>100273</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>100273</v>
+        <v>92200</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>92200</v>
+        <v>115733</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>115733</v>
+        <v>115328</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>115328</v>
+        <v>87729</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>87729</v>
+        <v>126036</v>
       </c>
       <c r="L15" s="13" t="n">
-        <v>126036</v>
+        <v>104854</v>
       </c>
       <c r="M15" s="13" t="n">
-        <v>104854</v>
+        <v>78507</v>
       </c>
       <c r="N15" s="13" t="n">
-        <v>78507</v>
+        <v>80767</v>
       </c>
       <c r="O15" s="13" t="n">
-        <v>80767</v>
+        <v>100892</v>
       </c>
       <c r="P15" s="13" t="n">
-        <v>100892</v>
+        <v>83128</v>
       </c>
       <c r="Q15" s="13" t="n">
-        <v>83128</v>
-      </c>
-      <c r="R15" s="13" t="n">
         <v>106116</v>
       </c>
+      <c r="R15" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S15" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>57</v>
+      <c r="U15" s="13" t="n">
+        <v>108370</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>108370</v>
+        <v>104006</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>104006</v>
+        <v>119061</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>119061</v>
+        <v>143370</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>143370</v>
+        <v>113940</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>113940</v>
+        <v>120782</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>120782</v>
+        <v>115821</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>115821</v>
+        <v>113508</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>113508</v>
+        <v>151160</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>151160</v>
+        <v>147352</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>147352</v>
+        <v>160975</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>160975</v>
+        <v>161391</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>161391</v>
+        <v>87763</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>87763</v>
+        <v>107494</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>107494</v>
+        <v>135660</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>135660</v>
+        <v>179213</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>179213</v>
+        <v>172621</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>172621</v>
+        <v>155418</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>155418</v>
+        <v>161008</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>161008</v>
-      </c>
-      <c r="AO15" s="13" t="n">
         <v>124516</v>
+      </c>
+      <c r="AO15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP15" s="13" t="s">
         <v>57</v>
@@ -4136,47 +4136,47 @@
       <c r="AN16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO16" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP16" s="16" t="n">
+      <c r="AO16" s="16" t="n">
         <v>163728</v>
       </c>
+      <c r="AP16" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR16" s="16" t="s">
-        <v>57</v>
+      <c r="AR16" s="16" t="n">
+        <v>138868</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>138868</v>
+        <v>77913</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>77913</v>
+        <v>158592</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>158592</v>
+        <v>244246</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>244246</v>
+        <v>223132</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>223132</v>
+        <v>219798</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>219798</v>
+        <v>230549</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>230549</v>
+        <v>219564</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>219564</v>
+        <v>199837</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>199837</v>
+        <v>185368</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>185368</v>
+        <v>195487</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,8 +4205,8 @@
       <c r="J17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>57</v>
+      <c r="K17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="L17" s="13" t="n">
         <v>0</v>
@@ -4226,11 +4226,11 @@
       <c r="Q17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>57</v>
+      <c r="R17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T17" s="13" t="n">
         <v>0</v>
@@ -4262,11 +4262,11 @@
       <c r="AC17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>57</v>
+      <c r="AD17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AF17" s="13" t="n">
         <v>0</v>
@@ -4298,8 +4298,8 @@
       <c r="AO17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP17" s="13" t="n">
-        <v>0</v>
+      <c r="AP17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ17" s="13" t="s">
         <v>57</v>
@@ -4347,115 +4347,115 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="n">
-        <v>231479</v>
+        <v>226884</v>
       </c>
       <c r="F18" s="16" t="n">
-        <v>226884</v>
+        <v>225629</v>
       </c>
       <c r="G18" s="16" t="n">
-        <v>225629</v>
+        <v>227711</v>
       </c>
       <c r="H18" s="16" t="n">
-        <v>227711</v>
+        <v>218577</v>
       </c>
       <c r="I18" s="16" t="n">
-        <v>218577</v>
+        <v>207499</v>
       </c>
       <c r="J18" s="16" t="n">
-        <v>207499</v>
+        <v>217390</v>
       </c>
       <c r="K18" s="16" t="n">
-        <v>217390</v>
+        <v>166702</v>
       </c>
       <c r="L18" s="16" t="n">
-        <v>166702</v>
+        <v>192230</v>
       </c>
       <c r="M18" s="16" t="n">
-        <v>192230</v>
+        <v>228846</v>
       </c>
       <c r="N18" s="16" t="n">
-        <v>228846</v>
+        <v>229016</v>
       </c>
       <c r="O18" s="16" t="n">
-        <v>229016</v>
+        <v>218766</v>
       </c>
       <c r="P18" s="16" t="n">
-        <v>218766</v>
+        <v>176649</v>
       </c>
       <c r="Q18" s="16" t="n">
-        <v>176649</v>
-      </c>
-      <c r="R18" s="16" t="n">
         <v>188811</v>
       </c>
+      <c r="R18" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S18" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>57</v>
+      <c r="U18" s="16" t="n">
+        <v>219024</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>219024</v>
+        <v>199764</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>199764</v>
+        <v>202314</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>202314</v>
+        <v>156270</v>
       </c>
       <c r="Y18" s="16" t="n">
-        <v>156270</v>
+        <v>200274</v>
       </c>
       <c r="Z18" s="16" t="n">
-        <v>200274</v>
+        <v>207824</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>207824</v>
+        <v>175040</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>175040</v>
+        <v>147085</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>147085</v>
+        <v>161729</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>161729</v>
+        <v>181654</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>181654</v>
+        <v>145020</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>145020</v>
+        <v>131140</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>131140</v>
+        <v>58207</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>58207</v>
+        <v>37635</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>37635</v>
+        <v>72668</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>72668</v>
+        <v>138733</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>138733</v>
+        <v>170203</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>170203</v>
+        <v>176986</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>176986</v>
+        <v>157115</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>157115</v>
-      </c>
-      <c r="AO18" s="16" t="n">
         <v>149014</v>
+      </c>
+      <c r="AO18" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP18" s="16" t="s">
         <v>57</v>
@@ -4544,8 +4544,8 @@
       <c r="Q19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R19" s="13" t="n">
-        <v>0</v>
+      <c r="R19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S19" s="13" t="s">
         <v>57</v>
@@ -4553,8 +4553,8 @@
       <c r="T19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>57</v>
+      <c r="U19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="13" t="n">
         <v>0</v>
@@ -4613,8 +4613,8 @@
       <c r="AN19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" s="13" t="n">
-        <v>0</v>
+      <c r="AO19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP19" s="13" t="s">
         <v>57</v>
@@ -4703,18 +4703,18 @@
       <c r="Q20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="16" t="s">
-        <v>57</v>
+      <c r="R20" s="16" t="n">
+        <v>216899</v>
       </c>
       <c r="S20" s="16" t="n">
-        <v>216899</v>
+        <v>217318</v>
       </c>
       <c r="T20" s="16" t="n">
-        <v>217318</v>
-      </c>
-      <c r="U20" s="16" t="n">
         <v>202745</v>
       </c>
+      <c r="U20" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V20" s="16" t="s">
         <v>57</v>
       </c>
@@ -4775,14 +4775,14 @@
       <c r="AO20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP20" s="16" t="s">
-        <v>57</v>
+      <c r="AP20" s="16" t="n">
+        <v>188789</v>
       </c>
       <c r="AQ20" s="16" t="n">
-        <v>188789</v>
-      </c>
-      <c r="AR20" s="16" t="n">
         <v>173220</v>
+      </c>
+      <c r="AR20" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AS20" s="16" t="s">
         <v>57</v>
@@ -4871,8 +4871,8 @@
       <c r="T21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>57</v>
+      <c r="U21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V21" s="13" t="n">
         <v>0</v>
@@ -4898,8 +4898,8 @@
       <c r="AC21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="13" t="n">
-        <v>0</v>
+      <c r="AD21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE21" s="13" t="s">
         <v>57</v>
@@ -4907,17 +4907,17 @@
       <c r="AF21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH21" s="13" t="n">
-        <v>0</v>
+      <c r="AG21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ21" s="13" t="s">
-        <v>57</v>
+      <c r="AJ21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AK21" s="13" t="n">
         <v>0</v>
@@ -4931,8 +4931,8 @@
       <c r="AN21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" s="13" t="n">
-        <v>0</v>
+      <c r="AO21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP21" s="13" t="s">
         <v>57</v>
@@ -5085,8 +5085,8 @@
       <c r="T23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U23" s="20" t="s">
-        <v>57</v>
+      <c r="U23" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="20" t="n">
         <v>0</v>
@@ -5195,154 +5195,154 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="n">
-        <v>861572</v>
+        <v>843570</v>
       </c>
       <c r="F24" s="22" t="n">
-        <v>843570</v>
+        <v>325902</v>
       </c>
       <c r="G24" s="22" t="n">
-        <v>325902</v>
+        <v>319911</v>
       </c>
       <c r="H24" s="22" t="n">
-        <v>319911</v>
+        <v>334310</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>334310</v>
+        <v>860539</v>
       </c>
       <c r="J24" s="22" t="n">
-        <v>860539</v>
+        <v>843858</v>
       </c>
       <c r="K24" s="22" t="n">
-        <v>843858</v>
+        <v>802546</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>802546</v>
+        <v>812230</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>812230</v>
+        <v>831283</v>
       </c>
       <c r="N24" s="22" t="n">
-        <v>831283</v>
+        <v>309783</v>
       </c>
       <c r="O24" s="22" t="n">
-        <v>309783</v>
+        <v>564072</v>
       </c>
       <c r="P24" s="22" t="n">
-        <v>564072</v>
+        <v>712279</v>
       </c>
       <c r="Q24" s="22" t="n">
-        <v>712279</v>
+        <v>739560</v>
       </c>
       <c r="R24" s="22" t="n">
-        <v>739560</v>
+        <v>882101</v>
       </c>
       <c r="S24" s="22" t="n">
-        <v>882101</v>
+        <v>896469</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>896469</v>
+        <v>859500</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>859500</v>
+        <v>795801</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>795801</v>
+        <v>828624</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>828624</v>
+        <v>850385</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>850385</v>
+        <v>825798</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>825798</v>
+        <v>849395</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>849395</v>
+        <v>781687</v>
       </c>
       <c r="AA24" s="22" t="n">
-        <v>781687</v>
+        <v>784229</v>
       </c>
       <c r="AB24" s="22" t="n">
-        <v>784229</v>
+        <v>616306</v>
       </c>
       <c r="AC24" s="22" t="n">
-        <v>616306</v>
+        <v>574494</v>
       </c>
       <c r="AD24" s="22" t="n">
-        <v>574494</v>
+        <v>834911</v>
       </c>
       <c r="AE24" s="22" t="n">
-        <v>834911</v>
+        <v>840776</v>
       </c>
       <c r="AF24" s="22" t="n">
-        <v>840776</v>
+        <v>820316</v>
       </c>
       <c r="AG24" s="22" t="n">
-        <v>820316</v>
+        <v>723541</v>
       </c>
       <c r="AH24" s="22" t="n">
-        <v>723541</v>
+        <v>722051</v>
       </c>
       <c r="AI24" s="22" t="n">
-        <v>722051</v>
+        <v>804688</v>
       </c>
       <c r="AJ24" s="22" t="n">
-        <v>804688</v>
+        <v>1064144</v>
       </c>
       <c r="AK24" s="22" t="n">
-        <v>1064144</v>
+        <v>1187584</v>
       </c>
       <c r="AL24" s="22" t="n">
-        <v>1187584</v>
+        <v>1187032</v>
       </c>
       <c r="AM24" s="22" t="n">
-        <v>1187032</v>
+        <v>1057322</v>
       </c>
       <c r="AN24" s="22" t="n">
-        <v>1057322</v>
+        <v>929289</v>
       </c>
       <c r="AO24" s="22" t="n">
-        <v>929289</v>
+        <v>1131527</v>
       </c>
       <c r="AP24" s="22" t="n">
-        <v>1131527</v>
+        <v>1146715</v>
       </c>
       <c r="AQ24" s="22" t="n">
-        <v>1146715</v>
+        <v>973276</v>
       </c>
       <c r="AR24" s="22" t="n">
-        <v>973276</v>
+        <v>1092467</v>
       </c>
       <c r="AS24" s="22" t="n">
-        <v>1092467</v>
+        <v>845909</v>
       </c>
       <c r="AT24" s="22" t="n">
-        <v>845909</v>
+        <v>1049727</v>
       </c>
       <c r="AU24" s="22" t="n">
-        <v>1049727</v>
+        <v>1144488</v>
       </c>
       <c r="AV24" s="22" t="n">
-        <v>1144488</v>
+        <v>1190435</v>
       </c>
       <c r="AW24" s="22" t="n">
-        <v>1190435</v>
+        <v>1160167</v>
       </c>
       <c r="AX24" s="22" t="n">
-        <v>1160167</v>
+        <v>1113749</v>
       </c>
       <c r="AY24" s="22" t="n">
-        <v>1113749</v>
+        <v>791227</v>
       </c>
       <c r="AZ24" s="22" t="n">
-        <v>791227</v>
+        <v>1092912</v>
       </c>
       <c r="BA24" s="22" t="n">
-        <v>1092912</v>
+        <v>1156632</v>
       </c>
       <c r="BB24" s="22" t="n">
-        <v>1156632</v>
+        <v>1300402</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,82 +5788,82 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="n">
-        <v>30741</v>
-      </c>
-      <c r="F31" s="13" t="n">
         <v>15927</v>
       </c>
+      <c r="F31" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G31" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>57</v>
+      <c r="I31" s="13" t="n">
+        <v>31652</v>
       </c>
       <c r="J31" s="13" t="n">
-        <v>31652</v>
+        <v>32060</v>
       </c>
       <c r="K31" s="13" t="n">
-        <v>32060</v>
+        <v>29486</v>
       </c>
       <c r="L31" s="13" t="n">
-        <v>29486</v>
+        <v>47856</v>
       </c>
       <c r="M31" s="13" t="n">
-        <v>47856</v>
+        <v>34387</v>
       </c>
       <c r="N31" s="13" t="n">
-        <v>34387</v>
+        <v>0</v>
       </c>
       <c r="O31" s="13" t="n">
-        <v>0</v>
+        <v>33731</v>
       </c>
       <c r="P31" s="13" t="n">
-        <v>33731</v>
+        <v>115352</v>
       </c>
       <c r="Q31" s="13" t="n">
-        <v>115352</v>
+        <v>98630</v>
       </c>
       <c r="R31" s="13" t="n">
-        <v>98630</v>
+        <v>108341</v>
       </c>
       <c r="S31" s="13" t="n">
-        <v>108341</v>
+        <v>97677</v>
       </c>
       <c r="T31" s="13" t="n">
-        <v>97677</v>
+        <v>31522</v>
       </c>
       <c r="U31" s="13" t="n">
-        <v>31522</v>
+        <v>4840</v>
       </c>
       <c r="V31" s="13" t="n">
-        <v>4840</v>
+        <v>3507</v>
       </c>
       <c r="W31" s="13" t="n">
-        <v>3507</v>
+        <v>8329</v>
       </c>
       <c r="X31" s="13" t="n">
-        <v>8329</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="13" t="n">
-        <v>0</v>
+        <v>10783</v>
       </c>
       <c r="Z31" s="13" t="n">
-        <v>10783</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="13" t="n">
-        <v>0</v>
+        <v>7336</v>
       </c>
       <c r="AB31" s="13" t="n">
-        <v>7336</v>
+        <v>47037</v>
       </c>
       <c r="AC31" s="13" t="n">
-        <v>47037</v>
+        <v>1063</v>
       </c>
       <c r="AD31" s="13" t="n">
-        <v>1063</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="13" t="n">
         <v>0</v>
@@ -5875,67 +5875,67 @@
         <v>0</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>0</v>
+        <v>24903</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>24903</v>
+        <v>218</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>218</v>
+        <v>16318</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>16318</v>
+        <v>30393</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>30393</v>
+        <v>36127</v>
       </c>
       <c r="AM31" s="13" t="n">
-        <v>36127</v>
+        <v>45229</v>
       </c>
       <c r="AN31" s="13" t="n">
-        <v>45229</v>
+        <v>74156</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>74156</v>
+        <v>34683</v>
       </c>
       <c r="AP31" s="13" t="n">
-        <v>34683</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="13" t="n">
-        <v>0</v>
+        <v>50007</v>
       </c>
       <c r="AR31" s="13" t="n">
-        <v>50007</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>0</v>
+        <v>20752</v>
       </c>
       <c r="AT31" s="13" t="n">
-        <v>20752</v>
+        <v>44038</v>
       </c>
       <c r="AU31" s="13" t="n">
-        <v>44038</v>
+        <v>18165</v>
       </c>
       <c r="AV31" s="13" t="n">
-        <v>18165</v>
+        <v>35724</v>
       </c>
       <c r="AW31" s="13" t="n">
-        <v>35724</v>
+        <v>27038</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>27038</v>
+        <v>46456</v>
       </c>
       <c r="AY31" s="13" t="n">
-        <v>46456</v>
+        <v>54356</v>
       </c>
       <c r="AZ31" s="13" t="n">
-        <v>54356</v>
+        <v>70927</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>70927</v>
+        <v>43283</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>43283</v>
+        <v>20701</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5985,18 +5985,18 @@
       <c r="Q32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R32" s="16" t="s">
-        <v>57</v>
+      <c r="R32" s="16" t="n">
+        <v>108439</v>
       </c>
       <c r="S32" s="16" t="n">
-        <v>108439</v>
+        <v>101131</v>
       </c>
       <c r="T32" s="16" t="n">
-        <v>101131</v>
-      </c>
-      <c r="U32" s="16" t="n">
         <v>99760</v>
       </c>
+      <c r="U32" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V32" s="16" t="s">
         <v>57</v>
       </c>
@@ -6054,47 +6054,47 @@
       <c r="AN32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO32" s="16" t="s">
-        <v>57</v>
+      <c r="AO32" s="16" t="n">
+        <v>317818</v>
       </c>
       <c r="AP32" s="16" t="n">
-        <v>317818</v>
+        <v>58322</v>
       </c>
       <c r="AQ32" s="16" t="n">
-        <v>58322</v>
+        <v>87940</v>
       </c>
       <c r="AR32" s="16" t="n">
-        <v>87940</v>
+        <v>256695</v>
       </c>
       <c r="AS32" s="16" t="n">
-        <v>256695</v>
+        <v>88526</v>
       </c>
       <c r="AT32" s="16" t="n">
-        <v>88526</v>
+        <v>68109</v>
       </c>
       <c r="AU32" s="16" t="n">
-        <v>68109</v>
+        <v>113635</v>
       </c>
       <c r="AV32" s="16" t="n">
-        <v>113635</v>
+        <v>147475</v>
       </c>
       <c r="AW32" s="16" t="n">
-        <v>147475</v>
+        <v>92022</v>
       </c>
       <c r="AX32" s="16" t="n">
-        <v>92022</v>
+        <v>76248</v>
       </c>
       <c r="AY32" s="16" t="n">
-        <v>76248</v>
+        <v>107064</v>
       </c>
       <c r="AZ32" s="16" t="n">
-        <v>107064</v>
+        <v>104941</v>
       </c>
       <c r="BA32" s="16" t="n">
-        <v>104941</v>
+        <v>157157</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>157157</v>
+        <v>78258</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,12 +6141,12 @@
       <c r="P33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R33" s="13" t="n">
+      <c r="Q33" s="13" t="n">
         <v>12828</v>
       </c>
+      <c r="R33" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S33" s="13" t="s">
         <v>57</v>
       </c>
@@ -6189,26 +6189,26 @@
       <c r="AF33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG33" s="13" t="s">
-        <v>57</v>
+      <c r="AG33" s="13" t="n">
+        <v>54</v>
       </c>
       <c r="AH33" s="13" t="n">
-        <v>54</v>
+        <v>9032</v>
       </c>
       <c r="AI33" s="13" t="n">
-        <v>9032</v>
+        <v>8191</v>
       </c>
       <c r="AJ33" s="13" t="n">
-        <v>8191</v>
+        <v>7846</v>
       </c>
       <c r="AK33" s="13" t="n">
-        <v>7846</v>
+        <v>10267</v>
       </c>
       <c r="AL33" s="13" t="n">
-        <v>10267</v>
+        <v>7446</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>7446</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="13" t="n">
         <v>0</v>
@@ -6223,16 +6223,16 @@
         <v>0</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>0</v>
+        <v>15709</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>15709</v>
+        <v>20884</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>20884</v>
+        <v>11106</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>11106</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="13" t="n">
         <v>0</v>
@@ -6241,19 +6241,19 @@
         <v>0</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>0</v>
+        <v>24977</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>24977</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="13" t="n">
         <v>0</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6265,115 +6265,115 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16" t="n">
-        <v>29337</v>
+        <v>30500</v>
       </c>
       <c r="F34" s="16" t="n">
-        <v>30500</v>
+        <v>84044</v>
       </c>
       <c r="G34" s="16" t="n">
-        <v>84044</v>
+        <v>0</v>
       </c>
       <c r="H34" s="16" t="n">
-        <v>0</v>
+        <v>56640</v>
       </c>
       <c r="I34" s="16" t="n">
-        <v>56640</v>
+        <v>0</v>
       </c>
       <c r="J34" s="16" t="n">
-        <v>0</v>
+        <v>61125</v>
       </c>
       <c r="K34" s="16" t="n">
-        <v>61125</v>
+        <v>41441</v>
       </c>
       <c r="L34" s="16" t="n">
-        <v>41441</v>
+        <v>0</v>
       </c>
       <c r="M34" s="16" t="n">
-        <v>0</v>
+        <v>39624</v>
       </c>
       <c r="N34" s="16" t="n">
-        <v>39624</v>
+        <v>0</v>
       </c>
       <c r="O34" s="16" t="n">
-        <v>0</v>
+        <v>39978</v>
       </c>
       <c r="P34" s="16" t="n">
-        <v>39978</v>
+        <v>38722</v>
       </c>
       <c r="Q34" s="16" t="n">
-        <v>38722</v>
-      </c>
-      <c r="R34" s="16" t="n">
         <v>39519</v>
       </c>
+      <c r="R34" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S34" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U34" s="16" t="s">
-        <v>57</v>
+      <c r="U34" s="16" t="n">
+        <v>39779</v>
       </c>
       <c r="V34" s="16" t="n">
-        <v>39779</v>
+        <v>88287</v>
       </c>
       <c r="W34" s="16" t="n">
-        <v>88287</v>
+        <v>0</v>
       </c>
       <c r="X34" s="16" t="n">
-        <v>0</v>
+        <v>69757</v>
       </c>
       <c r="Y34" s="16" t="n">
-        <v>69757</v>
+        <v>40062</v>
       </c>
       <c r="Z34" s="16" t="n">
-        <v>40062</v>
+        <v>29678</v>
       </c>
       <c r="AA34" s="16" t="n">
-        <v>29678</v>
+        <v>29839</v>
       </c>
       <c r="AB34" s="16" t="n">
-        <v>29839</v>
+        <v>44822</v>
       </c>
       <c r="AC34" s="16" t="n">
-        <v>44822</v>
+        <v>60374</v>
       </c>
       <c r="AD34" s="16" t="n">
-        <v>60374</v>
+        <v>30989</v>
       </c>
       <c r="AE34" s="16" t="n">
-        <v>30989</v>
+        <v>142786</v>
       </c>
       <c r="AF34" s="16" t="n">
-        <v>142786</v>
+        <v>39773</v>
       </c>
       <c r="AG34" s="16" t="n">
-        <v>39773</v>
+        <v>137483</v>
       </c>
       <c r="AH34" s="16" t="n">
-        <v>137483</v>
+        <v>112583</v>
       </c>
       <c r="AI34" s="16" t="n">
-        <v>112583</v>
+        <v>40347</v>
       </c>
       <c r="AJ34" s="16" t="n">
-        <v>40347</v>
+        <v>66548</v>
       </c>
       <c r="AK34" s="16" t="n">
-        <v>66548</v>
+        <v>121959</v>
       </c>
       <c r="AL34" s="16" t="n">
-        <v>121959</v>
+        <v>41583</v>
       </c>
       <c r="AM34" s="16" t="n">
-        <v>41583</v>
+        <v>109774</v>
       </c>
       <c r="AN34" s="16" t="n">
-        <v>109774</v>
-      </c>
-      <c r="AO34" s="16" t="n">
         <v>41463</v>
+      </c>
+      <c r="AO34" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP34" s="16" t="s">
         <v>57</v>
@@ -6424,115 +6424,115 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="n">
-        <v>120624</v>
+        <v>58634</v>
       </c>
       <c r="F35" s="13" t="n">
-        <v>58634</v>
+        <v>28565</v>
       </c>
       <c r="G35" s="13" t="n">
-        <v>28565</v>
+        <v>78150</v>
       </c>
       <c r="H35" s="13" t="n">
-        <v>78150</v>
+        <v>71048</v>
       </c>
       <c r="I35" s="13" t="n">
-        <v>71048</v>
+        <v>83665</v>
       </c>
       <c r="J35" s="13" t="n">
-        <v>83665</v>
+        <v>62902</v>
       </c>
       <c r="K35" s="13" t="n">
-        <v>62902</v>
+        <v>70603</v>
       </c>
       <c r="L35" s="13" t="n">
-        <v>70603</v>
+        <v>63230</v>
       </c>
       <c r="M35" s="13" t="n">
-        <v>63230</v>
+        <v>65610</v>
       </c>
       <c r="N35" s="13" t="n">
-        <v>65610</v>
+        <v>55462</v>
       </c>
       <c r="O35" s="13" t="n">
-        <v>55462</v>
+        <v>56824</v>
       </c>
       <c r="P35" s="13" t="n">
-        <v>56824</v>
+        <v>64901</v>
       </c>
       <c r="Q35" s="13" t="n">
-        <v>64901</v>
-      </c>
-      <c r="R35" s="13" t="n">
         <v>59820</v>
       </c>
+      <c r="R35" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S35" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U35" s="13" t="s">
-        <v>57</v>
+      <c r="U35" s="13" t="n">
+        <v>79921</v>
       </c>
       <c r="V35" s="13" t="n">
-        <v>79921</v>
+        <v>69098</v>
       </c>
       <c r="W35" s="13" t="n">
-        <v>69098</v>
+        <v>75779</v>
       </c>
       <c r="X35" s="13" t="n">
-        <v>75779</v>
+        <v>90506</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>90506</v>
+        <v>72512</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>72512</v>
+        <v>93483</v>
       </c>
       <c r="AA35" s="13" t="n">
-        <v>93483</v>
+        <v>66471</v>
       </c>
       <c r="AB35" s="13" t="n">
-        <v>66471</v>
+        <v>46580</v>
       </c>
       <c r="AC35" s="13" t="n">
-        <v>46580</v>
+        <v>82485</v>
       </c>
       <c r="AD35" s="13" t="n">
-        <v>82485</v>
+        <v>47954</v>
       </c>
       <c r="AE35" s="13" t="n">
-        <v>47954</v>
+        <v>32964</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>32964</v>
+        <v>46050</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>46050</v>
+        <v>19916</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>19916</v>
+        <v>30683</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>30683</v>
+        <v>51773</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>51773</v>
+        <v>57033</v>
       </c>
       <c r="AK35" s="13" t="n">
-        <v>57033</v>
+        <v>67190</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>67190</v>
+        <v>60256</v>
       </c>
       <c r="AM35" s="13" t="n">
-        <v>60256</v>
+        <v>71222</v>
       </c>
       <c r="AN35" s="13" t="n">
-        <v>71222</v>
-      </c>
-      <c r="AO35" s="13" t="n">
         <v>81738</v>
+      </c>
+      <c r="AO35" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP35" s="13" t="s">
         <v>57</v>
@@ -6690,47 +6690,47 @@
       <c r="AN36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP36" s="16" t="n">
+      <c r="AO36" s="16" t="n">
         <v>276042</v>
       </c>
+      <c r="AP36" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR36" s="16" t="s">
-        <v>57</v>
+      <c r="AR36" s="16" t="n">
+        <v>99197</v>
       </c>
       <c r="AS36" s="16" t="n">
-        <v>99197</v>
+        <v>120092</v>
       </c>
       <c r="AT36" s="16" t="n">
-        <v>120092</v>
+        <v>106637</v>
       </c>
       <c r="AU36" s="16" t="n">
-        <v>106637</v>
+        <v>348173</v>
       </c>
       <c r="AV36" s="16" t="n">
-        <v>348173</v>
+        <v>172483</v>
       </c>
       <c r="AW36" s="16" t="n">
-        <v>172483</v>
+        <v>222271</v>
       </c>
       <c r="AX36" s="16" t="n">
-        <v>222271</v>
+        <v>257477</v>
       </c>
       <c r="AY36" s="16" t="n">
-        <v>257477</v>
+        <v>159275</v>
       </c>
       <c r="AZ36" s="16" t="n">
-        <v>159275</v>
+        <v>230114</v>
       </c>
       <c r="BA36" s="16" t="n">
-        <v>230114</v>
+        <v>254817</v>
       </c>
       <c r="BB36" s="16" t="n">
-        <v>254817</v>
+        <v>154224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,53 +6759,53 @@
       <c r="J37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K37" s="13" t="s">
-        <v>57</v>
+      <c r="K37" s="13" t="n">
+        <v>18248</v>
       </c>
       <c r="L37" s="13" t="n">
-        <v>18248</v>
+        <v>0</v>
       </c>
       <c r="M37" s="13" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="N37" s="13" t="n">
-        <v>990</v>
+        <v>8030</v>
       </c>
       <c r="O37" s="13" t="n">
-        <v>8030</v>
+        <v>7331</v>
       </c>
       <c r="P37" s="13" t="n">
-        <v>7331</v>
+        <v>3117</v>
       </c>
       <c r="Q37" s="13" t="n">
-        <v>3117</v>
-      </c>
-      <c r="R37" s="13" t="n">
         <v>2101</v>
       </c>
-      <c r="S37" s="13" t="s">
-        <v>57</v>
+      <c r="R37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S37" s="13" t="n">
+        <v>678</v>
       </c>
       <c r="T37" s="13" t="n">
-        <v>678</v>
+        <v>282</v>
       </c>
       <c r="U37" s="13" t="n">
-        <v>282</v>
+        <v>2001</v>
       </c>
       <c r="V37" s="13" t="n">
-        <v>2001</v>
+        <v>1965</v>
       </c>
       <c r="W37" s="13" t="n">
-        <v>1965</v>
+        <v>0</v>
       </c>
       <c r="X37" s="13" t="n">
-        <v>0</v>
+        <v>961</v>
       </c>
       <c r="Y37" s="13" t="n">
-        <v>961</v>
+        <v>4396</v>
       </c>
       <c r="Z37" s="13" t="n">
-        <v>4396</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="13" t="n">
         <v>0</v>
@@ -6816,11 +6816,11 @@
       <c r="AC37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD37" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="13" t="s">
-        <v>57</v>
+      <c r="AD37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AF37" s="13" t="n">
         <v>0</v>
@@ -6852,8 +6852,8 @@
       <c r="AO37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP37" s="13" t="n">
-        <v>0</v>
+      <c r="AP37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ37" s="13" t="s">
         <v>57</v>
@@ -6901,115 +6901,115 @@
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16" t="n">
-        <v>112485</v>
+        <v>134999</v>
       </c>
       <c r="F38" s="16" t="n">
-        <v>134999</v>
+        <v>52235</v>
       </c>
       <c r="G38" s="16" t="n">
-        <v>52235</v>
+        <v>123910</v>
       </c>
       <c r="H38" s="16" t="n">
-        <v>123910</v>
+        <v>91857</v>
       </c>
       <c r="I38" s="16" t="n">
-        <v>91857</v>
+        <v>89138</v>
       </c>
       <c r="J38" s="16" t="n">
-        <v>89138</v>
+        <v>109284</v>
       </c>
       <c r="K38" s="16" t="n">
-        <v>109284</v>
+        <v>111195</v>
       </c>
       <c r="L38" s="16" t="n">
-        <v>111195</v>
+        <v>77009</v>
       </c>
       <c r="M38" s="16" t="n">
-        <v>77009</v>
+        <v>106188</v>
       </c>
       <c r="N38" s="16" t="n">
-        <v>106188</v>
+        <v>120200</v>
       </c>
       <c r="O38" s="16" t="n">
-        <v>120200</v>
+        <v>101696</v>
       </c>
       <c r="P38" s="16" t="n">
-        <v>101696</v>
+        <v>83311</v>
       </c>
       <c r="Q38" s="16" t="n">
-        <v>83311</v>
-      </c>
-      <c r="R38" s="16" t="n">
         <v>101831</v>
       </c>
+      <c r="R38" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S38" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U38" s="16" t="s">
-        <v>57</v>
+      <c r="U38" s="16" t="n">
+        <v>101102</v>
       </c>
       <c r="V38" s="16" t="n">
-        <v>101102</v>
+        <v>116345</v>
       </c>
       <c r="W38" s="16" t="n">
-        <v>116345</v>
+        <v>93110</v>
       </c>
       <c r="X38" s="16" t="n">
-        <v>93110</v>
+        <v>109943</v>
       </c>
       <c r="Y38" s="16" t="n">
-        <v>109943</v>
+        <v>99905</v>
       </c>
       <c r="Z38" s="16" t="n">
-        <v>99905</v>
+        <v>63318</v>
       </c>
       <c r="AA38" s="16" t="n">
-        <v>63318</v>
+        <v>78787</v>
       </c>
       <c r="AB38" s="16" t="n">
-        <v>78787</v>
+        <v>63593</v>
       </c>
       <c r="AC38" s="16" t="n">
-        <v>63593</v>
+        <v>77922</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>77922</v>
+        <v>77499</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>77499</v>
+        <v>79844</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>79844</v>
+        <v>49469</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>49469</v>
+        <v>34955</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>34955</v>
+        <v>39543</v>
       </c>
       <c r="AI38" s="16" t="n">
-        <v>39543</v>
+        <v>49736</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>49736</v>
+        <v>69465</v>
       </c>
       <c r="AK38" s="16" t="n">
-        <v>69465</v>
+        <v>55348</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>55348</v>
+        <v>76665</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>76665</v>
+        <v>70177</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>70177</v>
-      </c>
-      <c r="AO38" s="16" t="n">
         <v>65453</v>
+      </c>
+      <c r="AO38" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP38" s="16" t="s">
         <v>57</v>
@@ -7060,115 +7060,115 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="n">
-        <v>130050</v>
+        <v>153024</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>153024</v>
+        <v>174416</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>174416</v>
+        <v>140279</v>
       </c>
       <c r="H39" s="13" t="n">
-        <v>140279</v>
+        <v>93928</v>
       </c>
       <c r="I39" s="13" t="n">
-        <v>93928</v>
+        <v>163465</v>
       </c>
       <c r="J39" s="13" t="n">
-        <v>163465</v>
+        <v>113647</v>
       </c>
       <c r="K39" s="13" t="n">
-        <v>113647</v>
+        <v>72394</v>
       </c>
       <c r="L39" s="13" t="n">
-        <v>72394</v>
+        <v>82297</v>
       </c>
       <c r="M39" s="13" t="n">
-        <v>82297</v>
+        <v>142858</v>
       </c>
       <c r="N39" s="13" t="n">
-        <v>142858</v>
+        <v>108128</v>
       </c>
       <c r="O39" s="13" t="n">
-        <v>108128</v>
+        <v>135293</v>
       </c>
       <c r="P39" s="13" t="n">
-        <v>135293</v>
+        <v>90462</v>
       </c>
       <c r="Q39" s="13" t="n">
-        <v>90462</v>
-      </c>
-      <c r="R39" s="13" t="n">
         <v>119402</v>
       </c>
+      <c r="R39" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S39" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U39" s="13" t="s">
-        <v>57</v>
+      <c r="U39" s="13" t="n">
+        <v>92369</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>92369</v>
+        <v>114338</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>114338</v>
+        <v>65052</v>
       </c>
       <c r="X39" s="13" t="n">
-        <v>65052</v>
+        <v>135671</v>
       </c>
       <c r="Y39" s="13" t="n">
-        <v>135671</v>
+        <v>32350</v>
       </c>
       <c r="Z39" s="13" t="n">
-        <v>32350</v>
+        <v>122237</v>
       </c>
       <c r="AA39" s="13" t="n">
-        <v>122237</v>
+        <v>125725</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>125725</v>
+        <v>59186</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>59186</v>
+        <v>79780</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>79780</v>
+        <v>118394</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>118394</v>
+        <v>49017</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>49017</v>
+        <v>142361</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>142361</v>
+        <v>86358</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>86358</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>0</v>
+        <v>3664</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>3664</v>
+        <v>4789</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>4789</v>
+        <v>20153</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>20153</v>
+        <v>173777</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>173777</v>
+        <v>68177</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>68177</v>
-      </c>
-      <c r="AO39" s="13" t="n">
         <v>45006</v>
+      </c>
+      <c r="AO39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP39" s="13" t="s">
         <v>57</v>
@@ -7257,18 +7257,18 @@
       <c r="Q40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R40" s="16" t="s">
-        <v>57</v>
+      <c r="R40" s="16" t="n">
+        <v>222227</v>
       </c>
       <c r="S40" s="16" t="n">
-        <v>222227</v>
+        <v>149192</v>
       </c>
       <c r="T40" s="16" t="n">
-        <v>149192</v>
-      </c>
-      <c r="U40" s="16" t="n">
         <v>213867</v>
       </c>
+      <c r="U40" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V40" s="16" t="s">
         <v>57</v>
       </c>
@@ -7329,14 +7329,14 @@
       <c r="AO40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP40" s="16" t="s">
-        <v>57</v>
+      <c r="AP40" s="16" t="n">
+        <v>125721</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>125721</v>
-      </c>
-      <c r="AR40" s="16" t="n">
         <v>171437</v>
+      </c>
+      <c r="AR40" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AS40" s="16" t="s">
         <v>57</v>
@@ -7425,11 +7425,11 @@
       <c r="T41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U41" s="13" t="s">
-        <v>57</v>
+      <c r="U41" s="13" t="n">
+        <v>2138</v>
       </c>
       <c r="V41" s="13" t="n">
-        <v>2138</v>
+        <v>0</v>
       </c>
       <c r="W41" s="13" t="n">
         <v>0</v>
@@ -7452,8 +7452,8 @@
       <c r="AC41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD41" s="13" t="n">
-        <v>0</v>
+      <c r="AD41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE41" s="13" t="s">
         <v>57</v>
@@ -7461,32 +7461,32 @@
       <c r="AF41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH41" s="13" t="n">
-        <v>0</v>
+      <c r="AG41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ41" s="13" t="s">
-        <v>57</v>
+      <c r="AJ41" s="13" t="n">
+        <v>17649</v>
       </c>
       <c r="AK41" s="13" t="n">
-        <v>17649</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AM41" s="13" t="n">
-        <v>0</v>
+        <v>23032</v>
       </c>
       <c r="AN41" s="13" t="n">
-        <v>23032</v>
-      </c>
-      <c r="AO41" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP41" s="13" t="s">
         <v>57</v>
@@ -7639,8 +7639,8 @@
       <c r="T43" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U43" s="20" t="s">
-        <v>57</v>
+      <c r="U43" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="20" t="n">
         <v>0</v>
@@ -7853,8 +7853,8 @@
       <c r="T45" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U45" s="20" t="s">
-        <v>57</v>
+      <c r="U45" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="20" t="n">
         <v>0</v>
@@ -7963,154 +7963,154 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22" t="n">
-        <v>423237</v>
+        <v>393084</v>
       </c>
       <c r="F46" s="22" t="n">
-        <v>393084</v>
+        <v>339260</v>
       </c>
       <c r="G46" s="22" t="n">
-        <v>339260</v>
+        <v>342339</v>
       </c>
       <c r="H46" s="22" t="n">
-        <v>342339</v>
+        <v>313473</v>
       </c>
       <c r="I46" s="22" t="n">
-        <v>313473</v>
+        <v>367920</v>
       </c>
       <c r="J46" s="22" t="n">
-        <v>367920</v>
+        <v>379018</v>
       </c>
       <c r="K46" s="22" t="n">
-        <v>379018</v>
+        <v>343367</v>
       </c>
       <c r="L46" s="22" t="n">
-        <v>343367</v>
+        <v>270392</v>
       </c>
       <c r="M46" s="22" t="n">
-        <v>270392</v>
+        <v>389657</v>
       </c>
       <c r="N46" s="22" t="n">
-        <v>389657</v>
+        <v>291820</v>
       </c>
       <c r="O46" s="22" t="n">
-        <v>291820</v>
+        <v>374853</v>
       </c>
       <c r="P46" s="22" t="n">
-        <v>374853</v>
+        <v>395865</v>
       </c>
       <c r="Q46" s="22" t="n">
-        <v>395865</v>
+        <v>434131</v>
       </c>
       <c r="R46" s="22" t="n">
-        <v>434131</v>
+        <v>439007</v>
       </c>
       <c r="S46" s="22" t="n">
-        <v>439007</v>
+        <v>348678</v>
       </c>
       <c r="T46" s="22" t="n">
-        <v>348678</v>
+        <v>345431</v>
       </c>
       <c r="U46" s="22" t="n">
-        <v>345431</v>
+        <v>322150</v>
       </c>
       <c r="V46" s="22" t="n">
-        <v>322150</v>
+        <v>393540</v>
       </c>
       <c r="W46" s="22" t="n">
-        <v>393540</v>
+        <v>242270</v>
       </c>
       <c r="X46" s="22" t="n">
-        <v>242270</v>
+        <v>406838</v>
       </c>
       <c r="Y46" s="22" t="n">
-        <v>406838</v>
+        <v>260008</v>
       </c>
       <c r="Z46" s="22" t="n">
-        <v>260008</v>
+        <v>308716</v>
       </c>
       <c r="AA46" s="22" t="n">
-        <v>308716</v>
+        <v>308158</v>
       </c>
       <c r="AB46" s="22" t="n">
-        <v>308158</v>
+        <v>261218</v>
       </c>
       <c r="AC46" s="22" t="n">
-        <v>261218</v>
+        <v>301624</v>
       </c>
       <c r="AD46" s="22" t="n">
-        <v>301624</v>
+        <v>274836</v>
       </c>
       <c r="AE46" s="22" t="n">
-        <v>274836</v>
+        <v>304611</v>
       </c>
       <c r="AF46" s="22" t="n">
-        <v>304611</v>
+        <v>277653</v>
       </c>
       <c r="AG46" s="22" t="n">
-        <v>277653</v>
+        <v>278766</v>
       </c>
       <c r="AH46" s="22" t="n">
-        <v>278766</v>
+        <v>216744</v>
       </c>
       <c r="AI46" s="22" t="n">
-        <v>216744</v>
+        <v>153929</v>
       </c>
       <c r="AJ46" s="22" t="n">
-        <v>153929</v>
+        <v>239648</v>
       </c>
       <c r="AK46" s="22" t="n">
-        <v>239648</v>
+        <v>305310</v>
       </c>
       <c r="AL46" s="22" t="n">
-        <v>305310</v>
+        <v>395854</v>
       </c>
       <c r="AM46" s="22" t="n">
-        <v>395854</v>
+        <v>387611</v>
       </c>
       <c r="AN46" s="22" t="n">
-        <v>387611</v>
+        <v>307816</v>
       </c>
       <c r="AO46" s="22" t="n">
-        <v>307816</v>
+        <v>628543</v>
       </c>
       <c r="AP46" s="22" t="n">
-        <v>628543</v>
+        <v>184043</v>
       </c>
       <c r="AQ46" s="22" t="n">
-        <v>184043</v>
+        <v>309384</v>
       </c>
       <c r="AR46" s="22" t="n">
-        <v>309384</v>
+        <v>371601</v>
       </c>
       <c r="AS46" s="22" t="n">
-        <v>371601</v>
+        <v>250254</v>
       </c>
       <c r="AT46" s="22" t="n">
-        <v>250254</v>
+        <v>229890</v>
       </c>
       <c r="AU46" s="22" t="n">
-        <v>229890</v>
+        <v>479973</v>
       </c>
       <c r="AV46" s="22" t="n">
-        <v>479973</v>
+        <v>355682</v>
       </c>
       <c r="AW46" s="22" t="n">
-        <v>355682</v>
+        <v>341331</v>
       </c>
       <c r="AX46" s="22" t="n">
-        <v>341331</v>
+        <v>405158</v>
       </c>
       <c r="AY46" s="22" t="n">
-        <v>405158</v>
+        <v>320695</v>
       </c>
       <c r="AZ46" s="22" t="n">
-        <v>320695</v>
+        <v>405982</v>
       </c>
       <c r="BA46" s="22" t="n">
-        <v>405982</v>
+        <v>455222</v>
       </c>
       <c r="BB46" s="22" t="n">
-        <v>455222</v>
+        <v>253183</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8556,82 +8556,82 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="n">
-        <v>211375</v>
-      </c>
-      <c r="F53" s="13" t="n">
         <v>190538</v>
       </c>
+      <c r="F53" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G53" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="13" t="s">
-        <v>57</v>
+      <c r="I53" s="13" t="n">
+        <v>285248</v>
       </c>
       <c r="J53" s="13" t="n">
-        <v>285248</v>
+        <v>305885</v>
       </c>
       <c r="K53" s="13" t="n">
-        <v>305885</v>
+        <v>265901</v>
       </c>
       <c r="L53" s="13" t="n">
-        <v>265901</v>
+        <v>432764</v>
       </c>
       <c r="M53" s="13" t="n">
-        <v>432764</v>
+        <v>303602</v>
       </c>
       <c r="N53" s="13" t="n">
-        <v>303602</v>
+        <v>0</v>
       </c>
       <c r="O53" s="13" t="n">
-        <v>0</v>
+        <v>319261</v>
       </c>
       <c r="P53" s="13" t="n">
-        <v>319261</v>
+        <v>1173601</v>
       </c>
       <c r="Q53" s="13" t="n">
-        <v>1173601</v>
+        <v>1137817</v>
       </c>
       <c r="R53" s="13" t="n">
-        <v>1137817</v>
+        <v>1245565</v>
       </c>
       <c r="S53" s="13" t="n">
-        <v>1245565</v>
+        <v>1093040</v>
       </c>
       <c r="T53" s="13" t="n">
-        <v>1093040</v>
+        <v>407546</v>
       </c>
       <c r="U53" s="13" t="n">
-        <v>407546</v>
+        <v>67777</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>67777</v>
+        <v>56854</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>56854</v>
+        <v>150435</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>150435</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>0</v>
+        <v>261174</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>261174</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>0</v>
+        <v>191476</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>191476</v>
+        <v>1150213</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>1150213</v>
+        <v>27752</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>27752</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="13" t="n">
         <v>0</v>
@@ -8643,67 +8643,67 @@
         <v>0</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>0</v>
+        <v>895116</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>895116</v>
+        <v>7856</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>7856</v>
+        <v>569957</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>569957</v>
+        <v>1096016</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>1096016</v>
+        <v>1257921</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>1257921</v>
+        <v>1568235</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>1568235</v>
+        <v>2766542</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>2766542</v>
+        <v>1468731</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>1468731</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>0</v>
+        <v>1817350</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>1817350</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>0</v>
+        <v>695838</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>695838</v>
+        <v>1137049</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>1137049</v>
+        <v>487915</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>487915</v>
+        <v>1001422</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>1001422</v>
+        <v>788880</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>788880</v>
+        <v>1389211</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>1389211</v>
+        <v>1949853</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>1949853</v>
+        <v>2706146</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>2706146</v>
+        <v>1760598</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>1760598</v>
+        <v>865323</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8753,18 +8753,18 @@
       <c r="Q54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R54" s="16" t="s">
-        <v>57</v>
+      <c r="R54" s="16" t="n">
+        <v>5527388</v>
       </c>
       <c r="S54" s="16" t="n">
-        <v>5527388</v>
+        <v>5076714</v>
       </c>
       <c r="T54" s="16" t="n">
-        <v>5076714</v>
-      </c>
-      <c r="U54" s="16" t="n">
         <v>5402383</v>
       </c>
+      <c r="U54" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V54" s="16" t="s">
         <v>57</v>
       </c>
@@ -8822,47 +8822,47 @@
       <c r="AN54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO54" s="16" t="s">
-        <v>57</v>
+      <c r="AO54" s="16" t="n">
+        <v>45705838</v>
       </c>
       <c r="AP54" s="16" t="n">
-        <v>45705838</v>
+        <v>9079409</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>9079409</v>
+        <v>12807484</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>12807484</v>
+        <v>43489028</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>43489028</v>
+        <v>13335009</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>13335009</v>
+        <v>9655515</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>9655515</v>
+        <v>13769223</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>13769223</v>
+        <v>17367196</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>17367196</v>
+        <v>11562359</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>11562359</v>
+        <v>9840418</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>9840418</v>
+        <v>12320929</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>12320929</v>
+        <v>13945433</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>13945433</v>
+        <v>27619422</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>27619422</v>
+        <v>15368762</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8909,12 +8909,12 @@
       <c r="P55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R55" s="13" t="n">
+      <c r="Q55" s="13" t="n">
         <v>269309</v>
       </c>
+      <c r="R55" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S55" s="13" t="s">
         <v>57</v>
       </c>
@@ -8957,26 +8957,26 @@
       <c r="AF55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG55" s="13" t="s">
-        <v>57</v>
+      <c r="AG55" s="13" t="n">
+        <v>4449</v>
       </c>
       <c r="AH55" s="13" t="n">
-        <v>4449</v>
+        <v>753174</v>
       </c>
       <c r="AI55" s="13" t="n">
-        <v>753174</v>
+        <v>669679</v>
       </c>
       <c r="AJ55" s="13" t="n">
-        <v>669679</v>
+        <v>658525</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>658525</v>
+        <v>877656</v>
       </c>
       <c r="AL55" s="13" t="n">
-        <v>877656</v>
+        <v>625730</v>
       </c>
       <c r="AM55" s="13" t="n">
-        <v>625730</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="13" t="n">
         <v>0</v>
@@ -8991,16 +8991,16 @@
         <v>0</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>0</v>
+        <v>1499746</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>1499746</v>
+        <v>1796654</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>1796654</v>
+        <v>896077</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>896077</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="13" t="n">
         <v>0</v>
@@ -9009,19 +9009,19 @@
         <v>0</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>0</v>
+        <v>1987631</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>1987631</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="13" t="n">
         <v>0</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>0</v>
+        <v>-2803</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>-2803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9033,115 +9033,115 @@
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16" t="n">
-        <v>971452</v>
+        <v>971883</v>
       </c>
       <c r="F56" s="16" t="n">
-        <v>971883</v>
+        <v>2521643</v>
       </c>
       <c r="G56" s="16" t="n">
-        <v>2521643</v>
+        <v>0</v>
       </c>
       <c r="H56" s="16" t="n">
-        <v>0</v>
+        <v>2486073</v>
       </c>
       <c r="I56" s="16" t="n">
-        <v>2486073</v>
+        <v>0</v>
       </c>
       <c r="J56" s="16" t="n">
-        <v>0</v>
+        <v>2635410</v>
       </c>
       <c r="K56" s="16" t="n">
-        <v>2635410</v>
+        <v>1736032</v>
       </c>
       <c r="L56" s="16" t="n">
-        <v>1736032</v>
+        <v>0</v>
       </c>
       <c r="M56" s="16" t="n">
-        <v>0</v>
+        <v>1533692</v>
       </c>
       <c r="N56" s="16" t="n">
-        <v>1533692</v>
+        <v>0</v>
       </c>
       <c r="O56" s="16" t="n">
-        <v>0</v>
+        <v>1555489</v>
       </c>
       <c r="P56" s="16" t="n">
-        <v>1555489</v>
+        <v>1624221</v>
       </c>
       <c r="Q56" s="16" t="n">
-        <v>1624221</v>
-      </c>
-      <c r="R56" s="16" t="n">
         <v>2024865</v>
       </c>
+      <c r="R56" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S56" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T56" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>57</v>
+      <c r="U56" s="16" t="n">
+        <v>2163418</v>
       </c>
       <c r="V56" s="16" t="n">
-        <v>2163418</v>
+        <v>5555592</v>
       </c>
       <c r="W56" s="16" t="n">
-        <v>5555592</v>
+        <v>0</v>
       </c>
       <c r="X56" s="16" t="n">
-        <v>0</v>
+        <v>6262874</v>
       </c>
       <c r="Y56" s="16" t="n">
-        <v>6262874</v>
+        <v>4280294</v>
       </c>
       <c r="Z56" s="16" t="n">
-        <v>4280294</v>
+        <v>3349772</v>
       </c>
       <c r="AA56" s="16" t="n">
-        <v>3349772</v>
+        <v>3289109</v>
       </c>
       <c r="AB56" s="16" t="n">
-        <v>3289109</v>
+        <v>5287110</v>
       </c>
       <c r="AC56" s="16" t="n">
-        <v>5287110</v>
+        <v>8807821</v>
       </c>
       <c r="AD56" s="16" t="n">
-        <v>8807821</v>
+        <v>4050583</v>
       </c>
       <c r="AE56" s="16" t="n">
-        <v>4050583</v>
+        <v>18584987</v>
       </c>
       <c r="AF56" s="16" t="n">
-        <v>18584987</v>
+        <v>5205767</v>
       </c>
       <c r="AG56" s="16" t="n">
-        <v>5205767</v>
+        <v>20821224</v>
       </c>
       <c r="AH56" s="16" t="n">
-        <v>20821224</v>
+        <v>17448502</v>
       </c>
       <c r="AI56" s="16" t="n">
-        <v>17448502</v>
+        <v>6864990</v>
       </c>
       <c r="AJ56" s="16" t="n">
-        <v>6864990</v>
+        <v>10445836</v>
       </c>
       <c r="AK56" s="16" t="n">
-        <v>10445836</v>
+        <v>19834038</v>
       </c>
       <c r="AL56" s="16" t="n">
-        <v>19834038</v>
+        <v>6599389</v>
       </c>
       <c r="AM56" s="16" t="n">
-        <v>6599389</v>
+        <v>17711649</v>
       </c>
       <c r="AN56" s="16" t="n">
-        <v>17711649</v>
-      </c>
-      <c r="AO56" s="16" t="n">
         <v>6561845</v>
+      </c>
+      <c r="AO56" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP56" s="16" t="s">
         <v>57</v>
@@ -9192,115 +9192,115 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="n">
-        <v>3611258</v>
+        <v>1892037</v>
       </c>
       <c r="F57" s="13" t="n">
-        <v>1892037</v>
+        <v>1072376</v>
       </c>
       <c r="G57" s="13" t="n">
-        <v>1072376</v>
+        <v>3004476</v>
       </c>
       <c r="H57" s="13" t="n">
-        <v>3004476</v>
+        <v>2828896</v>
       </c>
       <c r="I57" s="13" t="n">
-        <v>2828896</v>
+        <v>3306580</v>
       </c>
       <c r="J57" s="13" t="n">
-        <v>3306580</v>
+        <v>2478192</v>
       </c>
       <c r="K57" s="13" t="n">
-        <v>2478192</v>
+        <v>2731944</v>
       </c>
       <c r="L57" s="13" t="n">
-        <v>2731944</v>
+        <v>2440857</v>
       </c>
       <c r="M57" s="13" t="n">
-        <v>2440857</v>
+        <v>2518563</v>
       </c>
       <c r="N57" s="13" t="n">
-        <v>2518563</v>
+        <v>2103142</v>
       </c>
       <c r="O57" s="13" t="n">
-        <v>2103142</v>
+        <v>2265667</v>
       </c>
       <c r="P57" s="13" t="n">
-        <v>2265667</v>
+        <v>2730389</v>
       </c>
       <c r="Q57" s="13" t="n">
-        <v>2730389</v>
-      </c>
-      <c r="R57" s="13" t="n">
         <v>2837793</v>
       </c>
+      <c r="R57" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S57" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U57" s="13" t="s">
-        <v>57</v>
+      <c r="U57" s="13" t="n">
+        <v>4820961</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>4820961</v>
+        <v>4872331</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>4872331</v>
+        <v>5635016</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>5635016</v>
+        <v>8808188</v>
       </c>
       <c r="Y57" s="13" t="n">
-        <v>8808188</v>
+        <v>7410055</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>7410055</v>
+        <v>9597688</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>9597688</v>
+        <v>7182793</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>7182793</v>
+        <v>5895455</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>5895455</v>
+        <v>10362984</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>10362984</v>
+        <v>6660271</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>6660271</v>
+        <v>5483906</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>5483906</v>
+        <v>7771653</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>7771653</v>
+        <v>3383187</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>3383187</v>
+        <v>5157712</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>5157712</v>
+        <v>8537712</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>8537712</v>
+        <v>9278929</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>9278929</v>
+        <v>10294057</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>10294057</v>
+        <v>9248682</v>
       </c>
       <c r="AM57" s="13" t="n">
-        <v>9248682</v>
+        <v>10695500</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>10695500</v>
-      </c>
-      <c r="AO57" s="13" t="n">
         <v>11968690</v>
+      </c>
+      <c r="AO57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP57" s="13" t="s">
         <v>57</v>
@@ -9458,47 +9458,47 @@
       <c r="AN58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO58" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP58" s="16" t="n">
+      <c r="AO58" s="16" t="n">
         <v>37558239</v>
       </c>
+      <c r="AP58" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR58" s="16" t="s">
-        <v>57</v>
+      <c r="AR58" s="16" t="n">
+        <v>15406812</v>
       </c>
       <c r="AS58" s="16" t="n">
-        <v>15406812</v>
+        <v>18982007</v>
       </c>
       <c r="AT58" s="16" t="n">
-        <v>18982007</v>
+        <v>14774282</v>
       </c>
       <c r="AU58" s="16" t="n">
-        <v>14774282</v>
+        <v>42433045</v>
       </c>
       <c r="AV58" s="16" t="n">
-        <v>42433045</v>
+        <v>21645865</v>
       </c>
       <c r="AW58" s="16" t="n">
-        <v>21645865</v>
+        <v>29059110</v>
       </c>
       <c r="AX58" s="16" t="n">
-        <v>29059110</v>
+        <v>34368852</v>
       </c>
       <c r="AY58" s="16" t="n">
-        <v>34368852</v>
+        <v>23054075</v>
       </c>
       <c r="AZ58" s="16" t="n">
-        <v>23054075</v>
+        <v>33291450</v>
       </c>
       <c r="BA58" s="16" t="n">
-        <v>33291450</v>
+        <v>47125549</v>
       </c>
       <c r="BB58" s="16" t="n">
-        <v>47125549</v>
+        <v>30605941</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9527,53 +9527,53 @@
       <c r="J59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K59" s="13" t="s">
-        <v>57</v>
+      <c r="K59" s="13" t="n">
+        <v>1040118</v>
       </c>
       <c r="L59" s="13" t="n">
-        <v>1040118</v>
+        <v>0</v>
       </c>
       <c r="M59" s="13" t="n">
-        <v>0</v>
+        <v>54434</v>
       </c>
       <c r="N59" s="13" t="n">
-        <v>54434</v>
+        <v>427721</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>427721</v>
+        <v>398336</v>
       </c>
       <c r="P59" s="13" t="n">
-        <v>398336</v>
+        <v>150288</v>
       </c>
       <c r="Q59" s="13" t="n">
-        <v>150288</v>
-      </c>
-      <c r="R59" s="13" t="n">
         <v>128350</v>
       </c>
-      <c r="S59" s="13" t="s">
-        <v>57</v>
+      <c r="R59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S59" s="13" t="n">
+        <v>41959</v>
       </c>
       <c r="T59" s="13" t="n">
-        <v>41959</v>
+        <v>16497</v>
       </c>
       <c r="U59" s="13" t="n">
-        <v>16497</v>
+        <v>160555</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>160555</v>
+        <v>126846</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>126846</v>
+        <v>0</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>0</v>
+        <v>73500</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>73500</v>
+        <v>326751</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>326751</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="13" t="n">
         <v>0</v>
@@ -9584,11 +9584,11 @@
       <c r="AC59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD59" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="13" t="s">
-        <v>57</v>
+      <c r="AD59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE59" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AF59" s="13" t="n">
         <v>0</v>
@@ -9620,8 +9620,8 @@
       <c r="AO59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP59" s="13" t="n">
-        <v>0</v>
+      <c r="AP59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ59" s="13" t="s">
         <v>57</v>
@@ -9669,115 +9669,115 @@
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16" t="n">
-        <v>3359345</v>
+        <v>4736462</v>
       </c>
       <c r="F60" s="16" t="n">
-        <v>4736462</v>
+        <v>1982944</v>
       </c>
       <c r="G60" s="16" t="n">
-        <v>1982944</v>
+        <v>4979736</v>
       </c>
       <c r="H60" s="16" t="n">
-        <v>4979736</v>
+        <v>3785483</v>
       </c>
       <c r="I60" s="16" t="n">
-        <v>3785483</v>
+        <v>3362624</v>
       </c>
       <c r="J60" s="16" t="n">
-        <v>3362624</v>
+        <v>3887304</v>
       </c>
       <c r="K60" s="16" t="n">
-        <v>3887304</v>
+        <v>3826366</v>
       </c>
       <c r="L60" s="16" t="n">
-        <v>3826366</v>
+        <v>2667760</v>
       </c>
       <c r="M60" s="16" t="n">
-        <v>2667760</v>
+        <v>3694684</v>
       </c>
       <c r="N60" s="16" t="n">
-        <v>3694684</v>
+        <v>4329693</v>
       </c>
       <c r="O60" s="16" t="n">
-        <v>4329693</v>
+        <v>4045546</v>
       </c>
       <c r="P60" s="16" t="n">
-        <v>4045546</v>
+        <v>3638320</v>
       </c>
       <c r="Q60" s="16" t="n">
-        <v>3638320</v>
-      </c>
-      <c r="R60" s="16" t="n">
         <v>4868032</v>
       </c>
+      <c r="R60" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S60" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>57</v>
+      <c r="U60" s="16" t="n">
+        <v>6376364</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>6376364</v>
+        <v>8522548</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>8522548</v>
+        <v>7500645</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>7500645</v>
+        <v>10341937</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>10341937</v>
+        <v>10097494</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>10097494</v>
+        <v>6191783</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>6191783</v>
+        <v>8870698</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>8870698</v>
+        <v>6876913</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>6876913</v>
+        <v>8189548</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>8189548</v>
+        <v>8400535</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>8400535</v>
+        <v>9420599</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>9420599</v>
+        <v>6098124</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>6098124</v>
+        <v>4582347</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>4582347</v>
+        <v>5347647</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>5347647</v>
+        <v>7004081</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>7004081</v>
+        <v>9067174</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>9067174</v>
+        <v>7522348</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>7522348</v>
+        <v>10349132</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>10349132</v>
+        <v>9056855</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>9056855</v>
-      </c>
-      <c r="AO60" s="16" t="n">
         <v>8331251</v>
+      </c>
+      <c r="AO60" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP60" s="16" t="s">
         <v>57</v>
@@ -9828,115 +9828,115 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="n">
-        <v>4609786</v>
+        <v>4962326</v>
       </c>
       <c r="F61" s="13" t="n">
-        <v>4962326</v>
+        <v>5772685</v>
       </c>
       <c r="G61" s="13" t="n">
-        <v>5772685</v>
+        <v>5357854</v>
       </c>
       <c r="H61" s="13" t="n">
-        <v>5357854</v>
+        <v>4255181</v>
       </c>
       <c r="I61" s="13" t="n">
-        <v>4255181</v>
+        <v>7425333</v>
       </c>
       <c r="J61" s="13" t="n">
-        <v>7425333</v>
+        <v>5084834</v>
       </c>
       <c r="K61" s="13" t="n">
-        <v>5084834</v>
+        <v>3050987</v>
       </c>
       <c r="L61" s="13" t="n">
-        <v>3050987</v>
+        <v>3455171</v>
       </c>
       <c r="M61" s="13" t="n">
-        <v>3455171</v>
+        <v>5562985</v>
       </c>
       <c r="N61" s="13" t="n">
-        <v>5562985</v>
+        <v>4283505</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>4283505</v>
+        <v>5577646</v>
       </c>
       <c r="P61" s="13" t="n">
-        <v>5577646</v>
+        <v>4016299</v>
       </c>
       <c r="Q61" s="13" t="n">
-        <v>4016299</v>
-      </c>
-      <c r="R61" s="13" t="n">
         <v>6367906</v>
       </c>
+      <c r="R61" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S61" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U61" s="13" t="s">
-        <v>57</v>
+      <c r="U61" s="13" t="n">
+        <v>5301095</v>
       </c>
       <c r="V61" s="13" t="n">
-        <v>5301095</v>
+        <v>7824437</v>
       </c>
       <c r="W61" s="13" t="n">
-        <v>7824437</v>
+        <v>4844694</v>
       </c>
       <c r="X61" s="13" t="n">
-        <v>4844694</v>
+        <v>13122982</v>
       </c>
       <c r="Y61" s="13" t="n">
-        <v>13122982</v>
+        <v>3445553</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>3445553</v>
+        <v>13108096</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>13108096</v>
+        <v>14068935</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>14068935</v>
+        <v>7056041</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>7056041</v>
+        <v>10413755</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>10413755</v>
+        <v>14829988</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>14829988</v>
+        <v>5881244</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>5881244</v>
+        <v>16680167</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>16680167</v>
+        <v>10819903</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>10819903</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>0</v>
+        <v>518411</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>518411</v>
+        <v>612785</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>612785</v>
+        <v>2960772</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>2960772</v>
+        <v>25998055</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>25998055</v>
+        <v>9654225</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>9654225</v>
-      </c>
-      <c r="AO61" s="13" t="n">
         <v>6651226</v>
+      </c>
+      <c r="AO61" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP61" s="13" t="s">
         <v>57</v>
@@ -10025,18 +10025,18 @@
       <c r="Q62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R62" s="16" t="s">
-        <v>57</v>
+      <c r="R62" s="16" t="n">
+        <v>10725994</v>
       </c>
       <c r="S62" s="16" t="n">
-        <v>10725994</v>
+        <v>6705840</v>
       </c>
       <c r="T62" s="16" t="n">
-        <v>6705840</v>
-      </c>
-      <c r="U62" s="16" t="n">
         <v>11852234</v>
       </c>
+      <c r="U62" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V62" s="16" t="s">
         <v>57</v>
       </c>
@@ -10097,14 +10097,14 @@
       <c r="AO62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP62" s="16" t="s">
-        <v>57</v>
+      <c r="AP62" s="16" t="n">
+        <v>18084613</v>
       </c>
       <c r="AQ62" s="16" t="n">
-        <v>18084613</v>
-      </c>
-      <c r="AR62" s="16" t="n">
         <v>25456763</v>
+      </c>
+      <c r="AR62" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AS62" s="16" t="s">
         <v>57</v>
@@ -10193,11 +10193,11 @@
       <c r="T63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>57</v>
+      <c r="U63" s="13" t="n">
+        <v>45674</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>45674</v>
+        <v>0</v>
       </c>
       <c r="W63" s="13" t="n">
         <v>0</v>
@@ -10220,8 +10220,8 @@
       <c r="AC63" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD63" s="13" t="n">
-        <v>0</v>
+      <c r="AD63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE63" s="13" t="s">
         <v>57</v>
@@ -10229,32 +10229,32 @@
       <c r="AF63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH63" s="13" t="n">
-        <v>0</v>
+      <c r="AG63" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ63" s="13" t="s">
-        <v>57</v>
+      <c r="AJ63" s="13" t="n">
+        <v>1409713</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>1409713</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>0</v>
+        <v>1879694</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>1879694</v>
-      </c>
-      <c r="AO63" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP63" s="13" t="s">
         <v>57</v>
@@ -10409,8 +10409,8 @@
       <c r="T65" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U65" s="20" t="s">
-        <v>57</v>
+      <c r="U65" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V65" s="23" t="n">
         <v>0</v>
@@ -10625,8 +10625,8 @@
       <c r="T67" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U67" s="20" t="s">
-        <v>57</v>
+      <c r="U67" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="23" t="n">
         <v>0</v>
@@ -10841,8 +10841,8 @@
       <c r="T69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U69" s="13" t="s">
-        <v>57</v>
+      <c r="U69" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="13" t="n">
         <v>0</v>
@@ -10951,154 +10951,154 @@
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22" t="n">
-        <v>12763216</v>
+        <v>12753246</v>
       </c>
       <c r="F70" s="22" t="n">
-        <v>12753246</v>
+        <v>11349648</v>
       </c>
       <c r="G70" s="22" t="n">
-        <v>11349648</v>
+        <v>13342066</v>
       </c>
       <c r="H70" s="22" t="n">
-        <v>13342066</v>
+        <v>13355633</v>
       </c>
       <c r="I70" s="22" t="n">
-        <v>13355633</v>
+        <v>14379785</v>
       </c>
       <c r="J70" s="22" t="n">
-        <v>14379785</v>
+        <v>14391625</v>
       </c>
       <c r="K70" s="22" t="n">
-        <v>14391625</v>
+        <v>12651348</v>
       </c>
       <c r="L70" s="22" t="n">
-        <v>12651348</v>
+        <v>8996552</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>8996552</v>
+        <v>13667960</v>
       </c>
       <c r="N70" s="22" t="n">
-        <v>13667960</v>
+        <v>11144061</v>
       </c>
       <c r="O70" s="22" t="n">
-        <v>11144061</v>
+        <v>14161945</v>
       </c>
       <c r="P70" s="22" t="n">
-        <v>14161945</v>
+        <v>13333118</v>
       </c>
       <c r="Q70" s="22" t="n">
-        <v>13333118</v>
+        <v>17634072</v>
       </c>
       <c r="R70" s="22" t="n">
-        <v>17634072</v>
+        <v>17498947</v>
       </c>
       <c r="S70" s="22" t="n">
-        <v>17498947</v>
+        <v>12917553</v>
       </c>
       <c r="T70" s="22" t="n">
-        <v>12917553</v>
+        <v>17678660</v>
       </c>
       <c r="U70" s="22" t="n">
-        <v>17678660</v>
+        <v>18935844</v>
       </c>
       <c r="V70" s="22" t="n">
-        <v>18935844</v>
+        <v>26958608</v>
       </c>
       <c r="W70" s="22" t="n">
-        <v>26958608</v>
+        <v>18130790</v>
       </c>
       <c r="X70" s="22" t="n">
-        <v>18130790</v>
+        <v>38609481</v>
       </c>
       <c r="Y70" s="22" t="n">
-        <v>38609481</v>
+        <v>25821321</v>
       </c>
       <c r="Z70" s="22" t="n">
-        <v>25821321</v>
+        <v>32247339</v>
       </c>
       <c r="AA70" s="22" t="n">
-        <v>32247339</v>
+        <v>33603011</v>
       </c>
       <c r="AB70" s="22" t="n">
-        <v>33603011</v>
+        <v>26265732</v>
       </c>
       <c r="AC70" s="22" t="n">
-        <v>26265732</v>
+        <v>37801860</v>
       </c>
       <c r="AD70" s="22" t="n">
-        <v>37801860</v>
+        <v>33941377</v>
       </c>
       <c r="AE70" s="22" t="n">
-        <v>33941377</v>
+        <v>39370736</v>
       </c>
       <c r="AF70" s="22" t="n">
-        <v>39370736</v>
+        <v>35755711</v>
       </c>
       <c r="AG70" s="22" t="n">
-        <v>35755711</v>
+        <v>39611110</v>
       </c>
       <c r="AH70" s="22" t="n">
-        <v>39611110</v>
+        <v>29602151</v>
       </c>
       <c r="AI70" s="22" t="n">
-        <v>29602151</v>
+        <v>23602729</v>
       </c>
       <c r="AJ70" s="22" t="n">
-        <v>23602729</v>
+        <v>32042919</v>
       </c>
       <c r="AK70" s="22" t="n">
-        <v>32042919</v>
+        <v>42584887</v>
       </c>
       <c r="AL70" s="22" t="n">
-        <v>42584887</v>
+        <v>54078909</v>
       </c>
       <c r="AM70" s="22" t="n">
-        <v>54078909</v>
+        <v>50566158</v>
       </c>
       <c r="AN70" s="22" t="n">
-        <v>50566158</v>
+        <v>36279554</v>
       </c>
       <c r="AO70" s="22" t="n">
-        <v>36279554</v>
+        <v>84732808</v>
       </c>
       <c r="AP70" s="22" t="n">
-        <v>84732808</v>
+        <v>27164022</v>
       </c>
       <c r="AQ70" s="22" t="n">
-        <v>27164022</v>
+        <v>40081597</v>
       </c>
       <c r="AR70" s="22" t="n">
-        <v>40081597</v>
+        <v>60395586</v>
       </c>
       <c r="AS70" s="22" t="n">
-        <v>60395586</v>
+        <v>34809508</v>
       </c>
       <c r="AT70" s="22" t="n">
-        <v>34809508</v>
+        <v>26462923</v>
       </c>
       <c r="AU70" s="22" t="n">
-        <v>26462923</v>
+        <v>56690183</v>
       </c>
       <c r="AV70" s="22" t="n">
-        <v>56690183</v>
+        <v>40014483</v>
       </c>
       <c r="AW70" s="22" t="n">
-        <v>40014483</v>
+        <v>41410349</v>
       </c>
       <c r="AX70" s="22" t="n">
-        <v>41410349</v>
+        <v>47586112</v>
       </c>
       <c r="AY70" s="22" t="n">
-        <v>47586112</v>
+        <v>37324857</v>
       </c>
       <c r="AZ70" s="22" t="n">
-        <v>37324857</v>
+        <v>49943029</v>
       </c>
       <c r="BA70" s="22" t="n">
-        <v>49943029</v>
+        <v>76502766</v>
       </c>
       <c r="BB70" s="22" t="n">
-        <v>76502766</v>
+        <v>46840026</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11544,83 +11544,83 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="n">
-        <v>6875996</v>
-      </c>
-      <c r="F77" s="13" t="n">
         <v>11963207</v>
       </c>
+      <c r="F77" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G77" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I77" s="13" t="s">
-        <v>57</v>
+      <c r="I77" s="13" t="n">
+        <v>9012006</v>
       </c>
       <c r="J77" s="13" t="n">
-        <v>9012006</v>
+        <v>9541017</v>
       </c>
       <c r="K77" s="13" t="n">
-        <v>9541017</v>
+        <v>9017873</v>
       </c>
       <c r="L77" s="13" t="n">
-        <v>9017873</v>
+        <v>9043046</v>
       </c>
       <c r="M77" s="13" t="n">
-        <v>9043046</v>
+        <v>8828976</v>
       </c>
       <c r="N77" s="13" t="n">
-        <v>8828976</v>
+        <v>0</v>
       </c>
       <c r="O77" s="13" t="n">
-        <v>0</v>
+        <v>9464914</v>
       </c>
       <c r="P77" s="13" t="n">
-        <v>9464914</v>
+        <v>10174085</v>
       </c>
       <c r="Q77" s="13" t="n">
-        <v>10174085</v>
+        <v>11536216</v>
       </c>
       <c r="R77" s="13" t="n">
-        <v>11536216</v>
+        <v>11496710</v>
       </c>
       <c r="S77" s="13" t="n">
-        <v>11496710</v>
+        <v>11190352</v>
       </c>
       <c r="T77" s="13" t="n">
-        <v>11190352</v>
+        <v>12928939</v>
       </c>
       <c r="U77" s="13" t="n">
-        <v>12928939</v>
+        <v>14003512</v>
       </c>
       <c r="V77" s="13" t="n">
-        <v>14003512</v>
+        <v>16211577</v>
       </c>
       <c r="W77" s="13" t="n">
-        <v>16211577</v>
-      </c>
-      <c r="X77" s="13" t="n">
         <v>18061592</v>
       </c>
-      <c r="Y77" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z77" s="13" t="n">
+      <c r="X77" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y77" s="13" t="n">
         <v>24220903</v>
       </c>
-      <c r="AA77" s="13" t="s">
-        <v>57</v>
+      <c r="Z77" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA77" s="13" t="n">
+        <v>26100872</v>
       </c>
       <c r="AB77" s="13" t="n">
-        <v>26100872</v>
+        <v>24453367</v>
       </c>
       <c r="AC77" s="13" t="n">
-        <v>24453367</v>
-      </c>
-      <c r="AD77" s="13" t="n">
         <v>26107244</v>
       </c>
+      <c r="AD77" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE77" s="13" t="s">
         <v>57</v>
       </c>
@@ -11630,68 +11630,68 @@
       <c r="AG77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH77" s="13" t="s">
-        <v>57</v>
+      <c r="AH77" s="13" t="n">
+        <v>35944103</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>35944103</v>
+        <v>36036697</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>36036697</v>
+        <v>34928116</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>34928116</v>
+        <v>36061462</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>36061462</v>
+        <v>34819415</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>34819415</v>
+        <v>34673219</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>34673219</v>
+        <v>37307055</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>37307055</v>
-      </c>
-      <c r="AP77" s="13" t="n">
         <v>42347288</v>
       </c>
-      <c r="AQ77" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR77" s="13" t="n">
+      <c r="AP77" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ77" s="13" t="n">
         <v>36341912</v>
       </c>
-      <c r="AS77" s="13" t="s">
-        <v>57</v>
+      <c r="AR77" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS77" s="13" t="n">
+        <v>33531130</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>33531130</v>
+        <v>25819724</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>25819724</v>
+        <v>26860171</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>26860171</v>
+        <v>28032191</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>28032191</v>
+        <v>29176714</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>29176714</v>
+        <v>29903801</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>29903801</v>
+        <v>35871900</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>35871900</v>
+        <v>38153961</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>38153961</v>
+        <v>40676432</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>40676432</v>
+        <v>41801024</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11741,18 +11741,18 @@
       <c r="Q78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R78" s="16" t="s">
-        <v>57</v>
+      <c r="R78" s="16" t="n">
+        <v>50972326</v>
       </c>
       <c r="S78" s="16" t="n">
-        <v>50972326</v>
+        <v>50199385</v>
       </c>
       <c r="T78" s="16" t="n">
-        <v>50199385</v>
-      </c>
-      <c r="U78" s="16" t="n">
         <v>54153799</v>
       </c>
+      <c r="U78" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V78" s="16" t="s">
         <v>57</v>
       </c>
@@ -11810,47 +11810,47 @@
       <c r="AN78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO78" s="16" t="s">
-        <v>57</v>
+      <c r="AO78" s="16" t="n">
+        <v>143811357</v>
       </c>
       <c r="AP78" s="16" t="n">
-        <v>143811357</v>
+        <v>155677257</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>155677257</v>
+        <v>145638890</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>145638890</v>
+        <v>169419069</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>169419069</v>
+        <v>150633814</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>150633814</v>
+        <v>141765626</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>141765626</v>
+        <v>121170616</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>121170616</v>
+        <v>117763662</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>117763662</v>
+        <v>125647769</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>125647769</v>
+        <v>129058047</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>129058047</v>
+        <v>115080036</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>115080036</v>
+        <v>132888318</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>132888318</v>
+        <v>175744141</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>175744141</v>
+        <v>196385826</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11897,12 +11897,12 @@
       <c r="P79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R79" s="13" t="n">
+      <c r="Q79" s="13" t="n">
         <v>20993842</v>
       </c>
+      <c r="R79" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S79" s="13" t="s">
         <v>57</v>
       </c>
@@ -11945,27 +11945,27 @@
       <c r="AF79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG79" s="13" t="s">
-        <v>57</v>
+      <c r="AG79" s="13" t="n">
+        <v>82388889</v>
       </c>
       <c r="AH79" s="13" t="n">
-        <v>82388889</v>
+        <v>83389504</v>
       </c>
       <c r="AI79" s="13" t="n">
-        <v>83389504</v>
+        <v>81757905</v>
       </c>
       <c r="AJ79" s="13" t="n">
-        <v>81757905</v>
+        <v>83931303</v>
       </c>
       <c r="AK79" s="13" t="n">
-        <v>83931303</v>
+        <v>85483199</v>
       </c>
       <c r="AL79" s="13" t="n">
-        <v>85483199</v>
-      </c>
-      <c r="AM79" s="13" t="n">
         <v>84035724</v>
       </c>
+      <c r="AM79" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AN79" s="13" t="s">
         <v>57</v>
       </c>
@@ -11978,38 +11978,38 @@
       <c r="AQ79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR79" s="13" t="s">
-        <v>57</v>
+      <c r="AR79" s="13" t="n">
+        <v>95470495</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>95470495</v>
+        <v>86030167</v>
       </c>
       <c r="AT79" s="13" t="n">
-        <v>86030167</v>
-      </c>
-      <c r="AU79" s="13" t="n">
         <v>80684045</v>
       </c>
+      <c r="AU79" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AV79" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AW79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY79" s="13" t="n">
+      <c r="AX79" s="13" t="n">
         <v>79578452</v>
       </c>
+      <c r="AY79" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AZ79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BA79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB79" s="13" t="n">
+      <c r="BA79" s="13" t="n">
         <v>80085714</v>
+      </c>
+      <c r="BB79" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12021,115 +12021,115 @@
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16" t="n">
-        <v>33113543</v>
+        <v>31865016</v>
       </c>
       <c r="F80" s="16" t="n">
-        <v>31865016</v>
+        <v>30003843</v>
       </c>
       <c r="G80" s="16" t="n">
-        <v>30003843</v>
+        <v>0</v>
       </c>
       <c r="H80" s="16" t="n">
-        <v>0</v>
+        <v>43892532</v>
       </c>
       <c r="I80" s="16" t="n">
-        <v>43892532</v>
+        <v>0</v>
       </c>
       <c r="J80" s="16" t="n">
-        <v>0</v>
+        <v>43115092</v>
       </c>
       <c r="K80" s="16" t="n">
-        <v>43115092</v>
+        <v>41891653</v>
       </c>
       <c r="L80" s="16" t="n">
-        <v>41891653</v>
+        <v>0</v>
       </c>
       <c r="M80" s="16" t="n">
-        <v>0</v>
+        <v>38706138</v>
       </c>
       <c r="N80" s="16" t="n">
-        <v>38706138</v>
+        <v>0</v>
       </c>
       <c r="O80" s="16" t="n">
-        <v>0</v>
+        <v>38908625</v>
       </c>
       <c r="P80" s="16" t="n">
-        <v>38908625</v>
+        <v>41945690</v>
       </c>
       <c r="Q80" s="16" t="n">
-        <v>41945690</v>
-      </c>
-      <c r="R80" s="16" t="n">
         <v>51237759</v>
       </c>
+      <c r="R80" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S80" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T80" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U80" s="16" t="s">
-        <v>57</v>
+      <c r="U80" s="16" t="n">
+        <v>54385932</v>
       </c>
       <c r="V80" s="16" t="n">
-        <v>54385932</v>
-      </c>
-      <c r="W80" s="16" t="n">
         <v>62926501</v>
       </c>
-      <c r="X80" s="16" t="s">
-        <v>57</v>
+      <c r="W80" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X80" s="16" t="n">
+        <v>89781298</v>
       </c>
       <c r="Y80" s="16" t="n">
-        <v>89781298</v>
+        <v>106841745</v>
       </c>
       <c r="Z80" s="16" t="n">
-        <v>106841745</v>
+        <v>112870544</v>
       </c>
       <c r="AA80" s="16" t="n">
-        <v>112870544</v>
+        <v>110228526</v>
       </c>
       <c r="AB80" s="16" t="n">
-        <v>110228526</v>
+        <v>117957922</v>
       </c>
       <c r="AC80" s="16" t="n">
-        <v>117957922</v>
+        <v>145887650</v>
       </c>
       <c r="AD80" s="16" t="n">
-        <v>145887650</v>
+        <v>130710349</v>
       </c>
       <c r="AE80" s="16" t="n">
-        <v>130710349</v>
+        <v>130159729</v>
       </c>
       <c r="AF80" s="16" t="n">
-        <v>130159729</v>
+        <v>130886958</v>
       </c>
       <c r="AG80" s="16" t="n">
-        <v>130886958</v>
+        <v>151445808</v>
       </c>
       <c r="AH80" s="16" t="n">
-        <v>151445808</v>
+        <v>154983452</v>
       </c>
       <c r="AI80" s="16" t="n">
-        <v>154983452</v>
+        <v>170148710</v>
       </c>
       <c r="AJ80" s="16" t="n">
-        <v>170148710</v>
+        <v>156966941</v>
       </c>
       <c r="AK80" s="16" t="n">
-        <v>156966941</v>
+        <v>162628736</v>
       </c>
       <c r="AL80" s="16" t="n">
-        <v>162628736</v>
+        <v>158704014</v>
       </c>
       <c r="AM80" s="16" t="n">
-        <v>158704014</v>
+        <v>161346485</v>
       </c>
       <c r="AN80" s="16" t="n">
-        <v>161346485</v>
-      </c>
-      <c r="AO80" s="16" t="n">
         <v>158257844</v>
+      </c>
+      <c r="AO80" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP80" s="16" t="s">
         <v>57</v>
@@ -12180,115 +12180,115 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13" t="n">
-        <v>29938138</v>
+        <v>32268598</v>
       </c>
       <c r="F81" s="13" t="n">
-        <v>32268598</v>
+        <v>37541607</v>
       </c>
       <c r="G81" s="13" t="n">
-        <v>37541607</v>
+        <v>38444990</v>
       </c>
       <c r="H81" s="13" t="n">
-        <v>38444990</v>
+        <v>39816687</v>
       </c>
       <c r="I81" s="13" t="n">
-        <v>39816687</v>
+        <v>39521664</v>
       </c>
       <c r="J81" s="13" t="n">
-        <v>39521664</v>
+        <v>39397666</v>
       </c>
       <c r="K81" s="13" t="n">
-        <v>39397666</v>
+        <v>38694446</v>
       </c>
       <c r="L81" s="13" t="n">
-        <v>38694446</v>
+        <v>38602831</v>
       </c>
       <c r="M81" s="13" t="n">
-        <v>38602831</v>
+        <v>38386877</v>
       </c>
       <c r="N81" s="13" t="n">
-        <v>38386877</v>
+        <v>37920414</v>
       </c>
       <c r="O81" s="13" t="n">
-        <v>37920414</v>
+        <v>39871656</v>
       </c>
       <c r="P81" s="13" t="n">
-        <v>39871656</v>
+        <v>42070061</v>
       </c>
       <c r="Q81" s="13" t="n">
-        <v>42070061</v>
-      </c>
-      <c r="R81" s="13" t="n">
         <v>47438867</v>
       </c>
+      <c r="R81" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S81" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U81" s="13" t="s">
-        <v>57</v>
+      <c r="U81" s="13" t="n">
+        <v>60321580</v>
       </c>
       <c r="V81" s="13" t="n">
-        <v>60321580</v>
+        <v>70513343</v>
       </c>
       <c r="W81" s="13" t="n">
-        <v>70513343</v>
+        <v>74361182</v>
       </c>
       <c r="X81" s="13" t="n">
-        <v>74361182</v>
+        <v>97321592</v>
       </c>
       <c r="Y81" s="13" t="n">
-        <v>97321592</v>
+        <v>102190741</v>
       </c>
       <c r="Z81" s="13" t="n">
-        <v>102190741</v>
+        <v>102667736</v>
       </c>
       <c r="AA81" s="13" t="n">
-        <v>102667736</v>
+        <v>108059048</v>
       </c>
       <c r="AB81" s="13" t="n">
-        <v>108059048</v>
+        <v>126566230</v>
       </c>
       <c r="AC81" s="13" t="n">
-        <v>126566230</v>
+        <v>125634770</v>
       </c>
       <c r="AD81" s="13" t="n">
-        <v>125634770</v>
+        <v>138888748</v>
       </c>
       <c r="AE81" s="13" t="n">
-        <v>138888748</v>
+        <v>166360454</v>
       </c>
       <c r="AF81" s="13" t="n">
-        <v>166360454</v>
+        <v>168765537</v>
       </c>
       <c r="AG81" s="13" t="n">
-        <v>168765537</v>
+        <v>169872816</v>
       </c>
       <c r="AH81" s="13" t="n">
-        <v>169872816</v>
+        <v>168096731</v>
       </c>
       <c r="AI81" s="13" t="n">
-        <v>168096731</v>
+        <v>164906650</v>
       </c>
       <c r="AJ81" s="13" t="n">
-        <v>164906650</v>
+        <v>162694037</v>
       </c>
       <c r="AK81" s="13" t="n">
-        <v>162694037</v>
+        <v>153208171</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>153208171</v>
+        <v>153489810</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>153489810</v>
+        <v>150171295</v>
       </c>
       <c r="AN81" s="13" t="n">
-        <v>150171295</v>
-      </c>
-      <c r="AO81" s="13" t="n">
         <v>146427488</v>
+      </c>
+      <c r="AO81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP81" s="13" t="s">
         <v>57</v>
@@ -12446,47 +12446,47 @@
       <c r="AN82" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO82" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP82" s="16" t="n">
+      <c r="AO82" s="16" t="n">
         <v>136059871</v>
       </c>
+      <c r="AP82" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ82" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR82" s="16" t="s">
-        <v>57</v>
+      <c r="AR82" s="16" t="n">
+        <v>155315302</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>155315302</v>
+        <v>158062211</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>158062211</v>
+        <v>138547427</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>138547427</v>
+        <v>121873451</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>121873451</v>
+        <v>125495643</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>125495643</v>
+        <v>130737298</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>130737298</v>
+        <v>133483193</v>
       </c>
       <c r="AY82" s="16" t="n">
-        <v>133483193</v>
+        <v>144743839</v>
       </c>
       <c r="AZ82" s="16" t="n">
-        <v>144743839</v>
+        <v>144673727</v>
       </c>
       <c r="BA82" s="16" t="n">
-        <v>144673727</v>
+        <v>184938795</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>184938795</v>
+        <v>198451220</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12515,53 +12515,53 @@
       <c r="J83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K83" s="13" t="s">
-        <v>57</v>
+      <c r="K83" s="13" t="n">
+        <v>56999014</v>
       </c>
       <c r="L83" s="13" t="n">
-        <v>56999014</v>
+        <v>0</v>
       </c>
       <c r="M83" s="13" t="n">
-        <v>0</v>
+        <v>54983838</v>
       </c>
       <c r="N83" s="13" t="n">
-        <v>54983838</v>
+        <v>53265380</v>
       </c>
       <c r="O83" s="13" t="n">
-        <v>53265380</v>
+        <v>54335834</v>
       </c>
       <c r="P83" s="13" t="n">
-        <v>54335834</v>
+        <v>48215592</v>
       </c>
       <c r="Q83" s="13" t="n">
-        <v>48215592</v>
-      </c>
-      <c r="R83" s="13" t="n">
         <v>61089957</v>
       </c>
-      <c r="S83" s="13" t="s">
-        <v>57</v>
+      <c r="R83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S83" s="13" t="n">
+        <v>61886431</v>
       </c>
       <c r="T83" s="13" t="n">
-        <v>61886431</v>
+        <v>58500000</v>
       </c>
       <c r="U83" s="13" t="n">
-        <v>58500000</v>
+        <v>80237381</v>
       </c>
       <c r="V83" s="13" t="n">
-        <v>80237381</v>
-      </c>
-      <c r="W83" s="13" t="n">
         <v>64552672</v>
       </c>
-      <c r="X83" s="13" t="s">
-        <v>57</v>
+      <c r="W83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X83" s="13" t="n">
+        <v>76482830</v>
       </c>
       <c r="Y83" s="13" t="n">
-        <v>76482830</v>
-      </c>
-      <c r="Z83" s="13" t="n">
         <v>74329163</v>
+      </c>
+      <c r="Z83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA83" s="13" t="s">
         <v>57</v>
@@ -12657,115 +12657,115 @@
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16" t="n">
-        <v>29864826</v>
+        <v>35085164</v>
       </c>
       <c r="F84" s="16" t="n">
-        <v>35085164</v>
+        <v>37961980</v>
       </c>
       <c r="G84" s="16" t="n">
-        <v>37961980</v>
+        <v>40188330</v>
       </c>
       <c r="H84" s="16" t="n">
-        <v>40188330</v>
+        <v>41210610</v>
       </c>
       <c r="I84" s="16" t="n">
-        <v>41210610</v>
+        <v>37723799</v>
       </c>
       <c r="J84" s="16" t="n">
-        <v>37723799</v>
+        <v>35570660</v>
       </c>
       <c r="K84" s="16" t="n">
-        <v>35570660</v>
+        <v>34411313</v>
       </c>
       <c r="L84" s="16" t="n">
-        <v>34411313</v>
+        <v>34642185</v>
       </c>
       <c r="M84" s="16" t="n">
-        <v>34642185</v>
+        <v>34793800</v>
       </c>
       <c r="N84" s="16" t="n">
-        <v>34793800</v>
+        <v>36020740</v>
       </c>
       <c r="O84" s="16" t="n">
-        <v>36020740</v>
+        <v>39780778</v>
       </c>
       <c r="P84" s="16" t="n">
-        <v>39780778</v>
+        <v>43671544</v>
       </c>
       <c r="Q84" s="16" t="n">
-        <v>43671544</v>
-      </c>
-      <c r="R84" s="16" t="n">
         <v>47805010</v>
       </c>
+      <c r="R84" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S84" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U84" s="16" t="s">
-        <v>57</v>
+      <c r="U84" s="16" t="n">
+        <v>63068624</v>
       </c>
       <c r="V84" s="16" t="n">
-        <v>63068624</v>
+        <v>73252379</v>
       </c>
       <c r="W84" s="16" t="n">
-        <v>73252379</v>
+        <v>80556815</v>
       </c>
       <c r="X84" s="16" t="n">
-        <v>80556815</v>
+        <v>94066353</v>
       </c>
       <c r="Y84" s="16" t="n">
-        <v>94066353</v>
+        <v>101070957</v>
       </c>
       <c r="Z84" s="16" t="n">
-        <v>101070957</v>
+        <v>97788670</v>
       </c>
       <c r="AA84" s="16" t="n">
-        <v>97788670</v>
+        <v>112590884</v>
       </c>
       <c r="AB84" s="16" t="n">
-        <v>112590884</v>
+        <v>108139465</v>
       </c>
       <c r="AC84" s="16" t="n">
-        <v>108139465</v>
+        <v>105099304</v>
       </c>
       <c r="AD84" s="16" t="n">
-        <v>105099304</v>
+        <v>108395399</v>
       </c>
       <c r="AE84" s="16" t="n">
-        <v>108395399</v>
+        <v>117987563</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>117987563</v>
+        <v>123271625</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>123271625</v>
+        <v>131092748</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>131092748</v>
+        <v>135236249</v>
       </c>
       <c r="AI84" s="16" t="n">
-        <v>135236249</v>
+        <v>140825177</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>140825177</v>
+        <v>130528669</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>130528669</v>
+        <v>135910024</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>135910024</v>
+        <v>134991613</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>134991613</v>
+        <v>129057312</v>
       </c>
       <c r="AN84" s="16" t="n">
-        <v>129057312</v>
-      </c>
-      <c r="AO84" s="16" t="n">
         <v>127286007</v>
+      </c>
+      <c r="AO84" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP84" s="16" t="s">
         <v>57</v>
@@ -12816,115 +12816,115 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="n">
-        <v>35446259</v>
+        <v>32428416</v>
       </c>
       <c r="F85" s="13" t="n">
-        <v>32428416</v>
+        <v>33097222</v>
       </c>
       <c r="G85" s="13" t="n">
-        <v>33097222</v>
+        <v>38194270</v>
       </c>
       <c r="H85" s="13" t="n">
-        <v>38194270</v>
+        <v>45302583</v>
       </c>
       <c r="I85" s="13" t="n">
-        <v>45302583</v>
+        <v>45424605</v>
       </c>
       <c r="J85" s="13" t="n">
-        <v>45424605</v>
+        <v>44742351</v>
       </c>
       <c r="K85" s="13" t="n">
-        <v>44742351</v>
+        <v>42144197</v>
       </c>
       <c r="L85" s="13" t="n">
-        <v>42144197</v>
+        <v>41984167</v>
       </c>
       <c r="M85" s="13" t="n">
-        <v>41984167</v>
+        <v>38940661</v>
       </c>
       <c r="N85" s="13" t="n">
-        <v>38940661</v>
+        <v>39615132</v>
       </c>
       <c r="O85" s="13" t="n">
-        <v>39615132</v>
+        <v>41226420</v>
       </c>
       <c r="P85" s="13" t="n">
-        <v>41226420</v>
+        <v>44397637</v>
       </c>
       <c r="Q85" s="13" t="n">
-        <v>44397637</v>
-      </c>
-      <c r="R85" s="13" t="n">
         <v>53331653</v>
       </c>
+      <c r="R85" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S85" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U85" s="13" t="s">
-        <v>57</v>
+      <c r="U85" s="13" t="n">
+        <v>57390412</v>
       </c>
       <c r="V85" s="13" t="n">
-        <v>57390412</v>
+        <v>68432516</v>
       </c>
       <c r="W85" s="13" t="n">
-        <v>68432516</v>
+        <v>74474175</v>
       </c>
       <c r="X85" s="13" t="n">
-        <v>74474175</v>
+        <v>96726508</v>
       </c>
       <c r="Y85" s="13" t="n">
-        <v>96726508</v>
+        <v>106508594</v>
       </c>
       <c r="Z85" s="13" t="n">
-        <v>106508594</v>
+        <v>107235092</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>107235092</v>
+        <v>111902446</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>111902446</v>
+        <v>119218075</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>119218075</v>
+        <v>130530897</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>130530897</v>
+        <v>125259625</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>125259625</v>
+        <v>119983761</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>119983761</v>
+        <v>117168094</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>117168094</v>
-      </c>
-      <c r="AH85" s="13" t="n">
         <v>125291264</v>
       </c>
-      <c r="AI85" s="13" t="s">
-        <v>57</v>
+      <c r="AH85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI85" s="13" t="n">
+        <v>141487718</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>141487718</v>
+        <v>127956776</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>127956776</v>
+        <v>146914703</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>146914703</v>
+        <v>149605845</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>149605845</v>
+        <v>141605307</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>141605307</v>
-      </c>
-      <c r="AO85" s="13" t="n">
         <v>147785318</v>
+      </c>
+      <c r="AO85" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP85" s="13" t="s">
         <v>57</v>
@@ -13013,18 +13013,18 @@
       <c r="Q86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R86" s="16" t="s">
-        <v>57</v>
+      <c r="R86" s="16" t="n">
+        <v>48265935</v>
       </c>
       <c r="S86" s="16" t="n">
-        <v>48265935</v>
+        <v>44947718</v>
       </c>
       <c r="T86" s="16" t="n">
-        <v>44947718</v>
-      </c>
-      <c r="U86" s="16" t="n">
         <v>55418714</v>
       </c>
+      <c r="U86" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V86" s="16" t="s">
         <v>57</v>
       </c>
@@ -13085,14 +13085,14 @@
       <c r="AO86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP86" s="16" t="s">
-        <v>57</v>
+      <c r="AP86" s="16" t="n">
+        <v>143847193</v>
       </c>
       <c r="AQ86" s="16" t="n">
-        <v>143847193</v>
-      </c>
-      <c r="AR86" s="16" t="n">
         <v>148490483</v>
+      </c>
+      <c r="AR86" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AS86" s="16" t="s">
         <v>57</v>
@@ -13181,12 +13181,12 @@
       <c r="T87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U87" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V87" s="13" t="n">
+      <c r="U87" s="13" t="n">
         <v>21362956</v>
       </c>
+      <c r="V87" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W87" s="13" t="s">
         <v>57</v>
       </c>
@@ -13226,20 +13226,20 @@
       <c r="AI87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ87" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK87" s="13" t="n">
+      <c r="AJ87" s="13" t="n">
         <v>79874950</v>
       </c>
+      <c r="AK87" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AL87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM87" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN87" s="13" t="n">
+      <c r="AM87" s="13" t="n">
         <v>81612279</v>
+      </c>
+      <c r="AN87" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO87" s="13" t="s">
         <v>57</v>
